--- a/Documentation/Documentation/ProjectDocumentation/Time_recording.xlsx
+++ b/Documentation/Documentation/ProjectDocumentation/Time_recording.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renehorschinger/Hagenberg/5_Semester/BAC/Projekt/ALPR-CNN/Documentation/Documentation/ProjectDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456BFDE4-2473-7D44-90B8-D3ACC23ABB29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53F18DD-FD87-B443-BCDA-867389454861}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39720" yWindow="500" windowWidth="32280" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40740" yWindow="680" windowWidth="13260" windowHeight="19680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="114">
   <si>
     <t>Nr</t>
   </si>
@@ -374,6 +374,15 @@
   </si>
   <si>
     <t>NN definieren, Klassenstrukturen erstellen</t>
+  </si>
+  <si>
+    <t>NN bauen, Testdaten generieren, Input - Output fürs Testen festlegen</t>
+  </si>
+  <si>
+    <t>Implementation / Test</t>
+  </si>
+  <si>
+    <t>NN trainieren, erstes Modell ausprobieren fürs extrahieren vom Kennzeichen</t>
   </si>
 </sst>
 </file>
@@ -1279,116 +1288,100 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1396,9 +1389,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1414,6 +1404,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1457,13 +1450,13 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1499,83 +1492,90 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1583,7 +1583,16 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1595,8 +1604,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2131,18 +2140,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
       <c r="J2" s="17"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -2152,18 +2161,18 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="2:33" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="95">
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="142">
         <v>5</v>
       </c>
-      <c r="F3" s="95"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -2176,20 +2185,20 @@
       <c r="B4" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="144" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="100">
+      <c r="D4" s="145"/>
+      <c r="E4" s="146">
         <f>IF(EXACT($C$4,"PRO-1"),3,IF(EXACT($C$4,"PRO-2"),4,IF(EXACT($C$4,"PRO-3"),4,IF(EXACT($C$4,"PRO-4"),6,IF(EXACT($C$4,"PRO-2-M"),5,IF(EXACT($C$4,"PRO-3-M"),5))))))</f>
         <v>3</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="97" t="s">
+      <c r="F4" s="146"/>
+      <c r="G4" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -2199,20 +2208,20 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:33" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="96">
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="122">
         <v>12</v>
       </c>
-      <c r="F5" s="96"/>
-      <c r="G5" s="101" t="s">
+      <c r="F5" s="122"/>
+      <c r="G5" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -2222,21 +2231,21 @@
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:33" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="77">
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="155">
         <f>(25*60)*E4</f>
         <v>4500</v>
       </c>
-      <c r="F6" s="78"/>
-      <c r="G6" s="102" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="148" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -2246,19 +2255,19 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="2:33" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="79">
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="157">
         <f>E6/60</f>
         <v>75</v>
       </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="143" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -2268,9 +2277,9 @@
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="2:33" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
       <c r="E8" s="27" t="s">
         <v>2</v>
       </c>
@@ -2278,11 +2287,11 @@
         <f>(E6/60)/E5</f>
         <v>6.25</v>
       </c>
-      <c r="G8" s="97" t="s">
+      <c r="G8" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
       <c r="L8" s="21"/>
@@ -2310,62 +2319,62 @@
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="2:33" s="4" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="151"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="74" t="s">
+      <c r="I10" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="76"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="153"/>
+      <c r="N10" s="153"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="153"/>
+      <c r="R10" s="153"/>
+      <c r="S10" s="153"/>
+      <c r="T10" s="153"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="153"/>
+      <c r="W10" s="153"/>
+      <c r="X10" s="153"/>
+      <c r="Y10" s="153"/>
+      <c r="Z10" s="153"/>
+      <c r="AA10" s="153"/>
+      <c r="AB10" s="153"/>
+      <c r="AC10" s="153"/>
+      <c r="AD10" s="153"/>
+      <c r="AE10" s="153"/>
+      <c r="AF10" s="154"/>
     </row>
     <row r="11" spans="2:33" s="4" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="50"/>
-      <c r="D11" s="134">
+      <c r="D11" s="130">
         <f>E3</f>
         <v>5</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="91" t="s">
+      <c r="F11" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="G11" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="162"/>
-      <c r="I11" s="84" t="s">
+      <c r="H11" s="70"/>
+      <c r="I11" s="159" t="s">
         <v>26</v>
       </c>
       <c r="J11" s="49" t="str">
@@ -2448,26 +2457,26 @@
         <f>'dynamic Data'!$B21</f>
         <v>DD.MM - DD.MM.YYYY</v>
       </c>
-      <c r="AD11" s="87" t="s">
+      <c r="AD11" s="162" t="s">
         <v>47</v>
       </c>
-      <c r="AE11" s="86" t="s">
+      <c r="AE11" s="161" t="s">
         <v>48</v>
       </c>
-      <c r="AF11" s="86" t="s">
+      <c r="AF11" s="161" t="s">
         <v>49</v>
       </c>
       <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="2:33" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="113"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="51"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="85"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="160"/>
       <c r="J12" s="36" t="s">
         <v>27</v>
       </c>
@@ -2528,30 +2537,30 @@
       <c r="AC12" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="AD12" s="87"/>
-      <c r="AE12" s="86"/>
-      <c r="AF12" s="86"/>
+      <c r="AD12" s="162"/>
+      <c r="AE12" s="161"/>
+      <c r="AF12" s="161"/>
     </row>
     <row r="13" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="114" t="str">
+      <c r="B13" s="110" t="str">
         <f>'Std-A'!A3</f>
         <v>Hörschinger Rene</v>
       </c>
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="123">
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="119">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J13,IF($E$3&gt;=2,$K13,0),IF($E$3&gt;=3,$L13,0),IF($E$3&gt;=4,$M13,0),IF($E$3&gt;=5,$N13,0),IF($E$3&gt;=6,$O13,0),IF($E$3&gt;=7,$P13,0),IF($E$3&gt;=8,$Q13,0),IF($E$3&gt;=9,$R13,0),IF($E$3&gt;=10,$S13,0),IF($E$3&gt;=11,$T13,0),IF($E$3&gt;=12,$U13,0),IF($E$3&gt;=13,$V13,0),IF($E$3&gt;=14,$W13,0),IF($E$3&gt;=15,$X13,0),IF($E$3&gt;=16,$Y13,0),IF($E$3&gt;=17,$Z13,0),IF($E$3&gt;=18,$AA13,0),IF($E$3&gt;=19,$AB13,0),IF($E$3&gt;=12,$AC13,0)),0)</f>
         <v>75</v>
       </c>
-      <c r="F13" s="96">
+      <c r="F13" s="122">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J14,IF($E$3&gt;=2,$K14,0),IF($E$3&gt;=3,$L14,0),IF($E$3&gt;=4,$M14,0),IF($E$3&gt;=5,$N14,0),IF($E$3&gt;=6,$O14,0),IF($E$3&gt;=7,$P14,0),IF($E$3&gt;=8,$Q14,0),IF($E$3&gt;=9,$R14,0),IF($E$3&gt;=10,$S14,0),IF($E$3&gt;=11,$T14,0),IF($E$3&gt;=12,$U14,0),IF($E$3&gt;=13,$V14,0),IF($E$3&gt;=14,$W14,0),IF($E$3&gt;=15,$X14,0),IF($E$3&gt;=16,$Y14,0),IF($E$3&gt;=17,$Z14,0),IF($E$3&gt;=18,$AA14,0),IF($E$3&gt;=19,$AB14,0),IF($E$3&gt;=20,$AC14,0)),0)</f>
-        <v>30</v>
-      </c>
-      <c r="G13" s="136">
+        <v>45</v>
+      </c>
+      <c r="G13" s="132">
         <f>F13-E13</f>
-        <v>-45</v>
-      </c>
-      <c r="H13" s="158"/>
+        <v>-30</v>
+      </c>
+      <c r="H13" s="68"/>
       <c r="I13" s="37" t="s">
         <v>51</v>
       </c>
@@ -2639,23 +2648,23 @@
         <f t="shared" ref="AD13:AD22" si="0">SUM(J13:AC13)</f>
         <v>75</v>
       </c>
-      <c r="AE13" s="68">
+      <c r="AE13" s="75">
         <f>IF(NOT(EXACT(B13,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF13" s="81">
+      <c r="AF13" s="77">
         <f>AD14-AE13</f>
-        <v>-45</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="14" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="117"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="159"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="37" t="s">
         <v>50</v>
       </c>
@@ -2669,7 +2678,7 @@
       </c>
       <c r="L14" s="32">
         <f>'Std-A'!$C$34</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M14" s="32">
         <f>'Std-A'!$C$45</f>
@@ -2741,19 +2750,19 @@
       </c>
       <c r="AD14" s="33">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="82"/>
+        <v>45</v>
+      </c>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="74"/>
     </row>
     <row r="15" spans="2:33" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="120"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="159"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="39" t="s">
         <v>25</v>
       </c>
@@ -2767,7 +2776,7 @@
       </c>
       <c r="L15" s="29">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="M15" s="29">
         <f t="shared" si="1"/>
@@ -2839,31 +2848,31 @@
       </c>
       <c r="AD15" s="30">
         <f t="shared" si="0"/>
-        <v>-45</v>
-      </c>
-      <c r="AE15" s="70"/>
-      <c r="AF15" s="83"/>
+        <v>-30</v>
+      </c>
+      <c r="AE15" s="76"/>
+      <c r="AF15" s="79"/>
     </row>
     <row r="16" spans="2:33" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="106" t="str">
+      <c r="B16" s="80" t="str">
         <f>'Std-B'!A3</f>
         <v>Lumesberger Thomas</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="128">
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="86">
         <f t="shared" ref="E16" si="3">IF(NOT(EXACT($B16,"----")),SUM($J16,IF($E$3&gt;=2,$K16,0),IF($E$3&gt;=3,$L16,0),IF($E$3&gt;=4,$M16,0),IF($E$3&gt;=5,$N16,0),IF($E$3&gt;=6,$O16,0),IF($E$3&gt;=7,$P16,0),IF($E$3&gt;=8,$Q16,0),IF($E$3&gt;=9,$R16,0),IF($E$3&gt;=10,$S16,0),IF($E$3&gt;=11,$T16,0),IF($E$3&gt;=12,$U16,0),IF($E$3&gt;=13,$V16,0),IF($E$3&gt;=14,$W16,0),IF($E$3&gt;=15,$X16,0),IF($E$3&gt;=16,$Y16,0),IF($E$3&gt;=17,$Z16,0),IF($E$3&gt;=18,$AA16,0),IF($E$3&gt;=19,$AB16,0),IF($E$3&gt;=12,$AC16,0)),0)</f>
         <v>75</v>
       </c>
-      <c r="F16" s="131">
+      <c r="F16" s="127">
         <f t="shared" ref="F16" si="4">IF(NOT(EXACT($B16,"----")),SUM($J17,IF($E$3&gt;=2,$K17,0),IF($E$3&gt;=3,$L17,0),IF($E$3&gt;=4,$M17,0),IF($E$3&gt;=5,$N17,0),IF($E$3&gt;=6,$O17,0),IF($E$3&gt;=7,$P17,0),IF($E$3&gt;=8,$Q17,0),IF($E$3&gt;=9,$R17,0),IF($E$3&gt;=10,$S17,0),IF($E$3&gt;=11,$T17,0),IF($E$3&gt;=12,$U17,0),IF($E$3&gt;=13,$V17,0),IF($E$3&gt;=14,$W17,0),IF($E$3&gt;=15,$X17,0),IF($E$3&gt;=16,$Y17,0),IF($E$3&gt;=17,$Z17,0),IF($E$3&gt;=18,$AA17,0),IF($E$3&gt;=19,$AB17,0),IF($E$3&gt;=20,$AC17,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="103">
+      <c r="G16" s="92">
         <f t="shared" ref="G16" si="5">F16-E16</f>
         <v>-75</v>
       </c>
-      <c r="H16" s="158"/>
+      <c r="H16" s="68"/>
       <c r="I16" s="37" t="s">
         <v>51</v>
       </c>
@@ -2951,23 +2960,23 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="AE16" s="68">
+      <c r="AE16" s="75">
         <f>IF(NOT(EXACT(B16,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF16" s="81">
+      <c r="AF16" s="77">
         <f>AD17-AE16</f>
         <v>-75</v>
       </c>
     </row>
     <row r="17" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="159"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="38" t="s">
         <v>50</v>
       </c>
@@ -3055,17 +3064,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="82"/>
+      <c r="AE17" s="72"/>
+      <c r="AF17" s="74"/>
     </row>
     <row r="18" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="110"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="159"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="69"/>
       <c r="I18" s="40" t="s">
         <v>25</v>
       </c>
@@ -3153,29 +3162,29 @@
         <f t="shared" si="0"/>
         <v>-75</v>
       </c>
-      <c r="AE18" s="70"/>
-      <c r="AF18" s="156"/>
+      <c r="AE18" s="76"/>
+      <c r="AF18" s="78"/>
     </row>
     <row r="19" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="106" t="str">
+      <c r="B19" s="80" t="str">
         <f>'Std-C'!A3</f>
         <v>----</v>
       </c>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="128">
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="86">
         <f t="shared" ref="E19" si="8">IF(NOT(EXACT($B19,"----")),SUM($J19,IF($E$3&gt;=2,$K19,0),IF($E$3&gt;=3,$L19,0),IF($E$3&gt;=4,$M19,0),IF($E$3&gt;=5,$N19,0),IF($E$3&gt;=6,$O19,0),IF($E$3&gt;=7,$P19,0),IF($E$3&gt;=8,$Q19,0),IF($E$3&gt;=9,$R19,0),IF($E$3&gt;=10,$S19,0),IF($E$3&gt;=11,$T19,0),IF($E$3&gt;=12,$U19,0),IF($E$3&gt;=13,$V19,0),IF($E$3&gt;=14,$W19,0),IF($E$3&gt;=15,$X19,0),IF($E$3&gt;=16,$Y19,0),IF($E$3&gt;=17,$Z19,0),IF($E$3&gt;=18,$AA19,0),IF($E$3&gt;=19,$AB19,0),IF($E$3&gt;=12,$AC19,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="147">
+      <c r="F19" s="89">
         <f t="shared" ref="F19" si="9">IF(NOT(EXACT($B19,"----")),SUM($J20,IF($E$3&gt;=2,$K20,0),IF($E$3&gt;=3,$L20,0),IF($E$3&gt;=4,$M20,0),IF($E$3&gt;=5,$N20,0),IF($E$3&gt;=6,$O20,0),IF($E$3&gt;=7,$P20,0),IF($E$3&gt;=8,$Q20,0),IF($E$3&gt;=9,$R20,0),IF($E$3&gt;=10,$S20,0),IF($E$3&gt;=11,$T20,0),IF($E$3&gt;=12,$U20,0),IF($E$3&gt;=13,$V20,0),IF($E$3&gt;=14,$W20,0),IF($E$3&gt;=15,$X20,0),IF($E$3&gt;=16,$Y20,0),IF($E$3&gt;=17,$Z20,0),IF($E$3&gt;=18,$AA20,0),IF($E$3&gt;=19,$AB20,0),IF($E$3&gt;=20,$AC20,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="103">
+      <c r="G19" s="92">
         <f t="shared" ref="G19" si="10">F19-E19</f>
         <v>0</v>
       </c>
-      <c r="H19" s="158"/>
+      <c r="H19" s="68"/>
       <c r="I19" s="41" t="s">
         <v>51</v>
       </c>
@@ -3263,23 +3272,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="68">
+      <c r="AE19" s="75">
         <f>IF(NOT(EXACT(B19,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF19" s="161">
+      <c r="AF19" s="73">
         <f>AD20-AE19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="141"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="159"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="69"/>
       <c r="I20" s="38" t="s">
         <v>50</v>
       </c>
@@ -3367,17 +3376,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="69"/>
-      <c r="AF20" s="82"/>
+      <c r="AE20" s="72"/>
+      <c r="AF20" s="74"/>
     </row>
     <row r="21" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="152"/>
-      <c r="C21" s="153"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="159"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="39" t="s">
         <v>25</v>
       </c>
@@ -3465,29 +3474,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="70"/>
-      <c r="AF21" s="83"/>
+      <c r="AE21" s="76"/>
+      <c r="AF21" s="79"/>
     </row>
     <row r="22" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="106" t="str">
+      <c r="B22" s="80" t="str">
         <f>'Std-D'!A3</f>
         <v>----</v>
       </c>
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="128">
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="86">
         <f t="shared" ref="E22" si="13">IF(NOT(EXACT($B22,"----")),SUM($J22,IF($E$3&gt;=2,$K22,0),IF($E$3&gt;=3,$L22,0),IF($E$3&gt;=4,$M22,0),IF($E$3&gt;=5,$N22,0),IF($E$3&gt;=6,$O22,0),IF($E$3&gt;=7,$P22,0),IF($E$3&gt;=8,$Q22,0),IF($E$3&gt;=9,$R22,0),IF($E$3&gt;=10,$S22,0),IF($E$3&gt;=11,$T22,0),IF($E$3&gt;=12,$U22,0),IF($E$3&gt;=13,$V22,0),IF($E$3&gt;=14,$W22,0),IF($E$3&gt;=15,$X22,0),IF($E$3&gt;=16,$Y22,0),IF($E$3&gt;=17,$Z22,0),IF($E$3&gt;=18,$AA22,0),IF($E$3&gt;=19,$AB22,0),IF($E$3&gt;=12,$AC22,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="147">
+      <c r="F22" s="89">
         <f t="shared" ref="F22" si="14">IF(NOT(EXACT($B22,"----")),SUM($J23,IF($E$3&gt;=2,$K23,0),IF($E$3&gt;=3,$L23,0),IF($E$3&gt;=4,$M23,0),IF($E$3&gt;=5,$N23,0),IF($E$3&gt;=6,$O23,0),IF($E$3&gt;=7,$P23,0),IF($E$3&gt;=8,$Q23,0),IF($E$3&gt;=9,$R23,0),IF($E$3&gt;=10,$S23,0),IF($E$3&gt;=11,$T23,0),IF($E$3&gt;=12,$U23,0),IF($E$3&gt;=13,$V23,0),IF($E$3&gt;=14,$W23,0),IF($E$3&gt;=15,$X23,0),IF($E$3&gt;=16,$Y23,0),IF($E$3&gt;=17,$Z23,0),IF($E$3&gt;=18,$AA23,0),IF($E$3&gt;=19,$AB23,0),IF($E$3&gt;=20,$AC23,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="103">
+      <c r="G22" s="92">
         <f t="shared" ref="G22" si="15">F22-E22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="158"/>
+      <c r="H22" s="68"/>
       <c r="I22" s="37" t="s">
         <v>51</v>
       </c>
@@ -3575,23 +3584,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="68">
+      <c r="AE22" s="75">
         <f>IF(NOT(EXACT(B22,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="81">
+      <c r="AF22" s="77">
         <f>AD23-AE22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="141"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="159"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="38" t="s">
         <v>50</v>
       </c>
@@ -3679,17 +3688,17 @@
         <f>SUM(J23:AC23)</f>
         <v>0</v>
       </c>
-      <c r="AE23" s="69"/>
-      <c r="AF23" s="82"/>
+      <c r="AE23" s="72"/>
+      <c r="AF23" s="74"/>
     </row>
     <row r="24" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="152"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="159"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="69"/>
       <c r="I24" s="40" t="s">
         <v>25</v>
       </c>
@@ -3777,29 +3786,29 @@
         <f>SUM(J24:AC24)</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="70"/>
-      <c r="AF24" s="156"/>
+      <c r="AE24" s="76"/>
+      <c r="AF24" s="78"/>
     </row>
     <row r="25" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="106" t="str">
+      <c r="B25" s="80" t="str">
         <f>'Std-E'!A3</f>
         <v>----</v>
       </c>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="128">
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="86">
         <f t="shared" ref="E25" si="18">IF(NOT(EXACT($B25,"----")),SUM($J25,IF($E$3&gt;=2,$K25,0),IF($E$3&gt;=3,$L25,0),IF($E$3&gt;=4,$M25,0),IF($E$3&gt;=5,$N25,0),IF($E$3&gt;=6,$O25,0),IF($E$3&gt;=7,$P25,0),IF($E$3&gt;=8,$Q25,0),IF($E$3&gt;=9,$R25,0),IF($E$3&gt;=10,$S25,0),IF($E$3&gt;=11,$T25,0),IF($E$3&gt;=12,$U25,0),IF($E$3&gt;=13,$V25,0),IF($E$3&gt;=14,$W25,0),IF($E$3&gt;=15,$X25,0),IF($E$3&gt;=16,$Y25,0),IF($E$3&gt;=17,$Z25,0),IF($E$3&gt;=18,$AA25,0),IF($E$3&gt;=19,$AB25,0),IF($E$3&gt;=12,$AC25,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="147">
+      <c r="F25" s="89">
         <f t="shared" ref="F25" si="19">IF(NOT(EXACT($B25,"----")),SUM($J26,IF($E$3&gt;=2,$K26,0),IF($E$3&gt;=3,$L26,0),IF($E$3&gt;=4,$M26,0),IF($E$3&gt;=5,$N26,0),IF($E$3&gt;=6,$O26,0),IF($E$3&gt;=7,$P26,0),IF($E$3&gt;=8,$Q26,0),IF($E$3&gt;=9,$R26,0),IF($E$3&gt;=10,$S26,0),IF($E$3&gt;=11,$T26,0),IF($E$3&gt;=12,$U26,0),IF($E$3&gt;=13,$V26,0),IF($E$3&gt;=14,$W26,0),IF($E$3&gt;=15,$X26,0),IF($E$3&gt;=16,$Y26,0),IF($E$3&gt;=17,$Z26,0),IF($E$3&gt;=18,$AA26,0),IF($E$3&gt;=19,$AB26,0),IF($E$3&gt;=20,$AC26,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="103">
+      <c r="G25" s="92">
         <f t="shared" ref="G25" si="20">F25-E25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="158"/>
+      <c r="H25" s="68"/>
       <c r="I25" s="41" t="s">
         <v>51</v>
       </c>
@@ -3887,23 +3896,23 @@
         <f>SUM(J25:AC25)</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="160">
+      <c r="AE25" s="71">
         <f>IF(NOT(EXACT(B25,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="161">
+      <c r="AF25" s="73">
         <f>AD26-AE25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="141"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="159"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="69"/>
       <c r="I26" s="38" t="s">
         <v>50</v>
       </c>
@@ -3991,17 +4000,17 @@
         <f>SUM(J26:AC26)</f>
         <v>0</v>
       </c>
-      <c r="AE26" s="69"/>
-      <c r="AF26" s="82"/>
+      <c r="AE26" s="72"/>
+      <c r="AF26" s="74"/>
     </row>
     <row r="27" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="143"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="159"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="38" t="s">
         <v>25</v>
       </c>
@@ -4089,8 +4098,8 @@
         <f>SUM(J27:AC27)</f>
         <v>0</v>
       </c>
-      <c r="AE27" s="69"/>
-      <c r="AF27" s="82"/>
+      <c r="AE27" s="72"/>
+      <c r="AF27" s="74"/>
     </row>
     <row r="28" spans="2:32" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B28" s="18"/>
@@ -4560,44 +4569,16 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="yOBXUoUIAB/U7w0KPLJupsh9iVk347fisYP5nNpPCiF6b+qHxv5s0s2HYuXPEVrUd4C+wzuLGXdqPy8SQ1cbhA==" saltValue="WFQNdDVdQJ/i07IfTt7UUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="64">
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="AE25:AE27"/>
-    <mergeCell ref="AF25:AF27"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="AF16:AF18"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AF19:AF21"/>
-    <mergeCell ref="B19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="AE22:AE24"/>
-    <mergeCell ref="AF22:AF24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="B25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="B22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="B16:D18"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="I10:AF10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="AF13:AF15"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AD11:AD12"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D8"/>
     <mergeCell ref="E11:E12"/>
@@ -4614,16 +4595,44 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="I10:AF10"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="AF13:AF15"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="B16:D18"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="B22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="B19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="AF22:AF24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="AE25:AE27"/>
+    <mergeCell ref="AF25:AF27"/>
+    <mergeCell ref="AE16:AE18"/>
+    <mergeCell ref="AF16:AF18"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AF19:AF21"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I25:AF27">
@@ -4739,8 +4748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4797,10 +4806,10 @@
       <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="172"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -4887,10 +4896,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>15</v>
       </c>
-      <c r="D12" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="165"/>
+      <c r="D12" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="168"/>
     </row>
     <row r="13" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="175" t="s">
@@ -4931,10 +4940,10 @@
       <c r="B16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="172" t="s">
+      <c r="C16" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="172"/>
+      <c r="D16" s="165"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -5024,31 +5033,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="163" t="s">
+      <c r="A23" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="164"/>
+      <c r="B23" s="172"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>15</v>
       </c>
-      <c r="D23" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="165"/>
+      <c r="D23" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="168"/>
     </row>
     <row r="24" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="167"/>
+      <c r="A24" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="164"/>
       <c r="C24" s="62">
         <v>15</v>
       </c>
-      <c r="D24" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="168"/>
+      <c r="D24" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="166"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A25" s="169"/>
@@ -5076,10 +5085,10 @@
       <c r="B27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="172" t="s">
+      <c r="C27" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="172"/>
+      <c r="D27" s="165"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -5088,23 +5097,35 @@
       <c r="A28" s="46">
         <v>1</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
+      <c r="B28" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="43">
+        <v>450</v>
+      </c>
       <c r="D28" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="42" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="29" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="46">
         <v>2</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
+      <c r="B29" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="43">
+        <v>450</v>
+      </c>
       <c r="D29" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="42" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="30" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="46">
@@ -5151,31 +5172,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="163" t="s">
+      <c r="A34" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="164"/>
+      <c r="B34" s="172"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="165"/>
+        <v>15</v>
+      </c>
+      <c r="D34" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="168"/>
     </row>
     <row r="35" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="167"/>
+      <c r="A35" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="164"/>
       <c r="C35" s="62">
         <v>15</v>
       </c>
-      <c r="D35" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="168"/>
+      <c r="D35" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="166"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A36" s="169"/>
@@ -5203,10 +5224,10 @@
       <c r="B38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="172" t="s">
+      <c r="C38" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="172"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -5278,31 +5299,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="164"/>
+      <c r="B45" s="172"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="165"/>
+      <c r="D45" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="168"/>
     </row>
     <row r="46" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="167"/>
+      <c r="A46" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="164"/>
       <c r="C46" s="62">
         <v>15</v>
       </c>
-      <c r="D46" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="168"/>
+      <c r="D46" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="166"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A47" s="169"/>
@@ -5330,10 +5351,10 @@
       <c r="B49" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="172" t="s">
+      <c r="C49" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="172"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -5405,31 +5426,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="163" t="s">
+      <c r="A56" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="164"/>
+      <c r="B56" s="172"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="165"/>
+      <c r="D56" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="168"/>
     </row>
     <row r="57" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="167"/>
+      <c r="A57" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="164"/>
       <c r="C57" s="62">
         <v>15</v>
       </c>
-      <c r="D57" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="168"/>
+      <c r="D57" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="166"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A58" s="169"/>
@@ -5457,10 +5478,10 @@
       <c r="B60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="172" t="s">
+      <c r="C60" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="172"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -5532,31 +5553,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="163" t="s">
+      <c r="A67" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="164"/>
+      <c r="B67" s="172"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="165"/>
+      <c r="D67" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="168"/>
     </row>
     <row r="68" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="167"/>
+      <c r="A68" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="164"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="168"/>
+      <c r="D68" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="166"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A69" s="169"/>
@@ -5584,10 +5605,10 @@
       <c r="B71" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="172" t="s">
+      <c r="C71" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="172"/>
+      <c r="D71" s="165"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -5659,31 +5680,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="163" t="s">
+      <c r="A78" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="164"/>
+      <c r="B78" s="172"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="165"/>
+      <c r="D78" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="168"/>
     </row>
     <row r="79" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="167"/>
+      <c r="A79" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="164"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="168"/>
+      <c r="D79" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="166"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A80" s="169"/>
@@ -5711,10 +5732,10 @@
       <c r="B82" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="172" t="s">
+      <c r="C82" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="172"/>
+      <c r="D82" s="165"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -5786,31 +5807,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="163" t="s">
+      <c r="A89" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="164"/>
+      <c r="B89" s="172"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="165"/>
+      <c r="D89" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="168"/>
     </row>
     <row r="90" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="167"/>
+      <c r="A90" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="164"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="168"/>
+      <c r="D90" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="166"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A91" s="169"/>
@@ -5838,10 +5859,10 @@
       <c r="B93" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="172" t="s">
+      <c r="C93" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="172"/>
+      <c r="D93" s="165"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -5913,31 +5934,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="163" t="s">
+      <c r="A100" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="164"/>
+      <c r="B100" s="172"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="165"/>
+      <c r="D100" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="168"/>
     </row>
     <row r="101" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="167"/>
+      <c r="A101" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="164"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="168"/>
+      <c r="D101" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="166"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A102" s="169"/>
@@ -5965,10 +5986,10 @@
       <c r="B104" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="172" t="s">
+      <c r="C104" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="172"/>
+      <c r="D104" s="165"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -6040,31 +6061,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="163" t="s">
+      <c r="A111" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="164"/>
+      <c r="B111" s="172"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="165"/>
+      <c r="D111" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="168"/>
     </row>
     <row r="112" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="167"/>
+      <c r="A112" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="164"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="168"/>
+      <c r="D112" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="166"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A113" s="169"/>
@@ -6092,10 +6113,10 @@
       <c r="B115" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C115" s="172" t="s">
+      <c r="C115" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D115" s="172"/>
+      <c r="D115" s="165"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -6167,31 +6188,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="163" t="s">
+      <c r="A122" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="164"/>
+      <c r="B122" s="172"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="165"/>
+      <c r="D122" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="168"/>
     </row>
     <row r="123" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="167"/>
+      <c r="A123" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="164"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="168"/>
+      <c r="D123" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="166"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A124" s="169"/>
@@ -6219,10 +6240,10 @@
       <c r="B126" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C126" s="172" t="s">
+      <c r="C126" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D126" s="172"/>
+      <c r="D126" s="165"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -6294,31 +6315,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="163" t="s">
+      <c r="A133" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="164"/>
+      <c r="B133" s="172"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="165"/>
+      <c r="D133" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="168"/>
     </row>
     <row r="134" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="167"/>
+      <c r="A134" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="164"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="168"/>
+      <c r="D134" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="166"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A135" s="169"/>
@@ -6346,10 +6367,10 @@
       <c r="B137" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="172" t="s">
+      <c r="C137" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="172"/>
+      <c r="D137" s="165"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -6421,31 +6442,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="163" t="s">
+      <c r="A144" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B144" s="164"/>
+      <c r="B144" s="172"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="165"/>
+      <c r="D144" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="168"/>
     </row>
     <row r="145" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="167"/>
+      <c r="A145" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="164"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="168"/>
+      <c r="D145" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="166"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A146" s="169"/>
@@ -6473,10 +6494,10 @@
       <c r="B148" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C148" s="172" t="s">
+      <c r="C148" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D148" s="172"/>
+      <c r="D148" s="165"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -6548,31 +6569,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="163" t="s">
+      <c r="A155" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="164"/>
+      <c r="B155" s="172"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="165"/>
+      <c r="D155" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="168"/>
     </row>
     <row r="156" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="167"/>
+      <c r="A156" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="164"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="168"/>
+      <c r="D156" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="166"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A157" s="169"/>
@@ -6600,10 +6621,10 @@
       <c r="B159" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="172" t="s">
+      <c r="C159" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D159" s="172"/>
+      <c r="D159" s="165"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -6675,31 +6696,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="163" t="s">
+      <c r="A166" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B166" s="164"/>
+      <c r="B166" s="172"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="165"/>
+      <c r="D166" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="168"/>
     </row>
     <row r="167" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="167"/>
+      <c r="A167" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="164"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" s="168"/>
+      <c r="D167" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" s="166"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A168" s="169"/>
@@ -6727,10 +6748,10 @@
       <c r="B170" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C170" s="172" t="s">
+      <c r="C170" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D170" s="172"/>
+      <c r="D170" s="165"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -6802,31 +6823,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="163" t="s">
+      <c r="A177" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B177" s="164"/>
+      <c r="B177" s="172"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="165"/>
+      <c r="D177" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" s="168"/>
     </row>
     <row r="178" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="167"/>
+      <c r="A178" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="164"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="168"/>
+      <c r="D178" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" s="166"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A179" s="169"/>
@@ -6854,10 +6875,10 @@
       <c r="B181" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C181" s="172" t="s">
+      <c r="C181" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D181" s="172"/>
+      <c r="D181" s="165"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -6929,31 +6950,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="163" t="s">
+      <c r="A188" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B188" s="164"/>
+      <c r="B188" s="172"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="165"/>
+      <c r="D188" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="168"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="167"/>
+      <c r="A189" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="164"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="168"/>
+      <c r="D189" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="166"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A190" s="169"/>
@@ -6981,10 +7002,10 @@
       <c r="B192" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C192" s="172" t="s">
+      <c r="C192" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D192" s="172"/>
+      <c r="D192" s="165"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -7056,31 +7077,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="163" t="s">
+      <c r="A199" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="164"/>
+      <c r="B199" s="172"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199" s="165"/>
+      <c r="D199" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="168"/>
     </row>
     <row r="200" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="167"/>
+      <c r="A200" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="164"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="168"/>
+      <c r="D200" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="166"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A201" s="169"/>
@@ -7108,10 +7129,10 @@
       <c r="B203" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C203" s="172" t="s">
+      <c r="C203" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D203" s="172"/>
+      <c r="D203" s="165"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -7183,31 +7204,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="163" t="s">
+      <c r="A210" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B210" s="164"/>
+      <c r="B210" s="172"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210" s="165"/>
+      <c r="D210" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="168"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="167"/>
+      <c r="A211" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="164"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211" s="168"/>
+      <c r="D211" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="166"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A212" s="169"/>
@@ -7235,10 +7256,10 @@
       <c r="B214" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C214" s="172" t="s">
+      <c r="C214" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D214" s="172"/>
+      <c r="D214" s="165"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -7310,102 +7331,87 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="163" t="s">
+      <c r="A221" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B221" s="164"/>
+      <c r="B221" s="172"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E221" s="165"/>
+      <c r="D221" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="168"/>
     </row>
     <row r="222" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="167"/>
+      <c r="A222" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="164"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E222" s="168"/>
+      <c r="D222" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" s="166"/>
     </row>
     <row r="223" spans="1:5" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3ycMrhIin7k7o5a3QKdDs107o2UR+lTtobmr9pCOYaL7SmGfKeey7eIuIRjOPF9h5ERZ6YTi2HtbTLXSGjzqGQ==" saltValue="gAnMRYEAvr3jQUOD70YZjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
@@ -7430,57 +7436,72 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A133:B133"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -7551,10 +7572,10 @@
       <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="172"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -7634,10 +7655,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="165"/>
+      <c r="D12" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="168"/>
     </row>
     <row r="13" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="175" t="s">
@@ -7678,10 +7699,10 @@
       <c r="B16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="172" t="s">
+      <c r="C16" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="172"/>
+      <c r="D16" s="165"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -7753,31 +7774,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="163" t="s">
+      <c r="A23" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="164"/>
+      <c r="B23" s="172"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="165"/>
+      <c r="D23" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="168"/>
     </row>
     <row r="24" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="167"/>
+      <c r="A24" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="164"/>
       <c r="C24" s="62">
         <v>15</v>
       </c>
-      <c r="D24" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="168"/>
+      <c r="D24" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="166"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A25" s="169"/>
@@ -7805,10 +7826,10 @@
       <c r="B27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="172" t="s">
+      <c r="C27" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="172"/>
+      <c r="D27" s="165"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -7880,31 +7901,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="163" t="s">
+      <c r="A34" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="164"/>
+      <c r="B34" s="172"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="165"/>
+      <c r="D34" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="168"/>
     </row>
     <row r="35" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="167"/>
+      <c r="A35" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="164"/>
       <c r="C35" s="62">
         <v>20</v>
       </c>
-      <c r="D35" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="168"/>
+      <c r="D35" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="166"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A36" s="169"/>
@@ -7932,10 +7953,10 @@
       <c r="B38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="172" t="s">
+      <c r="C38" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="172"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -8007,31 +8028,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="164"/>
+      <c r="B45" s="172"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="165"/>
+      <c r="D45" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="168"/>
     </row>
     <row r="46" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="167"/>
+      <c r="A46" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="164"/>
       <c r="C46" s="62">
         <v>15</v>
       </c>
-      <c r="D46" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="168"/>
+      <c r="D46" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="166"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A47" s="169"/>
@@ -8059,10 +8080,10 @@
       <c r="B49" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="172" t="s">
+      <c r="C49" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="172"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -8134,31 +8155,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="163" t="s">
+      <c r="A56" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="164"/>
+      <c r="B56" s="172"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="165"/>
+      <c r="D56" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="168"/>
     </row>
     <row r="57" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="167"/>
+      <c r="A57" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="164"/>
       <c r="C57" s="62">
         <v>15</v>
       </c>
-      <c r="D57" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="168"/>
+      <c r="D57" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="166"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A58" s="169"/>
@@ -8186,10 +8207,10 @@
       <c r="B60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="172" t="s">
+      <c r="C60" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="172"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -8261,29 +8282,29 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="163" t="s">
+      <c r="A67" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="164"/>
+      <c r="B67" s="172"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="165"/>
+      <c r="D67" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="168"/>
     </row>
     <row r="68" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="167"/>
+      <c r="A68" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="164"/>
       <c r="C68" s="62"/>
-      <c r="D68" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="168"/>
+      <c r="D68" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="166"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A69" s="169"/>
@@ -8311,10 +8332,10 @@
       <c r="B71" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="172" t="s">
+      <c r="C71" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="172"/>
+      <c r="D71" s="165"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -8386,31 +8407,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="163" t="s">
+      <c r="A78" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="164"/>
+      <c r="B78" s="172"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="165"/>
+      <c r="D78" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="168"/>
     </row>
     <row r="79" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="167"/>
+      <c r="A79" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="164"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="168"/>
+      <c r="D79" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="166"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A80" s="169"/>
@@ -8438,10 +8459,10 @@
       <c r="B82" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="172" t="s">
+      <c r="C82" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="172"/>
+      <c r="D82" s="165"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -8513,31 +8534,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="163" t="s">
+      <c r="A89" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="164"/>
+      <c r="B89" s="172"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="165"/>
+      <c r="D89" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="168"/>
     </row>
     <row r="90" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="167"/>
+      <c r="A90" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="164"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="168"/>
+      <c r="D90" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="166"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A91" s="169"/>
@@ -8565,10 +8586,10 @@
       <c r="B93" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="172" t="s">
+      <c r="C93" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="172"/>
+      <c r="D93" s="165"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -8640,31 +8661,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="163" t="s">
+      <c r="A100" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="164"/>
+      <c r="B100" s="172"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="165"/>
+      <c r="D100" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="168"/>
     </row>
     <row r="101" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="167"/>
+      <c r="A101" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="164"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="168"/>
+      <c r="D101" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="166"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A102" s="169"/>
@@ -8692,10 +8713,10 @@
       <c r="B104" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="172" t="s">
+      <c r="C104" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="172"/>
+      <c r="D104" s="165"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -8767,31 +8788,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="163" t="s">
+      <c r="A111" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="164"/>
+      <c r="B111" s="172"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="165"/>
+      <c r="D111" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="168"/>
     </row>
     <row r="112" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="167"/>
+      <c r="A112" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="164"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="168"/>
+      <c r="D112" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="166"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A113" s="169"/>
@@ -8819,10 +8840,10 @@
       <c r="B115" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C115" s="172" t="s">
+      <c r="C115" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D115" s="172"/>
+      <c r="D115" s="165"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -8894,31 +8915,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="163" t="s">
+      <c r="A122" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="164"/>
+      <c r="B122" s="172"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="165"/>
+      <c r="D122" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="168"/>
     </row>
     <row r="123" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="167"/>
+      <c r="A123" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="164"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="168"/>
+      <c r="D123" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="166"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A124" s="169"/>
@@ -8946,10 +8967,10 @@
       <c r="B126" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C126" s="172" t="s">
+      <c r="C126" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D126" s="172"/>
+      <c r="D126" s="165"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -9021,31 +9042,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="163" t="s">
+      <c r="A133" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="164"/>
+      <c r="B133" s="172"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="165"/>
+      <c r="D133" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="168"/>
     </row>
     <row r="134" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="167"/>
+      <c r="A134" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="164"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="168"/>
+      <c r="D134" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="166"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A135" s="169"/>
@@ -9073,10 +9094,10 @@
       <c r="B137" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="172" t="s">
+      <c r="C137" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="172"/>
+      <c r="D137" s="165"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -9148,31 +9169,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="163" t="s">
+      <c r="A144" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B144" s="164"/>
+      <c r="B144" s="172"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="165"/>
+      <c r="D144" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="168"/>
     </row>
     <row r="145" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="167"/>
+      <c r="A145" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="164"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="168"/>
+      <c r="D145" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="166"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A146" s="169"/>
@@ -9200,10 +9221,10 @@
       <c r="B148" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C148" s="172" t="s">
+      <c r="C148" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D148" s="172"/>
+      <c r="D148" s="165"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -9275,31 +9296,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="163" t="s">
+      <c r="A155" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="164"/>
+      <c r="B155" s="172"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="165"/>
+      <c r="D155" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="168"/>
     </row>
     <row r="156" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="167"/>
+      <c r="A156" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="164"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="168"/>
+      <c r="D156" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="166"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A157" s="169"/>
@@ -9327,10 +9348,10 @@
       <c r="B159" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="172" t="s">
+      <c r="C159" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D159" s="172"/>
+      <c r="D159" s="165"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -9402,31 +9423,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="163" t="s">
+      <c r="A166" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B166" s="164"/>
+      <c r="B166" s="172"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="165"/>
+      <c r="D166" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="168"/>
     </row>
     <row r="167" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="167"/>
+      <c r="A167" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="164"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" s="168"/>
+      <c r="D167" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" s="166"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A168" s="169"/>
@@ -9454,10 +9475,10 @@
       <c r="B170" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C170" s="172" t="s">
+      <c r="C170" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D170" s="172"/>
+      <c r="D170" s="165"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -9529,31 +9550,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="163" t="s">
+      <c r="A177" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B177" s="164"/>
+      <c r="B177" s="172"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="165"/>
+      <c r="D177" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" s="168"/>
     </row>
     <row r="178" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="167"/>
+      <c r="A178" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="164"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="168"/>
+      <c r="D178" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" s="166"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A179" s="169"/>
@@ -9581,10 +9602,10 @@
       <c r="B181" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C181" s="172" t="s">
+      <c r="C181" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D181" s="172"/>
+      <c r="D181" s="165"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -9656,31 +9677,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="163" t="s">
+      <c r="A188" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B188" s="164"/>
+      <c r="B188" s="172"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="165"/>
+      <c r="D188" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="168"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="167"/>
+      <c r="A189" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="164"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="168"/>
+      <c r="D189" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="166"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A190" s="169"/>
@@ -9708,10 +9729,10 @@
       <c r="B192" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C192" s="172" t="s">
+      <c r="C192" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D192" s="172"/>
+      <c r="D192" s="165"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -9783,31 +9804,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="163" t="s">
+      <c r="A199" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="164"/>
+      <c r="B199" s="172"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199" s="165"/>
+      <c r="D199" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="168"/>
     </row>
     <row r="200" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="167"/>
+      <c r="A200" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="164"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="168"/>
+      <c r="D200" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="166"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A201" s="169"/>
@@ -9835,10 +9856,10 @@
       <c r="B203" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C203" s="172" t="s">
+      <c r="C203" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D203" s="172"/>
+      <c r="D203" s="165"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -9910,31 +9931,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="163" t="s">
+      <c r="A210" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B210" s="164"/>
+      <c r="B210" s="172"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210" s="165"/>
+      <c r="D210" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="168"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="167"/>
+      <c r="A211" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="164"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211" s="168"/>
+      <c r="D211" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="166"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A212" s="169"/>
@@ -9962,10 +9983,10 @@
       <c r="B214" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C214" s="172" t="s">
+      <c r="C214" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D214" s="172"/>
+      <c r="D214" s="165"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -10037,74 +10058,115 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="163" t="s">
+      <c r="A221" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B221" s="164"/>
+      <c r="B221" s="172"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E221" s="165"/>
+      <c r="D221" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="168"/>
     </row>
     <row r="222" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="167"/>
+      <c r="A222" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="164"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E222" s="168"/>
+      <c r="D222" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" s="166"/>
     </row>
     <row r="223" spans="1:5" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VytkJiG/lJCTByI+enmwG/Z3zL7M5wqlA0x0n/m9uVDo5FgtqOBSxE5i7bMQIQihB9Nd42JRTVvsElLpe7QLiQ==" saltValue="HhvqGmFxsxtyix3thOKY0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="A89:B89"/>
@@ -10129,85 +10191,44 @@
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -10278,10 +10299,10 @@
       <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="172"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -10361,10 +10382,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="165"/>
+      <c r="D12" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="168"/>
     </row>
     <row r="13" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="175" t="s">
@@ -10405,10 +10426,10 @@
       <c r="B16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="172" t="s">
+      <c r="C16" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="172"/>
+      <c r="D16" s="165"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -10480,31 +10501,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="163" t="s">
+      <c r="A23" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="164"/>
+      <c r="B23" s="172"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="165"/>
+      <c r="D23" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="168"/>
     </row>
     <row r="24" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="167"/>
+      <c r="A24" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="164"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="168"/>
+      <c r="D24" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="166"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A25" s="169"/>
@@ -10532,10 +10553,10 @@
       <c r="B27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="172" t="s">
+      <c r="C27" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="172"/>
+      <c r="D27" s="165"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -10607,31 +10628,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="163" t="s">
+      <c r="A34" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="164"/>
+      <c r="B34" s="172"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="165"/>
+      <c r="D34" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="168"/>
     </row>
     <row r="35" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="167"/>
+      <c r="A35" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="164"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="168"/>
+      <c r="D35" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="166"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A36" s="169"/>
@@ -10659,10 +10680,10 @@
       <c r="B38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="172" t="s">
+      <c r="C38" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="172"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -10734,31 +10755,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="164"/>
+      <c r="B45" s="172"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="165"/>
+      <c r="D45" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="168"/>
     </row>
     <row r="46" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="167"/>
+      <c r="A46" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="164"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="168"/>
+      <c r="D46" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="166"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A47" s="169"/>
@@ -10786,10 +10807,10 @@
       <c r="B49" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="172" t="s">
+      <c r="C49" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="172"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -10861,31 +10882,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="163" t="s">
+      <c r="A56" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="164"/>
+      <c r="B56" s="172"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="165"/>
+      <c r="D56" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="168"/>
     </row>
     <row r="57" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="167"/>
+      <c r="A57" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="164"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="168"/>
+      <c r="D57" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="166"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A58" s="169"/>
@@ -10913,10 +10934,10 @@
       <c r="B60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="172" t="s">
+      <c r="C60" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="172"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -10988,31 +11009,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="163" t="s">
+      <c r="A67" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="164"/>
+      <c r="B67" s="172"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="165"/>
+      <c r="D67" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="168"/>
     </row>
     <row r="68" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="167"/>
+      <c r="A68" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="164"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="168"/>
+      <c r="D68" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="166"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A69" s="169"/>
@@ -11040,10 +11061,10 @@
       <c r="B71" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="172" t="s">
+      <c r="C71" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="172"/>
+      <c r="D71" s="165"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -11115,31 +11136,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="163" t="s">
+      <c r="A78" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="164"/>
+      <c r="B78" s="172"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="165"/>
+      <c r="D78" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="168"/>
     </row>
     <row r="79" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="167"/>
+      <c r="A79" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="164"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="168"/>
+      <c r="D79" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="166"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A80" s="169"/>
@@ -11167,10 +11188,10 @@
       <c r="B82" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="172" t="s">
+      <c r="C82" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="172"/>
+      <c r="D82" s="165"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -11242,31 +11263,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="163" t="s">
+      <c r="A89" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="164"/>
+      <c r="B89" s="172"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="165"/>
+      <c r="D89" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="168"/>
     </row>
     <row r="90" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="167"/>
+      <c r="A90" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="164"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="168"/>
+      <c r="D90" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="166"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A91" s="169"/>
@@ -11294,10 +11315,10 @@
       <c r="B93" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="172" t="s">
+      <c r="C93" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="172"/>
+      <c r="D93" s="165"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -11369,31 +11390,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="163" t="s">
+      <c r="A100" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="164"/>
+      <c r="B100" s="172"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="165"/>
+      <c r="D100" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="168"/>
     </row>
     <row r="101" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="167"/>
+      <c r="A101" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="164"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="168"/>
+      <c r="D101" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="166"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A102" s="169"/>
@@ -11421,10 +11442,10 @@
       <c r="B104" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="172" t="s">
+      <c r="C104" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="172"/>
+      <c r="D104" s="165"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -11496,31 +11517,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="163" t="s">
+      <c r="A111" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="164"/>
+      <c r="B111" s="172"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="165"/>
+      <c r="D111" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="168"/>
     </row>
     <row r="112" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="167"/>
+      <c r="A112" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="164"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="168"/>
+      <c r="D112" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="166"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A113" s="169"/>
@@ -11548,10 +11569,10 @@
       <c r="B115" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C115" s="172" t="s">
+      <c r="C115" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D115" s="172"/>
+      <c r="D115" s="165"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -11623,31 +11644,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="163" t="s">
+      <c r="A122" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="164"/>
+      <c r="B122" s="172"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="165"/>
+      <c r="D122" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="168"/>
     </row>
     <row r="123" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="167"/>
+      <c r="A123" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="164"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="168"/>
+      <c r="D123" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="166"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A124" s="169"/>
@@ -11675,10 +11696,10 @@
       <c r="B126" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C126" s="172" t="s">
+      <c r="C126" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D126" s="172"/>
+      <c r="D126" s="165"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -11750,31 +11771,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="163" t="s">
+      <c r="A133" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="164"/>
+      <c r="B133" s="172"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="165"/>
+      <c r="D133" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="168"/>
     </row>
     <row r="134" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="167"/>
+      <c r="A134" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="164"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="168"/>
+      <c r="D134" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="166"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A135" s="169"/>
@@ -11802,10 +11823,10 @@
       <c r="B137" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="172" t="s">
+      <c r="C137" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="172"/>
+      <c r="D137" s="165"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -11877,31 +11898,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="163" t="s">
+      <c r="A144" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B144" s="164"/>
+      <c r="B144" s="172"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="165"/>
+      <c r="D144" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="168"/>
     </row>
     <row r="145" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="167"/>
+      <c r="A145" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="164"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="168"/>
+      <c r="D145" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="166"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A146" s="169"/>
@@ -11929,10 +11950,10 @@
       <c r="B148" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C148" s="172" t="s">
+      <c r="C148" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D148" s="172"/>
+      <c r="D148" s="165"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -12004,31 +12025,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="163" t="s">
+      <c r="A155" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="164"/>
+      <c r="B155" s="172"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="165"/>
+      <c r="D155" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="168"/>
     </row>
     <row r="156" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="167"/>
+      <c r="A156" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="164"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="168"/>
+      <c r="D156" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="166"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A157" s="169"/>
@@ -12056,10 +12077,10 @@
       <c r="B159" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="172" t="s">
+      <c r="C159" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D159" s="172"/>
+      <c r="D159" s="165"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -12131,31 +12152,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="163" t="s">
+      <c r="A166" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B166" s="164"/>
+      <c r="B166" s="172"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="165"/>
+      <c r="D166" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="168"/>
     </row>
     <row r="167" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="167"/>
+      <c r="A167" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="164"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" s="168"/>
+      <c r="D167" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" s="166"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A168" s="169"/>
@@ -12183,10 +12204,10 @@
       <c r="B170" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C170" s="172" t="s">
+      <c r="C170" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D170" s="172"/>
+      <c r="D170" s="165"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -12258,31 +12279,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="163" t="s">
+      <c r="A177" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B177" s="164"/>
+      <c r="B177" s="172"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="165"/>
+      <c r="D177" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" s="168"/>
     </row>
     <row r="178" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="167"/>
+      <c r="A178" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="164"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="168"/>
+      <c r="D178" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" s="166"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A179" s="169"/>
@@ -12310,10 +12331,10 @@
       <c r="B181" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C181" s="172" t="s">
+      <c r="C181" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D181" s="172"/>
+      <c r="D181" s="165"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -12385,31 +12406,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="163" t="s">
+      <c r="A188" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B188" s="164"/>
+      <c r="B188" s="172"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="165"/>
+      <c r="D188" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="168"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="167"/>
+      <c r="A189" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="164"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="168"/>
+      <c r="D189" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="166"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A190" s="169"/>
@@ -12437,10 +12458,10 @@
       <c r="B192" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C192" s="172" t="s">
+      <c r="C192" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D192" s="172"/>
+      <c r="D192" s="165"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -12512,31 +12533,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="163" t="s">
+      <c r="A199" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="164"/>
+      <c r="B199" s="172"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199" s="165"/>
+      <c r="D199" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="168"/>
     </row>
     <row r="200" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="167"/>
+      <c r="A200" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="164"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="168"/>
+      <c r="D200" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="166"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A201" s="169"/>
@@ -12564,10 +12585,10 @@
       <c r="B203" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C203" s="172" t="s">
+      <c r="C203" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D203" s="172"/>
+      <c r="D203" s="165"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -12639,31 +12660,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="163" t="s">
+      <c r="A210" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B210" s="164"/>
+      <c r="B210" s="172"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210" s="165"/>
+      <c r="D210" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="168"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="167"/>
+      <c r="A211" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="164"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211" s="168"/>
+      <c r="D211" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="166"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A212" s="169"/>
@@ -12691,10 +12712,10 @@
       <c r="B214" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C214" s="172" t="s">
+      <c r="C214" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D214" s="172"/>
+      <c r="D214" s="165"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -12766,79 +12787,110 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="163" t="s">
+      <c r="A221" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B221" s="164"/>
+      <c r="B221" s="172"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E221" s="165"/>
+      <c r="D221" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="168"/>
     </row>
     <row r="222" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="167"/>
+      <c r="A222" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="164"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E222" s="168"/>
+      <c r="D222" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" s="166"/>
     </row>
     <row r="223" spans="1:5" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="g3ZvYrwR03Dwo45rDtXXsAue3hZi3105AdEtMXHqQ4IoQiVEBud7K+JY0q7yvQH4wGLg6yPHKCt/bMn7k/VMfg==" saltValue="r7pz2F8ZFi0sdFhTPydVJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="D12:E12"/>
@@ -12863,80 +12915,49 @@
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -13007,10 +13028,10 @@
       <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="172"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -13090,10 +13111,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="165"/>
+      <c r="D12" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="168"/>
     </row>
     <row r="13" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="175" t="s">
@@ -13134,10 +13155,10 @@
       <c r="B16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="172" t="s">
+      <c r="C16" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="172"/>
+      <c r="D16" s="165"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -13209,31 +13230,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="163" t="s">
+      <c r="A23" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="164"/>
+      <c r="B23" s="172"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="165"/>
+      <c r="D23" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="168"/>
     </row>
     <row r="24" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="167"/>
+      <c r="A24" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="164"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="168"/>
+      <c r="D24" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="166"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A25" s="169"/>
@@ -13261,10 +13282,10 @@
       <c r="B27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="172" t="s">
+      <c r="C27" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="172"/>
+      <c r="D27" s="165"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -13336,31 +13357,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="163" t="s">
+      <c r="A34" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="164"/>
+      <c r="B34" s="172"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="165"/>
+      <c r="D34" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="168"/>
     </row>
     <row r="35" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="167"/>
+      <c r="A35" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="164"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="168"/>
+      <c r="D35" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="166"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A36" s="169"/>
@@ -13388,10 +13409,10 @@
       <c r="B38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="172" t="s">
+      <c r="C38" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="172"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -13463,31 +13484,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="164"/>
+      <c r="B45" s="172"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="165"/>
+      <c r="D45" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="168"/>
     </row>
     <row r="46" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="167"/>
+      <c r="A46" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="164"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="168"/>
+      <c r="D46" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="166"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A47" s="169"/>
@@ -13515,10 +13536,10 @@
       <c r="B49" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="172" t="s">
+      <c r="C49" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="172"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -13590,31 +13611,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="163" t="s">
+      <c r="A56" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="164"/>
+      <c r="B56" s="172"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="165"/>
+      <c r="D56" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="168"/>
     </row>
     <row r="57" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="167"/>
+      <c r="A57" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="164"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="168"/>
+      <c r="D57" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="166"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A58" s="169"/>
@@ -13642,10 +13663,10 @@
       <c r="B60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="172" t="s">
+      <c r="C60" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="172"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -13717,31 +13738,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="163" t="s">
+      <c r="A67" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="164"/>
+      <c r="B67" s="172"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="165"/>
+      <c r="D67" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="168"/>
     </row>
     <row r="68" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="167"/>
+      <c r="A68" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="164"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="168"/>
+      <c r="D68" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="166"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A69" s="169"/>
@@ -13769,10 +13790,10 @@
       <c r="B71" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="172" t="s">
+      <c r="C71" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="172"/>
+      <c r="D71" s="165"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -13844,31 +13865,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="163" t="s">
+      <c r="A78" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="164"/>
+      <c r="B78" s="172"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="165"/>
+      <c r="D78" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="168"/>
     </row>
     <row r="79" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="167"/>
+      <c r="A79" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="164"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="168"/>
+      <c r="D79" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="166"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A80" s="169"/>
@@ -13896,10 +13917,10 @@
       <c r="B82" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="172" t="s">
+      <c r="C82" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="172"/>
+      <c r="D82" s="165"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -13971,31 +13992,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="163" t="s">
+      <c r="A89" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="164"/>
+      <c r="B89" s="172"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="165"/>
+      <c r="D89" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="168"/>
     </row>
     <row r="90" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="167"/>
+      <c r="A90" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="164"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="168"/>
+      <c r="D90" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="166"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A91" s="169"/>
@@ -14023,10 +14044,10 @@
       <c r="B93" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="172" t="s">
+      <c r="C93" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="172"/>
+      <c r="D93" s="165"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -14098,31 +14119,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="163" t="s">
+      <c r="A100" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="164"/>
+      <c r="B100" s="172"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="165"/>
+      <c r="D100" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="168"/>
     </row>
     <row r="101" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="167"/>
+      <c r="A101" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="164"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="168"/>
+      <c r="D101" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="166"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A102" s="169"/>
@@ -14150,10 +14171,10 @@
       <c r="B104" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="172" t="s">
+      <c r="C104" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="172"/>
+      <c r="D104" s="165"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -14225,31 +14246,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="163" t="s">
+      <c r="A111" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="164"/>
+      <c r="B111" s="172"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="165"/>
+      <c r="D111" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="168"/>
     </row>
     <row r="112" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="167"/>
+      <c r="A112" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="164"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="168"/>
+      <c r="D112" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="166"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A113" s="169"/>
@@ -14277,10 +14298,10 @@
       <c r="B115" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C115" s="172" t="s">
+      <c r="C115" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D115" s="172"/>
+      <c r="D115" s="165"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -14352,31 +14373,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="163" t="s">
+      <c r="A122" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="164"/>
+      <c r="B122" s="172"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="165"/>
+      <c r="D122" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="168"/>
     </row>
     <row r="123" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="167"/>
+      <c r="A123" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="164"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="168"/>
+      <c r="D123" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="166"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A124" s="169"/>
@@ -14404,10 +14425,10 @@
       <c r="B126" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C126" s="172" t="s">
+      <c r="C126" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D126" s="172"/>
+      <c r="D126" s="165"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -14479,31 +14500,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="163" t="s">
+      <c r="A133" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="164"/>
+      <c r="B133" s="172"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="165"/>
+      <c r="D133" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="168"/>
     </row>
     <row r="134" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="167"/>
+      <c r="A134" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="164"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="168"/>
+      <c r="D134" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="166"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A135" s="169"/>
@@ -14531,10 +14552,10 @@
       <c r="B137" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="172" t="s">
+      <c r="C137" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="172"/>
+      <c r="D137" s="165"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -14606,31 +14627,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="163" t="s">
+      <c r="A144" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B144" s="164"/>
+      <c r="B144" s="172"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="165"/>
+      <c r="D144" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="168"/>
     </row>
     <row r="145" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="167"/>
+      <c r="A145" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="164"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="168"/>
+      <c r="D145" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="166"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A146" s="169"/>
@@ -14658,10 +14679,10 @@
       <c r="B148" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C148" s="172" t="s">
+      <c r="C148" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D148" s="172"/>
+      <c r="D148" s="165"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -14733,31 +14754,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="163" t="s">
+      <c r="A155" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="164"/>
+      <c r="B155" s="172"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="165"/>
+      <c r="D155" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="168"/>
     </row>
     <row r="156" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="167"/>
+      <c r="A156" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="164"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="168"/>
+      <c r="D156" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="166"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A157" s="169"/>
@@ -14785,10 +14806,10 @@
       <c r="B159" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="172" t="s">
+      <c r="C159" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D159" s="172"/>
+      <c r="D159" s="165"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -14860,31 +14881,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="163" t="s">
+      <c r="A166" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B166" s="164"/>
+      <c r="B166" s="172"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="165"/>
+      <c r="D166" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="168"/>
     </row>
     <row r="167" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="167"/>
+      <c r="A167" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="164"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" s="168"/>
+      <c r="D167" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" s="166"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A168" s="169"/>
@@ -14912,10 +14933,10 @@
       <c r="B170" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C170" s="172" t="s">
+      <c r="C170" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D170" s="172"/>
+      <c r="D170" s="165"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -14987,31 +15008,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="163" t="s">
+      <c r="A177" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B177" s="164"/>
+      <c r="B177" s="172"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="165"/>
+      <c r="D177" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" s="168"/>
     </row>
     <row r="178" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="167"/>
+      <c r="A178" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="164"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="168"/>
+      <c r="D178" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" s="166"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A179" s="169"/>
@@ -15039,10 +15060,10 @@
       <c r="B181" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C181" s="172" t="s">
+      <c r="C181" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D181" s="172"/>
+      <c r="D181" s="165"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -15114,31 +15135,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="163" t="s">
+      <c r="A188" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B188" s="164"/>
+      <c r="B188" s="172"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="165"/>
+      <c r="D188" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="168"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="167"/>
+      <c r="A189" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="164"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="168"/>
+      <c r="D189" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="166"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A190" s="169"/>
@@ -15166,10 +15187,10 @@
       <c r="B192" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C192" s="172" t="s">
+      <c r="C192" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D192" s="172"/>
+      <c r="D192" s="165"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -15241,31 +15262,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="163" t="s">
+      <c r="A199" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="164"/>
+      <c r="B199" s="172"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199" s="165"/>
+      <c r="D199" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="168"/>
     </row>
     <row r="200" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="167"/>
+      <c r="A200" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="164"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="168"/>
+      <c r="D200" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="166"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A201" s="169"/>
@@ -15293,10 +15314,10 @@
       <c r="B203" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C203" s="172" t="s">
+      <c r="C203" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D203" s="172"/>
+      <c r="D203" s="165"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -15368,31 +15389,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="163" t="s">
+      <c r="A210" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B210" s="164"/>
+      <c r="B210" s="172"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210" s="165"/>
+      <c r="D210" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="168"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="167"/>
+      <c r="A211" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="164"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211" s="168"/>
+      <c r="D211" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="166"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A212" s="169"/>
@@ -15420,10 +15441,10 @@
       <c r="B214" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C214" s="172" t="s">
+      <c r="C214" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D214" s="172"/>
+      <c r="D214" s="165"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -15495,87 +15516,110 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="163" t="s">
+      <c r="A221" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B221" s="164"/>
+      <c r="B221" s="172"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E221" s="165"/>
+      <c r="D221" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="168"/>
     </row>
     <row r="222" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="167"/>
+      <c r="A222" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="164"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E222" s="168"/>
+      <c r="D222" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" s="166"/>
     </row>
     <row r="223" spans="1:5" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ShHLx6295kERz/sxE7+/vkTV4PStK5pLtBbY3qMZ7fOBmXtpitxoAJt/ez1hwpRN8ZXwHfDaRYIfCiDZt/YWAA==" saltValue="N+ySqIUy80dAlB/CGO0woQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="D89:E89"/>
@@ -15592,80 +15636,57 @@
     <mergeCell ref="A102:E102"/>
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -15736,10 +15757,10 @@
       <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="172"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -15819,10 +15840,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="165"/>
+      <c r="D12" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="168"/>
     </row>
     <row r="13" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="175" t="s">
@@ -15863,10 +15884,10 @@
       <c r="B16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="172" t="s">
+      <c r="C16" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="172"/>
+      <c r="D16" s="165"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -15938,31 +15959,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="163" t="s">
+      <c r="A23" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="164"/>
+      <c r="B23" s="172"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="165"/>
+      <c r="D23" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="168"/>
     </row>
     <row r="24" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="167"/>
+      <c r="A24" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="164"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="168"/>
+      <c r="D24" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="166"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A25" s="169"/>
@@ -15990,10 +16011,10 @@
       <c r="B27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="172" t="s">
+      <c r="C27" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="172"/>
+      <c r="D27" s="165"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -16065,31 +16086,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="163" t="s">
+      <c r="A34" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="164"/>
+      <c r="B34" s="172"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="165"/>
+      <c r="D34" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="168"/>
     </row>
     <row r="35" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="167"/>
+      <c r="A35" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="164"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="168"/>
+      <c r="D35" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="166"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A36" s="169"/>
@@ -16117,10 +16138,10 @@
       <c r="B38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="172" t="s">
+      <c r="C38" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="172"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -16192,31 +16213,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="164"/>
+      <c r="B45" s="172"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="165"/>
+      <c r="D45" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="168"/>
     </row>
     <row r="46" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="167"/>
+      <c r="A46" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="164"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="168"/>
+      <c r="D46" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="166"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A47" s="169"/>
@@ -16244,10 +16265,10 @@
       <c r="B49" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="172" t="s">
+      <c r="C49" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="172"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -16319,31 +16340,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="163" t="s">
+      <c r="A56" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="164"/>
+      <c r="B56" s="172"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="165"/>
+      <c r="D56" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="168"/>
     </row>
     <row r="57" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="167"/>
+      <c r="A57" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="164"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="168"/>
+      <c r="D57" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="166"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A58" s="169"/>
@@ -16371,10 +16392,10 @@
       <c r="B60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="172" t="s">
+      <c r="C60" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="172"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -16446,31 +16467,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="163" t="s">
+      <c r="A67" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="164"/>
+      <c r="B67" s="172"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="165"/>
+      <c r="D67" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="168"/>
     </row>
     <row r="68" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="167"/>
+      <c r="A68" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="164"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="168"/>
+      <c r="D68" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="166"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A69" s="169"/>
@@ -16498,10 +16519,10 @@
       <c r="B71" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="172" t="s">
+      <c r="C71" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="172"/>
+      <c r="D71" s="165"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -16573,31 +16594,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="163" t="s">
+      <c r="A78" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="164"/>
+      <c r="B78" s="172"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="165"/>
+      <c r="D78" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="168"/>
     </row>
     <row r="79" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="167"/>
+      <c r="A79" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="164"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="168"/>
+      <c r="D79" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="166"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A80" s="169"/>
@@ -16625,10 +16646,10 @@
       <c r="B82" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="172" t="s">
+      <c r="C82" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="172"/>
+      <c r="D82" s="165"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -16700,31 +16721,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="163" t="s">
+      <c r="A89" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="164"/>
+      <c r="B89" s="172"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="165"/>
+      <c r="D89" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="168"/>
     </row>
     <row r="90" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="167"/>
+      <c r="A90" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="164"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="168"/>
+      <c r="D90" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="166"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A91" s="169"/>
@@ -16752,10 +16773,10 @@
       <c r="B93" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="172" t="s">
+      <c r="C93" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="172"/>
+      <c r="D93" s="165"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -16827,31 +16848,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="163" t="s">
+      <c r="A100" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="164"/>
+      <c r="B100" s="172"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="165"/>
+      <c r="D100" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="168"/>
     </row>
     <row r="101" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="167"/>
+      <c r="A101" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="164"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="168"/>
+      <c r="D101" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="166"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A102" s="169"/>
@@ -16879,10 +16900,10 @@
       <c r="B104" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="172" t="s">
+      <c r="C104" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="172"/>
+      <c r="D104" s="165"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -16954,31 +16975,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="163" t="s">
+      <c r="A111" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="164"/>
+      <c r="B111" s="172"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="165"/>
+      <c r="D111" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="168"/>
     </row>
     <row r="112" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="167"/>
+      <c r="A112" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="164"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="168"/>
+      <c r="D112" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="166"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A113" s="169"/>
@@ -17006,10 +17027,10 @@
       <c r="B115" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C115" s="172" t="s">
+      <c r="C115" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D115" s="172"/>
+      <c r="D115" s="165"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -17081,31 +17102,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="163" t="s">
+      <c r="A122" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="164"/>
+      <c r="B122" s="172"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="165"/>
+      <c r="D122" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="168"/>
     </row>
     <row r="123" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="167"/>
+      <c r="A123" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="164"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="168"/>
+      <c r="D123" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="166"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A124" s="169"/>
@@ -17133,10 +17154,10 @@
       <c r="B126" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C126" s="172" t="s">
+      <c r="C126" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D126" s="172"/>
+      <c r="D126" s="165"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -17208,31 +17229,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="163" t="s">
+      <c r="A133" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="164"/>
+      <c r="B133" s="172"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="165"/>
+      <c r="D133" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="168"/>
     </row>
     <row r="134" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="167"/>
+      <c r="A134" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="164"/>
       <c r="C134" s="59">
         <v>0</v>
       </c>
-      <c r="D134" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="168"/>
+      <c r="D134" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="166"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A135" s="169"/>
@@ -17260,10 +17281,10 @@
       <c r="B137" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="172" t="s">
+      <c r="C137" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="172"/>
+      <c r="D137" s="165"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -17335,31 +17356,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="163" t="s">
+      <c r="A144" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B144" s="164"/>
+      <c r="B144" s="172"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="165"/>
+      <c r="D144" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="168"/>
     </row>
     <row r="145" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="167"/>
+      <c r="A145" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="164"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="168"/>
+      <c r="D145" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="166"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A146" s="169"/>
@@ -17387,10 +17408,10 @@
       <c r="B148" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C148" s="172" t="s">
+      <c r="C148" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D148" s="172"/>
+      <c r="D148" s="165"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -17462,31 +17483,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="163" t="s">
+      <c r="A155" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="164"/>
+      <c r="B155" s="172"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="165"/>
+      <c r="D155" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="168"/>
     </row>
     <row r="156" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="167"/>
+      <c r="A156" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="164"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="168"/>
+      <c r="D156" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="166"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A157" s="169"/>
@@ -17514,10 +17535,10 @@
       <c r="B159" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="172" t="s">
+      <c r="C159" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D159" s="172"/>
+      <c r="D159" s="165"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -17589,31 +17610,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="163" t="s">
+      <c r="A166" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B166" s="164"/>
+      <c r="B166" s="172"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="165"/>
+      <c r="D166" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="168"/>
     </row>
     <row r="167" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="167"/>
+      <c r="A167" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="164"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" s="168"/>
+      <c r="D167" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" s="166"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A168" s="169"/>
@@ -17641,10 +17662,10 @@
       <c r="B170" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C170" s="172" t="s">
+      <c r="C170" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D170" s="172"/>
+      <c r="D170" s="165"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -17716,31 +17737,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="163" t="s">
+      <c r="A177" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B177" s="164"/>
+      <c r="B177" s="172"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="165"/>
+      <c r="D177" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" s="168"/>
     </row>
     <row r="178" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="167"/>
+      <c r="A178" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="164"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="168"/>
+      <c r="D178" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" s="166"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A179" s="169"/>
@@ -17768,10 +17789,10 @@
       <c r="B181" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C181" s="172" t="s">
+      <c r="C181" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D181" s="172"/>
+      <c r="D181" s="165"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -17843,31 +17864,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="163" t="s">
+      <c r="A188" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B188" s="164"/>
+      <c r="B188" s="172"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="165"/>
+      <c r="D188" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="168"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="167"/>
+      <c r="A189" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="164"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="168"/>
+      <c r="D189" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="166"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A190" s="169"/>
@@ -17895,10 +17916,10 @@
       <c r="B192" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C192" s="172" t="s">
+      <c r="C192" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D192" s="172"/>
+      <c r="D192" s="165"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -17970,31 +17991,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="163" t="s">
+      <c r="A199" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="164"/>
+      <c r="B199" s="172"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199" s="165"/>
+      <c r="D199" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="168"/>
     </row>
     <row r="200" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="167"/>
+      <c r="A200" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="164"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="168"/>
+      <c r="D200" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="166"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A201" s="169"/>
@@ -18022,10 +18043,10 @@
       <c r="B203" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C203" s="172" t="s">
+      <c r="C203" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D203" s="172"/>
+      <c r="D203" s="165"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -18097,31 +18118,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="163" t="s">
+      <c r="A210" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B210" s="164"/>
+      <c r="B210" s="172"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210" s="165"/>
+      <c r="D210" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="168"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="167"/>
+      <c r="A211" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="164"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211" s="168"/>
+      <c r="D211" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="166"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A212" s="169"/>
@@ -18149,10 +18170,10 @@
       <c r="B214" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C214" s="172" t="s">
+      <c r="C214" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D214" s="172"/>
+      <c r="D214" s="165"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -18224,79 +18245,110 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="163" t="s">
+      <c r="A221" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B221" s="164"/>
+      <c r="B221" s="172"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E221" s="165"/>
+      <c r="D221" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="168"/>
     </row>
     <row r="222" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="167"/>
+      <c r="A222" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="164"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E222" s="168"/>
+      <c r="D222" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" s="166"/>
     </row>
     <row r="223" spans="1:5" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="qkHEiaAjF8gwOa3is30uCpyaYrrLA+M9G6ZVowWb4z7MZMFsoOteeI9rBjKK3opYj1tR9STPTqA8B88ITlzyHw==" saltValue="QgNv+41ImpTcqDKX4J8u4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="D12:E12"/>
@@ -18321,80 +18373,49 @@
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>

--- a/Documentation/Documentation/ProjectDocumentation/Time_recording.xlsx
+++ b/Documentation/Documentation/ProjectDocumentation/Time_recording.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renehorschinger/Hagenberg/5_Semester/BAC/Projekt/ALPR-CNN/Documentation/Documentation/ProjectDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53F18DD-FD87-B443-BCDA-867389454861}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD9A715-3DB1-F248-87CC-2D3762C24484}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40740" yWindow="680" windowWidth="13260" windowHeight="19680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="119">
   <si>
     <t>Nr</t>
   </si>
@@ -383,6 +383,21 @@
   </si>
   <si>
     <t>NN trainieren, erstes Modell ausprobieren fürs extrahieren vom Kennzeichen</t>
+  </si>
+  <si>
+    <t>Neue Modelle bauen mit unterschiedlichen Daten und unterschiedlichen Epochen</t>
+  </si>
+  <si>
+    <t>unterschiedliche Modelle ausprobieren und Effizienz evaluieren</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Documentation schreiben</t>
+  </si>
+  <si>
+    <t>Präsentation vorbereiten</t>
   </si>
 </sst>
 </file>
@@ -1288,100 +1303,116 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1389,6 +1420,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1404,9 +1438,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1450,13 +1481,13 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1492,90 +1523,83 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1583,16 +1607,7 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1604,8 +1619,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2140,18 +2155,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="140" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
       <c r="J2" s="17"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -2161,18 +2176,18 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="2:33" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="142">
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="95">
         <v>5</v>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -2185,20 +2200,20 @@
       <c r="B4" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="146">
+      <c r="D4" s="99"/>
+      <c r="E4" s="100">
         <f>IF(EXACT($C$4,"PRO-1"),3,IF(EXACT($C$4,"PRO-2"),4,IF(EXACT($C$4,"PRO-3"),4,IF(EXACT($C$4,"PRO-4"),6,IF(EXACT($C$4,"PRO-2-M"),5,IF(EXACT($C$4,"PRO-3-M"),5))))))</f>
         <v>3</v>
       </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="143" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -2208,20 +2223,20 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:33" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="122">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="96">
         <v>12</v>
       </c>
-      <c r="F5" s="122"/>
-      <c r="G5" s="147" t="s">
+      <c r="F5" s="96"/>
+      <c r="G5" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -2231,21 +2246,21 @@
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:33" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="155">
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="77">
         <f>(25*60)*E4</f>
         <v>4500</v>
       </c>
-      <c r="F6" s="156"/>
-      <c r="G6" s="148" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -2255,19 +2270,19 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="2:33" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="157">
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="79">
         <f>E6/60</f>
         <v>75</v>
       </c>
-      <c r="F7" s="158"/>
-      <c r="G7" s="143" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -2277,9 +2292,9 @@
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="2:33" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="138"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="27" t="s">
         <v>2</v>
       </c>
@@ -2287,11 +2302,11 @@
         <f>(E6/60)/E5</f>
         <v>6.25</v>
       </c>
-      <c r="G8" s="143" t="s">
+      <c r="G8" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
       <c r="L8" s="21"/>
@@ -2319,62 +2334,62 @@
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="2:33" s="4" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="151"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="152" t="s">
+      <c r="I10" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="153"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="153"/>
-      <c r="Z10" s="153"/>
-      <c r="AA10" s="153"/>
-      <c r="AB10" s="153"/>
-      <c r="AC10" s="153"/>
-      <c r="AD10" s="153"/>
-      <c r="AE10" s="153"/>
-      <c r="AF10" s="154"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="76"/>
     </row>
     <row r="11" spans="2:33" s="4" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="112" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="50"/>
-      <c r="D11" s="130">
+      <c r="D11" s="134">
         <f>E3</f>
         <v>5</v>
       </c>
-      <c r="E11" s="107" t="s">
+      <c r="E11" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="107" t="s">
+      <c r="F11" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="135" t="s">
+      <c r="G11" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="70"/>
-      <c r="I11" s="159" t="s">
+      <c r="H11" s="162"/>
+      <c r="I11" s="84" t="s">
         <v>26</v>
       </c>
       <c r="J11" s="49" t="str">
@@ -2457,26 +2472,26 @@
         <f>'dynamic Data'!$B21</f>
         <v>DD.MM - DD.MM.YYYY</v>
       </c>
-      <c r="AD11" s="162" t="s">
+      <c r="AD11" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="AE11" s="161" t="s">
+      <c r="AE11" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="AF11" s="161" t="s">
+      <c r="AF11" s="86" t="s">
         <v>49</v>
       </c>
       <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="2:33" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="109"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="51"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="160"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="85"/>
       <c r="J12" s="36" t="s">
         <v>27</v>
       </c>
@@ -2537,30 +2552,30 @@
       <c r="AC12" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="AD12" s="162"/>
-      <c r="AE12" s="161"/>
-      <c r="AF12" s="161"/>
+      <c r="AD12" s="87"/>
+      <c r="AE12" s="86"/>
+      <c r="AF12" s="86"/>
     </row>
     <row r="13" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="110" t="str">
+      <c r="B13" s="114" t="str">
         <f>'Std-A'!A3</f>
         <v>Hörschinger Rene</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="119">
+      <c r="C13" s="115"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="123">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J13,IF($E$3&gt;=2,$K13,0),IF($E$3&gt;=3,$L13,0),IF($E$3&gt;=4,$M13,0),IF($E$3&gt;=5,$N13,0),IF($E$3&gt;=6,$O13,0),IF($E$3&gt;=7,$P13,0),IF($E$3&gt;=8,$Q13,0),IF($E$3&gt;=9,$R13,0),IF($E$3&gt;=10,$S13,0),IF($E$3&gt;=11,$T13,0),IF($E$3&gt;=12,$U13,0),IF($E$3&gt;=13,$V13,0),IF($E$3&gt;=14,$W13,0),IF($E$3&gt;=15,$X13,0),IF($E$3&gt;=16,$Y13,0),IF($E$3&gt;=17,$Z13,0),IF($E$3&gt;=18,$AA13,0),IF($E$3&gt;=19,$AB13,0),IF($E$3&gt;=12,$AC13,0)),0)</f>
         <v>75</v>
       </c>
-      <c r="F13" s="122">
+      <c r="F13" s="96">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J14,IF($E$3&gt;=2,$K14,0),IF($E$3&gt;=3,$L14,0),IF($E$3&gt;=4,$M14,0),IF($E$3&gt;=5,$N14,0),IF($E$3&gt;=6,$O14,0),IF($E$3&gt;=7,$P14,0),IF($E$3&gt;=8,$Q14,0),IF($E$3&gt;=9,$R14,0),IF($E$3&gt;=10,$S14,0),IF($E$3&gt;=11,$T14,0),IF($E$3&gt;=12,$U14,0),IF($E$3&gt;=13,$V14,0),IF($E$3&gt;=14,$W14,0),IF($E$3&gt;=15,$X14,0),IF($E$3&gt;=16,$Y14,0),IF($E$3&gt;=17,$Z14,0),IF($E$3&gt;=18,$AA14,0),IF($E$3&gt;=19,$AB14,0),IF($E$3&gt;=20,$AC14,0)),0)</f>
-        <v>45</v>
-      </c>
-      <c r="G13" s="132">
+        <v>75</v>
+      </c>
+      <c r="G13" s="136">
         <f>F13-E13</f>
-        <v>-30</v>
-      </c>
-      <c r="H13" s="68"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="158"/>
       <c r="I13" s="37" t="s">
         <v>51</v>
       </c>
@@ -2648,23 +2663,23 @@
         <f t="shared" ref="AD13:AD22" si="0">SUM(J13:AC13)</f>
         <v>75</v>
       </c>
-      <c r="AE13" s="75">
+      <c r="AE13" s="68">
         <f>IF(NOT(EXACT(B13,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF13" s="77">
+      <c r="AF13" s="81">
         <f>AD14-AE13</f>
-        <v>-30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="113"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="69"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="159"/>
       <c r="I14" s="37" t="s">
         <v>50</v>
       </c>
@@ -2682,11 +2697,11 @@
       </c>
       <c r="M14" s="32">
         <f>'Std-A'!$C$45</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N14" s="32">
         <f>'Std-A'!$C$56</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O14" s="32">
         <f>'Std-A'!$C$67</f>
@@ -2750,19 +2765,19 @@
       </c>
       <c r="AD14" s="33">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="74"/>
+        <v>75</v>
+      </c>
+      <c r="AE14" s="69"/>
+      <c r="AF14" s="82"/>
     </row>
     <row r="15" spans="2:33" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="116"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="69"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="159"/>
       <c r="I15" s="39" t="s">
         <v>25</v>
       </c>
@@ -2780,11 +2795,11 @@
       </c>
       <c r="M15" s="29">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="N15" s="29">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="O15" s="29">
         <f t="shared" si="1"/>
@@ -2848,31 +2863,31 @@
       </c>
       <c r="AD15" s="30">
         <f t="shared" si="0"/>
-        <v>-30</v>
-      </c>
-      <c r="AE15" s="76"/>
-      <c r="AF15" s="79"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="70"/>
+      <c r="AF15" s="83"/>
     </row>
     <row r="16" spans="2:33" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="80" t="str">
+      <c r="B16" s="106" t="str">
         <f>'Std-B'!A3</f>
         <v>Lumesberger Thomas</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="86">
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="128">
         <f t="shared" ref="E16" si="3">IF(NOT(EXACT($B16,"----")),SUM($J16,IF($E$3&gt;=2,$K16,0),IF($E$3&gt;=3,$L16,0),IF($E$3&gt;=4,$M16,0),IF($E$3&gt;=5,$N16,0),IF($E$3&gt;=6,$O16,0),IF($E$3&gt;=7,$P16,0),IF($E$3&gt;=8,$Q16,0),IF($E$3&gt;=9,$R16,0),IF($E$3&gt;=10,$S16,0),IF($E$3&gt;=11,$T16,0),IF($E$3&gt;=12,$U16,0),IF($E$3&gt;=13,$V16,0),IF($E$3&gt;=14,$W16,0),IF($E$3&gt;=15,$X16,0),IF($E$3&gt;=16,$Y16,0),IF($E$3&gt;=17,$Z16,0),IF($E$3&gt;=18,$AA16,0),IF($E$3&gt;=19,$AB16,0),IF($E$3&gt;=12,$AC16,0)),0)</f>
         <v>75</v>
       </c>
-      <c r="F16" s="127">
+      <c r="F16" s="131">
         <f t="shared" ref="F16" si="4">IF(NOT(EXACT($B16,"----")),SUM($J17,IF($E$3&gt;=2,$K17,0),IF($E$3&gt;=3,$L17,0),IF($E$3&gt;=4,$M17,0),IF($E$3&gt;=5,$N17,0),IF($E$3&gt;=6,$O17,0),IF($E$3&gt;=7,$P17,0),IF($E$3&gt;=8,$Q17,0),IF($E$3&gt;=9,$R17,0),IF($E$3&gt;=10,$S17,0),IF($E$3&gt;=11,$T17,0),IF($E$3&gt;=12,$U17,0),IF($E$3&gt;=13,$V17,0),IF($E$3&gt;=14,$W17,0),IF($E$3&gt;=15,$X17,0),IF($E$3&gt;=16,$Y17,0),IF($E$3&gt;=17,$Z17,0),IF($E$3&gt;=18,$AA17,0),IF($E$3&gt;=19,$AB17,0),IF($E$3&gt;=20,$AC17,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="92">
+      <c r="G16" s="103">
         <f t="shared" ref="G16" si="5">F16-E16</f>
         <v>-75</v>
       </c>
-      <c r="H16" s="68"/>
+      <c r="H16" s="158"/>
       <c r="I16" s="37" t="s">
         <v>51</v>
       </c>
@@ -2960,23 +2975,23 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="AE16" s="75">
+      <c r="AE16" s="68">
         <f>IF(NOT(EXACT(B16,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF16" s="77">
+      <c r="AF16" s="81">
         <f>AD17-AE16</f>
         <v>-75</v>
       </c>
     </row>
     <row r="17" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="103"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="69"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="159"/>
       <c r="I17" s="38" t="s">
         <v>50</v>
       </c>
@@ -3064,17 +3079,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="74"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="82"/>
     </row>
     <row r="18" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="105"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="69"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="159"/>
       <c r="I18" s="40" t="s">
         <v>25</v>
       </c>
@@ -3162,29 +3177,29 @@
         <f t="shared" si="0"/>
         <v>-75</v>
       </c>
-      <c r="AE18" s="76"/>
-      <c r="AF18" s="78"/>
+      <c r="AE18" s="70"/>
+      <c r="AF18" s="156"/>
     </row>
     <row r="19" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="80" t="str">
+      <c r="B19" s="106" t="str">
         <f>'Std-C'!A3</f>
         <v>----</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="86">
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="128">
         <f t="shared" ref="E19" si="8">IF(NOT(EXACT($B19,"----")),SUM($J19,IF($E$3&gt;=2,$K19,0),IF($E$3&gt;=3,$L19,0),IF($E$3&gt;=4,$M19,0),IF($E$3&gt;=5,$N19,0),IF($E$3&gt;=6,$O19,0),IF($E$3&gt;=7,$P19,0),IF($E$3&gt;=8,$Q19,0),IF($E$3&gt;=9,$R19,0),IF($E$3&gt;=10,$S19,0),IF($E$3&gt;=11,$T19,0),IF($E$3&gt;=12,$U19,0),IF($E$3&gt;=13,$V19,0),IF($E$3&gt;=14,$W19,0),IF($E$3&gt;=15,$X19,0),IF($E$3&gt;=16,$Y19,0),IF($E$3&gt;=17,$Z19,0),IF($E$3&gt;=18,$AA19,0),IF($E$3&gt;=19,$AB19,0),IF($E$3&gt;=12,$AC19,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="89">
+      <c r="F19" s="147">
         <f t="shared" ref="F19" si="9">IF(NOT(EXACT($B19,"----")),SUM($J20,IF($E$3&gt;=2,$K20,0),IF($E$3&gt;=3,$L20,0),IF($E$3&gt;=4,$M20,0),IF($E$3&gt;=5,$N20,0),IF($E$3&gt;=6,$O20,0),IF($E$3&gt;=7,$P20,0),IF($E$3&gt;=8,$Q20,0),IF($E$3&gt;=9,$R20,0),IF($E$3&gt;=10,$S20,0),IF($E$3&gt;=11,$T20,0),IF($E$3&gt;=12,$U20,0),IF($E$3&gt;=13,$V20,0),IF($E$3&gt;=14,$W20,0),IF($E$3&gt;=15,$X20,0),IF($E$3&gt;=16,$Y20,0),IF($E$3&gt;=17,$Z20,0),IF($E$3&gt;=18,$AA20,0),IF($E$3&gt;=19,$AB20,0),IF($E$3&gt;=20,$AC20,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="92">
+      <c r="G19" s="103">
         <f t="shared" ref="G19" si="10">F19-E19</f>
         <v>0</v>
       </c>
-      <c r="H19" s="68"/>
+      <c r="H19" s="158"/>
       <c r="I19" s="41" t="s">
         <v>51</v>
       </c>
@@ -3272,23 +3287,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="75">
+      <c r="AE19" s="68">
         <f>IF(NOT(EXACT(B19,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF19" s="73">
+      <c r="AF19" s="161">
         <f>AD20-AE19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="69"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="159"/>
       <c r="I20" s="38" t="s">
         <v>50</v>
       </c>
@@ -3376,17 +3391,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="74"/>
+      <c r="AE20" s="69"/>
+      <c r="AF20" s="82"/>
     </row>
     <row r="21" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="69"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="159"/>
       <c r="I21" s="39" t="s">
         <v>25</v>
       </c>
@@ -3474,29 +3489,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="76"/>
-      <c r="AF21" s="79"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="83"/>
     </row>
     <row r="22" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="80" t="str">
+      <c r="B22" s="106" t="str">
         <f>'Std-D'!A3</f>
         <v>----</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="86">
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="128">
         <f t="shared" ref="E22" si="13">IF(NOT(EXACT($B22,"----")),SUM($J22,IF($E$3&gt;=2,$K22,0),IF($E$3&gt;=3,$L22,0),IF($E$3&gt;=4,$M22,0),IF($E$3&gt;=5,$N22,0),IF($E$3&gt;=6,$O22,0),IF($E$3&gt;=7,$P22,0),IF($E$3&gt;=8,$Q22,0),IF($E$3&gt;=9,$R22,0),IF($E$3&gt;=10,$S22,0),IF($E$3&gt;=11,$T22,0),IF($E$3&gt;=12,$U22,0),IF($E$3&gt;=13,$V22,0),IF($E$3&gt;=14,$W22,0),IF($E$3&gt;=15,$X22,0),IF($E$3&gt;=16,$Y22,0),IF($E$3&gt;=17,$Z22,0),IF($E$3&gt;=18,$AA22,0),IF($E$3&gt;=19,$AB22,0),IF($E$3&gt;=12,$AC22,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="89">
+      <c r="F22" s="147">
         <f t="shared" ref="F22" si="14">IF(NOT(EXACT($B22,"----")),SUM($J23,IF($E$3&gt;=2,$K23,0),IF($E$3&gt;=3,$L23,0),IF($E$3&gt;=4,$M23,0),IF($E$3&gt;=5,$N23,0),IF($E$3&gt;=6,$O23,0),IF($E$3&gt;=7,$P23,0),IF($E$3&gt;=8,$Q23,0),IF($E$3&gt;=9,$R23,0),IF($E$3&gt;=10,$S23,0),IF($E$3&gt;=11,$T23,0),IF($E$3&gt;=12,$U23,0),IF($E$3&gt;=13,$V23,0),IF($E$3&gt;=14,$W23,0),IF($E$3&gt;=15,$X23,0),IF($E$3&gt;=16,$Y23,0),IF($E$3&gt;=17,$Z23,0),IF($E$3&gt;=18,$AA23,0),IF($E$3&gt;=19,$AB23,0),IF($E$3&gt;=20,$AC23,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="92">
+      <c r="G22" s="103">
         <f t="shared" ref="G22" si="15">F22-E22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="68"/>
+      <c r="H22" s="158"/>
       <c r="I22" s="37" t="s">
         <v>51</v>
       </c>
@@ -3584,23 +3599,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="75">
+      <c r="AE22" s="68">
         <f>IF(NOT(EXACT(B22,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="77">
+      <c r="AF22" s="81">
         <f>AD23-AE22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="69"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="159"/>
       <c r="I23" s="38" t="s">
         <v>50</v>
       </c>
@@ -3688,17 +3703,17 @@
         <f>SUM(J23:AC23)</f>
         <v>0</v>
       </c>
-      <c r="AE23" s="72"/>
-      <c r="AF23" s="74"/>
+      <c r="AE23" s="69"/>
+      <c r="AF23" s="82"/>
     </row>
     <row r="24" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="69"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="159"/>
       <c r="I24" s="40" t="s">
         <v>25</v>
       </c>
@@ -3786,29 +3801,29 @@
         <f>SUM(J24:AC24)</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="76"/>
-      <c r="AF24" s="78"/>
+      <c r="AE24" s="70"/>
+      <c r="AF24" s="156"/>
     </row>
     <row r="25" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="80" t="str">
+      <c r="B25" s="106" t="str">
         <f>'Std-E'!A3</f>
         <v>----</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="86">
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="128">
         <f t="shared" ref="E25" si="18">IF(NOT(EXACT($B25,"----")),SUM($J25,IF($E$3&gt;=2,$K25,0),IF($E$3&gt;=3,$L25,0),IF($E$3&gt;=4,$M25,0),IF($E$3&gt;=5,$N25,0),IF($E$3&gt;=6,$O25,0),IF($E$3&gt;=7,$P25,0),IF($E$3&gt;=8,$Q25,0),IF($E$3&gt;=9,$R25,0),IF($E$3&gt;=10,$S25,0),IF($E$3&gt;=11,$T25,0),IF($E$3&gt;=12,$U25,0),IF($E$3&gt;=13,$V25,0),IF($E$3&gt;=14,$W25,0),IF($E$3&gt;=15,$X25,0),IF($E$3&gt;=16,$Y25,0),IF($E$3&gt;=17,$Z25,0),IF($E$3&gt;=18,$AA25,0),IF($E$3&gt;=19,$AB25,0),IF($E$3&gt;=12,$AC25,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="89">
+      <c r="F25" s="147">
         <f t="shared" ref="F25" si="19">IF(NOT(EXACT($B25,"----")),SUM($J26,IF($E$3&gt;=2,$K26,0),IF($E$3&gt;=3,$L26,0),IF($E$3&gt;=4,$M26,0),IF($E$3&gt;=5,$N26,0),IF($E$3&gt;=6,$O26,0),IF($E$3&gt;=7,$P26,0),IF($E$3&gt;=8,$Q26,0),IF($E$3&gt;=9,$R26,0),IF($E$3&gt;=10,$S26,0),IF($E$3&gt;=11,$T26,0),IF($E$3&gt;=12,$U26,0),IF($E$3&gt;=13,$V26,0),IF($E$3&gt;=14,$W26,0),IF($E$3&gt;=15,$X26,0),IF($E$3&gt;=16,$Y26,0),IF($E$3&gt;=17,$Z26,0),IF($E$3&gt;=18,$AA26,0),IF($E$3&gt;=19,$AB26,0),IF($E$3&gt;=20,$AC26,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="92">
+      <c r="G25" s="103">
         <f t="shared" ref="G25" si="20">F25-E25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="68"/>
+      <c r="H25" s="158"/>
       <c r="I25" s="41" t="s">
         <v>51</v>
       </c>
@@ -3896,23 +3911,23 @@
         <f>SUM(J25:AC25)</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="71">
+      <c r="AE25" s="160">
         <f>IF(NOT(EXACT(B25,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="73">
+      <c r="AF25" s="161">
         <f>AD26-AE25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="82"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="69"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="159"/>
       <c r="I26" s="38" t="s">
         <v>50</v>
       </c>
@@ -4000,17 +4015,17 @@
         <f>SUM(J26:AC26)</f>
         <v>0</v>
       </c>
-      <c r="AE26" s="72"/>
-      <c r="AF26" s="74"/>
+      <c r="AE26" s="69"/>
+      <c r="AF26" s="82"/>
     </row>
     <row r="27" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="95"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="69"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="159"/>
       <c r="I27" s="38" t="s">
         <v>25</v>
       </c>
@@ -4098,8 +4113,8 @@
         <f>SUM(J27:AC27)</f>
         <v>0</v>
       </c>
-      <c r="AE27" s="72"/>
-      <c r="AF27" s="74"/>
+      <c r="AE27" s="69"/>
+      <c r="AF27" s="82"/>
     </row>
     <row r="28" spans="2:32" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B28" s="18"/>
@@ -4569,16 +4584,44 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="yOBXUoUIAB/U7w0KPLJupsh9iVk347fisYP5nNpPCiF6b+qHxv5s0s2HYuXPEVrUd4C+wzuLGXdqPy8SQ1cbhA==" saltValue="WFQNdDVdQJ/i07IfTt7UUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="64">
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="I10:AF10"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="AF13:AF15"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="AE25:AE27"/>
+    <mergeCell ref="AF25:AF27"/>
+    <mergeCell ref="AE16:AE18"/>
+    <mergeCell ref="AF16:AF18"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AF19:AF21"/>
+    <mergeCell ref="B19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="AF22:AF24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="B25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="B22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="B16:D18"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D8"/>
     <mergeCell ref="E11:E12"/>
@@ -4595,44 +4638,16 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="B16:D18"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="B22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="B19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="AE22:AE24"/>
-    <mergeCell ref="AF22:AF24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="AE25:AE27"/>
-    <mergeCell ref="AF25:AF27"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="AF16:AF18"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AF19:AF21"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="I10:AF10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="AF13:AF15"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AD11:AD12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I25:AF27">
@@ -4748,8 +4763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4806,10 +4821,10 @@
       <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="165" t="s">
+      <c r="C5" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="165"/>
+      <c r="D5" s="172"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -4896,10 +4911,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>15</v>
       </c>
-      <c r="D12" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="168"/>
+      <c r="D12" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="165"/>
     </row>
     <row r="13" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="175" t="s">
@@ -4940,10 +4955,10 @@
       <c r="B16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="165"/>
+      <c r="D16" s="172"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -5033,31 +5048,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="167" t="s">
+      <c r="A23" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="172"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>15</v>
       </c>
-      <c r="D23" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="168"/>
+      <c r="D23" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="165"/>
     </row>
     <row r="24" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="164"/>
+      <c r="A24" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="167"/>
       <c r="C24" s="62">
         <v>15</v>
       </c>
-      <c r="D24" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="166"/>
+      <c r="D24" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="168"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A25" s="169"/>
@@ -5085,10 +5100,10 @@
       <c r="B27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="165" t="s">
+      <c r="C27" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="165"/>
+      <c r="D27" s="172"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -5172,31 +5187,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="167" t="s">
+      <c r="A34" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="172"/>
+      <c r="B34" s="164"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>15</v>
       </c>
-      <c r="D34" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="168"/>
+      <c r="D34" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="165"/>
     </row>
     <row r="35" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="164"/>
+      <c r="A35" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="167"/>
       <c r="C35" s="62">
         <v>15</v>
       </c>
-      <c r="D35" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="166"/>
+      <c r="D35" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="168"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A36" s="169"/>
@@ -5224,10 +5239,10 @@
       <c r="B38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="165" t="s">
+      <c r="C38" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="165"/>
+      <c r="D38" s="172"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -5236,23 +5251,35 @@
       <c r="A39" s="46">
         <v>1</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
+      <c r="B39" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="43">
+        <v>450</v>
+      </c>
       <c r="D39" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="42"/>
+      <c r="E39" s="42" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="40" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="46">
         <v>2</v>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
+      <c r="B40" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="43">
+        <v>450</v>
+      </c>
       <c r="D40" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="42"/>
+      <c r="E40" s="42" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="41" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="46">
@@ -5299,31 +5326,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="167" t="s">
+      <c r="A45" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="172"/>
+      <c r="B45" s="164"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="168"/>
+        <v>15</v>
+      </c>
+      <c r="D45" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="165"/>
     </row>
     <row r="46" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="164"/>
+      <c r="A46" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="167"/>
       <c r="C46" s="62">
         <v>15</v>
       </c>
-      <c r="D46" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="166"/>
+      <c r="D46" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="168"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A47" s="169"/>
@@ -5351,10 +5378,10 @@
       <c r="B49" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="165" t="s">
+      <c r="C49" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="165"/>
+      <c r="D49" s="172"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -5363,23 +5390,35 @@
       <c r="A50" s="46">
         <v>1</v>
       </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="43"/>
+      <c r="B50" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="43">
+        <v>450</v>
+      </c>
       <c r="D50" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="42"/>
+      <c r="E50" s="42" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="51" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="46">
         <v>2</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="43"/>
+      <c r="B51" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="43">
+        <v>450</v>
+      </c>
       <c r="D51" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="42"/>
+      <c r="E51" s="42" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="52" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="46">
@@ -5426,31 +5465,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="167" t="s">
+      <c r="A56" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="172"/>
+      <c r="B56" s="164"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D56" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="168"/>
+        <v>15</v>
+      </c>
+      <c r="D56" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="165"/>
     </row>
     <row r="57" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="164"/>
+      <c r="A57" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="167"/>
       <c r="C57" s="62">
         <v>15</v>
       </c>
-      <c r="D57" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="166"/>
+      <c r="D57" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="168"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A58" s="169"/>
@@ -5478,10 +5517,10 @@
       <c r="B60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="165" t="s">
+      <c r="C60" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="165"/>
+      <c r="D60" s="172"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -5553,31 +5592,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="167" t="s">
+      <c r="A67" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="172"/>
+      <c r="B67" s="164"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="168"/>
+      <c r="D67" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="165"/>
     </row>
     <row r="68" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="164"/>
+      <c r="A68" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="167"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="166"/>
+      <c r="D68" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="168"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A69" s="169"/>
@@ -5605,10 +5644,10 @@
       <c r="B71" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="165" t="s">
+      <c r="C71" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="165"/>
+      <c r="D71" s="172"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -5680,31 +5719,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="167" t="s">
+      <c r="A78" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="172"/>
+      <c r="B78" s="164"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="168"/>
+      <c r="D78" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="165"/>
     </row>
     <row r="79" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="164"/>
+      <c r="A79" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="167"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="166"/>
+      <c r="D79" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="168"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A80" s="169"/>
@@ -5732,10 +5771,10 @@
       <c r="B82" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="165" t="s">
+      <c r="C82" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="165"/>
+      <c r="D82" s="172"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -5807,31 +5846,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="167" t="s">
+      <c r="A89" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="172"/>
+      <c r="B89" s="164"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="168"/>
+      <c r="D89" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="165"/>
     </row>
     <row r="90" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="164"/>
+      <c r="A90" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="167"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="166"/>
+      <c r="D90" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="168"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A91" s="169"/>
@@ -5859,10 +5898,10 @@
       <c r="B93" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="165" t="s">
+      <c r="C93" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="165"/>
+      <c r="D93" s="172"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -5934,31 +5973,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="167" t="s">
+      <c r="A100" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="172"/>
+      <c r="B100" s="164"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="168"/>
+      <c r="D100" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="165"/>
     </row>
     <row r="101" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="164"/>
+      <c r="A101" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="167"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="166"/>
+      <c r="D101" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="168"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A102" s="169"/>
@@ -5986,10 +6025,10 @@
       <c r="B104" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="165" t="s">
+      <c r="C104" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="165"/>
+      <c r="D104" s="172"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -6061,31 +6100,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="167" t="s">
+      <c r="A111" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="172"/>
+      <c r="B111" s="164"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="168"/>
+      <c r="D111" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="165"/>
     </row>
     <row r="112" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="164"/>
+      <c r="A112" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="167"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="166"/>
+      <c r="D112" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="168"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A113" s="169"/>
@@ -6113,10 +6152,10 @@
       <c r="B115" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C115" s="165" t="s">
+      <c r="C115" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D115" s="165"/>
+      <c r="D115" s="172"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -6188,31 +6227,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="167" t="s">
+      <c r="A122" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="172"/>
+      <c r="B122" s="164"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="168"/>
+      <c r="D122" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="165"/>
     </row>
     <row r="123" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="164"/>
+      <c r="A123" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="167"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="166"/>
+      <c r="D123" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="168"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A124" s="169"/>
@@ -6240,10 +6279,10 @@
       <c r="B126" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C126" s="165" t="s">
+      <c r="C126" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D126" s="165"/>
+      <c r="D126" s="172"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -6315,31 +6354,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="167" t="s">
+      <c r="A133" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="172"/>
+      <c r="B133" s="164"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="168"/>
+      <c r="D133" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="165"/>
     </row>
     <row r="134" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="164"/>
+      <c r="A134" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="167"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="166"/>
+      <c r="D134" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="168"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A135" s="169"/>
@@ -6367,10 +6406,10 @@
       <c r="B137" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="165" t="s">
+      <c r="C137" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="165"/>
+      <c r="D137" s="172"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -6442,31 +6481,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="167" t="s">
+      <c r="A144" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B144" s="172"/>
+      <c r="B144" s="164"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="168"/>
+      <c r="D144" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="165"/>
     </row>
     <row r="145" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="164"/>
+      <c r="A145" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="167"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="166"/>
+      <c r="D145" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="168"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A146" s="169"/>
@@ -6494,10 +6533,10 @@
       <c r="B148" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C148" s="165" t="s">
+      <c r="C148" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D148" s="165"/>
+      <c r="D148" s="172"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -6569,31 +6608,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="167" t="s">
+      <c r="A155" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="172"/>
+      <c r="B155" s="164"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="168"/>
+      <c r="D155" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="165"/>
     </row>
     <row r="156" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="164"/>
+      <c r="A156" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="167"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="166"/>
+      <c r="D156" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="168"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A157" s="169"/>
@@ -6621,10 +6660,10 @@
       <c r="B159" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="165" t="s">
+      <c r="C159" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D159" s="165"/>
+      <c r="D159" s="172"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -6696,31 +6735,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="167" t="s">
+      <c r="A166" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B166" s="172"/>
+      <c r="B166" s="164"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="168"/>
+      <c r="D166" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="165"/>
     </row>
     <row r="167" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="164"/>
+      <c r="A167" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="167"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" s="166"/>
+      <c r="D167" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" s="168"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A168" s="169"/>
@@ -6748,10 +6787,10 @@
       <c r="B170" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C170" s="165" t="s">
+      <c r="C170" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D170" s="165"/>
+      <c r="D170" s="172"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -6823,31 +6862,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="167" t="s">
+      <c r="A177" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B177" s="172"/>
+      <c r="B177" s="164"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="168"/>
+      <c r="D177" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" s="165"/>
     </row>
     <row r="178" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="164"/>
+      <c r="A178" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="167"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="166"/>
+      <c r="D178" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" s="168"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A179" s="169"/>
@@ -6875,10 +6914,10 @@
       <c r="B181" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C181" s="165" t="s">
+      <c r="C181" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D181" s="165"/>
+      <c r="D181" s="172"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -6950,31 +6989,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="167" t="s">
+      <c r="A188" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B188" s="172"/>
+      <c r="B188" s="164"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="168"/>
+      <c r="D188" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="165"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="164"/>
+      <c r="A189" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="167"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="166"/>
+      <c r="D189" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="168"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A190" s="169"/>
@@ -7002,10 +7041,10 @@
       <c r="B192" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C192" s="165" t="s">
+      <c r="C192" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D192" s="165"/>
+      <c r="D192" s="172"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -7077,31 +7116,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="167" t="s">
+      <c r="A199" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="172"/>
+      <c r="B199" s="164"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199" s="168"/>
+      <c r="D199" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="165"/>
     </row>
     <row r="200" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="164"/>
+      <c r="A200" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="167"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="166"/>
+      <c r="D200" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="168"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A201" s="169"/>
@@ -7129,10 +7168,10 @@
       <c r="B203" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C203" s="165" t="s">
+      <c r="C203" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D203" s="165"/>
+      <c r="D203" s="172"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -7204,31 +7243,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="167" t="s">
+      <c r="A210" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B210" s="172"/>
+      <c r="B210" s="164"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210" s="168"/>
+      <c r="D210" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="165"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="164"/>
+      <c r="A211" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="167"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211" s="166"/>
+      <c r="D211" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="168"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A212" s="169"/>
@@ -7256,10 +7295,10 @@
       <c r="B214" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C214" s="165" t="s">
+      <c r="C214" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D214" s="165"/>
+      <c r="D214" s="172"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -7331,87 +7370,102 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="167" t="s">
+      <c r="A221" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B221" s="172"/>
+      <c r="B221" s="164"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E221" s="168"/>
+      <c r="D221" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="165"/>
     </row>
     <row r="222" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="164"/>
+      <c r="A222" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="167"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E222" s="166"/>
+      <c r="D222" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" s="168"/>
     </row>
     <row r="223" spans="1:5" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3ycMrhIin7k7o5a3QKdDs107o2UR+lTtobmr9pCOYaL7SmGfKeey7eIuIRjOPF9h5ERZ6YTi2HtbTLXSGjzqGQ==" saltValue="gAnMRYEAvr3jQUOD70YZjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
@@ -7436,72 +7490,57 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -7572,10 +7611,10 @@
       <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="165" t="s">
+      <c r="C5" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="165"/>
+      <c r="D5" s="172"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -7655,10 +7694,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="168"/>
+      <c r="D12" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="165"/>
     </row>
     <row r="13" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="175" t="s">
@@ -7699,10 +7738,10 @@
       <c r="B16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="165"/>
+      <c r="D16" s="172"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -7774,31 +7813,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="167" t="s">
+      <c r="A23" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="172"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="168"/>
+      <c r="D23" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="165"/>
     </row>
     <row r="24" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="164"/>
+      <c r="A24" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="167"/>
       <c r="C24" s="62">
         <v>15</v>
       </c>
-      <c r="D24" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="166"/>
+      <c r="D24" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="168"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A25" s="169"/>
@@ -7826,10 +7865,10 @@
       <c r="B27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="165" t="s">
+      <c r="C27" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="165"/>
+      <c r="D27" s="172"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -7901,31 +7940,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="167" t="s">
+      <c r="A34" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="172"/>
+      <c r="B34" s="164"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="168"/>
+      <c r="D34" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="165"/>
     </row>
     <row r="35" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="164"/>
+      <c r="A35" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="167"/>
       <c r="C35" s="62">
         <v>20</v>
       </c>
-      <c r="D35" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="166"/>
+      <c r="D35" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="168"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A36" s="169"/>
@@ -7953,10 +7992,10 @@
       <c r="B38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="165" t="s">
+      <c r="C38" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="165"/>
+      <c r="D38" s="172"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -8028,31 +8067,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="167" t="s">
+      <c r="A45" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="172"/>
+      <c r="B45" s="164"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="168"/>
+      <c r="D45" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="165"/>
     </row>
     <row r="46" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="164"/>
+      <c r="A46" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="167"/>
       <c r="C46" s="62">
         <v>15</v>
       </c>
-      <c r="D46" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="166"/>
+      <c r="D46" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="168"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A47" s="169"/>
@@ -8080,10 +8119,10 @@
       <c r="B49" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="165" t="s">
+      <c r="C49" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="165"/>
+      <c r="D49" s="172"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -8155,31 +8194,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="167" t="s">
+      <c r="A56" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="172"/>
+      <c r="B56" s="164"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="168"/>
+      <c r="D56" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="165"/>
     </row>
     <row r="57" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="164"/>
+      <c r="A57" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="167"/>
       <c r="C57" s="62">
         <v>15</v>
       </c>
-      <c r="D57" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="166"/>
+      <c r="D57" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="168"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A58" s="169"/>
@@ -8207,10 +8246,10 @@
       <c r="B60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="165" t="s">
+      <c r="C60" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="165"/>
+      <c r="D60" s="172"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -8282,29 +8321,29 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="167" t="s">
+      <c r="A67" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="172"/>
+      <c r="B67" s="164"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="168"/>
+      <c r="D67" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="165"/>
     </row>
     <row r="68" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="164"/>
+      <c r="A68" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="167"/>
       <c r="C68" s="62"/>
-      <c r="D68" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="166"/>
+      <c r="D68" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="168"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A69" s="169"/>
@@ -8332,10 +8371,10 @@
       <c r="B71" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="165" t="s">
+      <c r="C71" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="165"/>
+      <c r="D71" s="172"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -8407,31 +8446,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="167" t="s">
+      <c r="A78" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="172"/>
+      <c r="B78" s="164"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="168"/>
+      <c r="D78" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="165"/>
     </row>
     <row r="79" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="164"/>
+      <c r="A79" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="167"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="166"/>
+      <c r="D79" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="168"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A80" s="169"/>
@@ -8459,10 +8498,10 @@
       <c r="B82" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="165" t="s">
+      <c r="C82" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="165"/>
+      <c r="D82" s="172"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -8534,31 +8573,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="167" t="s">
+      <c r="A89" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="172"/>
+      <c r="B89" s="164"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="168"/>
+      <c r="D89" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="165"/>
     </row>
     <row r="90" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="164"/>
+      <c r="A90" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="167"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="166"/>
+      <c r="D90" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="168"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A91" s="169"/>
@@ -8586,10 +8625,10 @@
       <c r="B93" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="165" t="s">
+      <c r="C93" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="165"/>
+      <c r="D93" s="172"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -8661,31 +8700,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="167" t="s">
+      <c r="A100" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="172"/>
+      <c r="B100" s="164"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="168"/>
+      <c r="D100" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="165"/>
     </row>
     <row r="101" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="164"/>
+      <c r="A101" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="167"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="166"/>
+      <c r="D101" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="168"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A102" s="169"/>
@@ -8713,10 +8752,10 @@
       <c r="B104" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="165" t="s">
+      <c r="C104" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="165"/>
+      <c r="D104" s="172"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -8788,31 +8827,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="167" t="s">
+      <c r="A111" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="172"/>
+      <c r="B111" s="164"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="168"/>
+      <c r="D111" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="165"/>
     </row>
     <row r="112" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="164"/>
+      <c r="A112" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="167"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="166"/>
+      <c r="D112" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="168"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A113" s="169"/>
@@ -8840,10 +8879,10 @@
       <c r="B115" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C115" s="165" t="s">
+      <c r="C115" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D115" s="165"/>
+      <c r="D115" s="172"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -8915,31 +8954,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="167" t="s">
+      <c r="A122" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="172"/>
+      <c r="B122" s="164"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="168"/>
+      <c r="D122" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="165"/>
     </row>
     <row r="123" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="164"/>
+      <c r="A123" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="167"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="166"/>
+      <c r="D123" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="168"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A124" s="169"/>
@@ -8967,10 +9006,10 @@
       <c r="B126" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C126" s="165" t="s">
+      <c r="C126" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D126" s="165"/>
+      <c r="D126" s="172"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -9042,31 +9081,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="167" t="s">
+      <c r="A133" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="172"/>
+      <c r="B133" s="164"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="168"/>
+      <c r="D133" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="165"/>
     </row>
     <row r="134" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="164"/>
+      <c r="A134" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="167"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="166"/>
+      <c r="D134" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="168"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A135" s="169"/>
@@ -9094,10 +9133,10 @@
       <c r="B137" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="165" t="s">
+      <c r="C137" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="165"/>
+      <c r="D137" s="172"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -9169,31 +9208,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="167" t="s">
+      <c r="A144" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B144" s="172"/>
+      <c r="B144" s="164"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="168"/>
+      <c r="D144" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="165"/>
     </row>
     <row r="145" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="164"/>
+      <c r="A145" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="167"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="166"/>
+      <c r="D145" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="168"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A146" s="169"/>
@@ -9221,10 +9260,10 @@
       <c r="B148" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C148" s="165" t="s">
+      <c r="C148" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D148" s="165"/>
+      <c r="D148" s="172"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -9296,31 +9335,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="167" t="s">
+      <c r="A155" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="172"/>
+      <c r="B155" s="164"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="168"/>
+      <c r="D155" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="165"/>
     </row>
     <row r="156" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="164"/>
+      <c r="A156" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="167"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="166"/>
+      <c r="D156" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="168"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A157" s="169"/>
@@ -9348,10 +9387,10 @@
       <c r="B159" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="165" t="s">
+      <c r="C159" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D159" s="165"/>
+      <c r="D159" s="172"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -9423,31 +9462,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="167" t="s">
+      <c r="A166" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B166" s="172"/>
+      <c r="B166" s="164"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="168"/>
+      <c r="D166" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="165"/>
     </row>
     <row r="167" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="164"/>
+      <c r="A167" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="167"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" s="166"/>
+      <c r="D167" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" s="168"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A168" s="169"/>
@@ -9475,10 +9514,10 @@
       <c r="B170" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C170" s="165" t="s">
+      <c r="C170" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D170" s="165"/>
+      <c r="D170" s="172"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -9550,31 +9589,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="167" t="s">
+      <c r="A177" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B177" s="172"/>
+      <c r="B177" s="164"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="168"/>
+      <c r="D177" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" s="165"/>
     </row>
     <row r="178" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="164"/>
+      <c r="A178" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="167"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="166"/>
+      <c r="D178" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" s="168"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A179" s="169"/>
@@ -9602,10 +9641,10 @@
       <c r="B181" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C181" s="165" t="s">
+      <c r="C181" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D181" s="165"/>
+      <c r="D181" s="172"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -9677,31 +9716,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="167" t="s">
+      <c r="A188" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B188" s="172"/>
+      <c r="B188" s="164"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="168"/>
+      <c r="D188" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="165"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="164"/>
+      <c r="A189" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="167"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="166"/>
+      <c r="D189" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="168"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A190" s="169"/>
@@ -9729,10 +9768,10 @@
       <c r="B192" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C192" s="165" t="s">
+      <c r="C192" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D192" s="165"/>
+      <c r="D192" s="172"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -9804,31 +9843,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="167" t="s">
+      <c r="A199" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="172"/>
+      <c r="B199" s="164"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199" s="168"/>
+      <c r="D199" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="165"/>
     </row>
     <row r="200" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="164"/>
+      <c r="A200" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="167"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="166"/>
+      <c r="D200" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="168"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A201" s="169"/>
@@ -9856,10 +9895,10 @@
       <c r="B203" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C203" s="165" t="s">
+      <c r="C203" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D203" s="165"/>
+      <c r="D203" s="172"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -9931,31 +9970,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="167" t="s">
+      <c r="A210" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B210" s="172"/>
+      <c r="B210" s="164"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210" s="168"/>
+      <c r="D210" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="165"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="164"/>
+      <c r="A211" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="167"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211" s="166"/>
+      <c r="D211" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="168"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A212" s="169"/>
@@ -9983,10 +10022,10 @@
       <c r="B214" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C214" s="165" t="s">
+      <c r="C214" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D214" s="165"/>
+      <c r="D214" s="172"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -10058,115 +10097,74 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="167" t="s">
+      <c r="A221" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B221" s="172"/>
+      <c r="B221" s="164"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E221" s="168"/>
+      <c r="D221" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="165"/>
     </row>
     <row r="222" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="164"/>
+      <c r="A222" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="167"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E222" s="166"/>
+      <c r="D222" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" s="168"/>
     </row>
     <row r="223" spans="1:5" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VytkJiG/lJCTByI+enmwG/Z3zL7M5wqlA0x0n/m9uVDo5FgtqOBSxE5i7bMQIQihB9Nd42JRTVvsElLpe7QLiQ==" saltValue="HhvqGmFxsxtyix3thOKY0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="A89:B89"/>
@@ -10191,44 +10189,85 @@
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -10299,10 +10338,10 @@
       <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="165" t="s">
+      <c r="C5" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="165"/>
+      <c r="D5" s="172"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -10382,10 +10421,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="168"/>
+      <c r="D12" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="165"/>
     </row>
     <row r="13" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="175" t="s">
@@ -10426,10 +10465,10 @@
       <c r="B16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="165"/>
+      <c r="D16" s="172"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -10501,31 +10540,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="167" t="s">
+      <c r="A23" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="172"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="168"/>
+      <c r="D23" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="165"/>
     </row>
     <row r="24" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="164"/>
+      <c r="A24" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="167"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="166"/>
+      <c r="D24" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="168"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A25" s="169"/>
@@ -10553,10 +10592,10 @@
       <c r="B27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="165" t="s">
+      <c r="C27" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="165"/>
+      <c r="D27" s="172"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -10628,31 +10667,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="167" t="s">
+      <c r="A34" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="172"/>
+      <c r="B34" s="164"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="168"/>
+      <c r="D34" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="165"/>
     </row>
     <row r="35" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="164"/>
+      <c r="A35" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="167"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="166"/>
+      <c r="D35" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="168"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A36" s="169"/>
@@ -10680,10 +10719,10 @@
       <c r="B38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="165" t="s">
+      <c r="C38" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="165"/>
+      <c r="D38" s="172"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -10755,31 +10794,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="167" t="s">
+      <c r="A45" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="172"/>
+      <c r="B45" s="164"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="168"/>
+      <c r="D45" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="165"/>
     </row>
     <row r="46" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="164"/>
+      <c r="A46" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="167"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="166"/>
+      <c r="D46" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="168"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A47" s="169"/>
@@ -10807,10 +10846,10 @@
       <c r="B49" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="165" t="s">
+      <c r="C49" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="165"/>
+      <c r="D49" s="172"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -10882,31 +10921,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="167" t="s">
+      <c r="A56" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="172"/>
+      <c r="B56" s="164"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="168"/>
+      <c r="D56" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="165"/>
     </row>
     <row r="57" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="164"/>
+      <c r="A57" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="167"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="166"/>
+      <c r="D57" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="168"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A58" s="169"/>
@@ -10934,10 +10973,10 @@
       <c r="B60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="165" t="s">
+      <c r="C60" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="165"/>
+      <c r="D60" s="172"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -11009,31 +11048,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="167" t="s">
+      <c r="A67" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="172"/>
+      <c r="B67" s="164"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="168"/>
+      <c r="D67" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="165"/>
     </row>
     <row r="68" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="164"/>
+      <c r="A68" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="167"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="166"/>
+      <c r="D68" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="168"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A69" s="169"/>
@@ -11061,10 +11100,10 @@
       <c r="B71" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="165" t="s">
+      <c r="C71" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="165"/>
+      <c r="D71" s="172"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -11136,31 +11175,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="167" t="s">
+      <c r="A78" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="172"/>
+      <c r="B78" s="164"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="168"/>
+      <c r="D78" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="165"/>
     </row>
     <row r="79" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="164"/>
+      <c r="A79" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="167"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="166"/>
+      <c r="D79" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="168"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A80" s="169"/>
@@ -11188,10 +11227,10 @@
       <c r="B82" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="165" t="s">
+      <c r="C82" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="165"/>
+      <c r="D82" s="172"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -11263,31 +11302,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="167" t="s">
+      <c r="A89" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="172"/>
+      <c r="B89" s="164"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="168"/>
+      <c r="D89" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="165"/>
     </row>
     <row r="90" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="164"/>
+      <c r="A90" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="167"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="166"/>
+      <c r="D90" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="168"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A91" s="169"/>
@@ -11315,10 +11354,10 @@
       <c r="B93" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="165" t="s">
+      <c r="C93" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="165"/>
+      <c r="D93" s="172"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -11390,31 +11429,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="167" t="s">
+      <c r="A100" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="172"/>
+      <c r="B100" s="164"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="168"/>
+      <c r="D100" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="165"/>
     </row>
     <row r="101" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="164"/>
+      <c r="A101" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="167"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="166"/>
+      <c r="D101" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="168"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A102" s="169"/>
@@ -11442,10 +11481,10 @@
       <c r="B104" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="165" t="s">
+      <c r="C104" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="165"/>
+      <c r="D104" s="172"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -11517,31 +11556,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="167" t="s">
+      <c r="A111" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="172"/>
+      <c r="B111" s="164"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="168"/>
+      <c r="D111" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="165"/>
     </row>
     <row r="112" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="164"/>
+      <c r="A112" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="167"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="166"/>
+      <c r="D112" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="168"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A113" s="169"/>
@@ -11569,10 +11608,10 @@
       <c r="B115" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C115" s="165" t="s">
+      <c r="C115" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D115" s="165"/>
+      <c r="D115" s="172"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -11644,31 +11683,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="167" t="s">
+      <c r="A122" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="172"/>
+      <c r="B122" s="164"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="168"/>
+      <c r="D122" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="165"/>
     </row>
     <row r="123" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="164"/>
+      <c r="A123" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="167"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="166"/>
+      <c r="D123" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="168"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A124" s="169"/>
@@ -11696,10 +11735,10 @@
       <c r="B126" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C126" s="165" t="s">
+      <c r="C126" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D126" s="165"/>
+      <c r="D126" s="172"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -11771,31 +11810,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="167" t="s">
+      <c r="A133" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="172"/>
+      <c r="B133" s="164"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="168"/>
+      <c r="D133" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="165"/>
     </row>
     <row r="134" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="164"/>
+      <c r="A134" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="167"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="166"/>
+      <c r="D134" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="168"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A135" s="169"/>
@@ -11823,10 +11862,10 @@
       <c r="B137" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="165" t="s">
+      <c r="C137" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="165"/>
+      <c r="D137" s="172"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -11898,31 +11937,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="167" t="s">
+      <c r="A144" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B144" s="172"/>
+      <c r="B144" s="164"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="168"/>
+      <c r="D144" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="165"/>
     </row>
     <row r="145" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="164"/>
+      <c r="A145" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="167"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="166"/>
+      <c r="D145" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="168"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A146" s="169"/>
@@ -11950,10 +11989,10 @@
       <c r="B148" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C148" s="165" t="s">
+      <c r="C148" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D148" s="165"/>
+      <c r="D148" s="172"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -12025,31 +12064,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="167" t="s">
+      <c r="A155" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="172"/>
+      <c r="B155" s="164"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="168"/>
+      <c r="D155" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="165"/>
     </row>
     <row r="156" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="164"/>
+      <c r="A156" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="167"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="166"/>
+      <c r="D156" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="168"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A157" s="169"/>
@@ -12077,10 +12116,10 @@
       <c r="B159" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="165" t="s">
+      <c r="C159" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D159" s="165"/>
+      <c r="D159" s="172"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -12152,31 +12191,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="167" t="s">
+      <c r="A166" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B166" s="172"/>
+      <c r="B166" s="164"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="168"/>
+      <c r="D166" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="165"/>
     </row>
     <row r="167" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="164"/>
+      <c r="A167" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="167"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" s="166"/>
+      <c r="D167" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" s="168"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A168" s="169"/>
@@ -12204,10 +12243,10 @@
       <c r="B170" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C170" s="165" t="s">
+      <c r="C170" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D170" s="165"/>
+      <c r="D170" s="172"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -12279,31 +12318,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="167" t="s">
+      <c r="A177" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B177" s="172"/>
+      <c r="B177" s="164"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="168"/>
+      <c r="D177" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" s="165"/>
     </row>
     <row r="178" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="164"/>
+      <c r="A178" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="167"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="166"/>
+      <c r="D178" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" s="168"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A179" s="169"/>
@@ -12331,10 +12370,10 @@
       <c r="B181" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C181" s="165" t="s">
+      <c r="C181" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D181" s="165"/>
+      <c r="D181" s="172"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -12406,31 +12445,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="167" t="s">
+      <c r="A188" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B188" s="172"/>
+      <c r="B188" s="164"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="168"/>
+      <c r="D188" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="165"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="164"/>
+      <c r="A189" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="167"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="166"/>
+      <c r="D189" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="168"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A190" s="169"/>
@@ -12458,10 +12497,10 @@
       <c r="B192" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C192" s="165" t="s">
+      <c r="C192" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D192" s="165"/>
+      <c r="D192" s="172"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -12533,31 +12572,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="167" t="s">
+      <c r="A199" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="172"/>
+      <c r="B199" s="164"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199" s="168"/>
+      <c r="D199" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="165"/>
     </row>
     <row r="200" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="164"/>
+      <c r="A200" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="167"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="166"/>
+      <c r="D200" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="168"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A201" s="169"/>
@@ -12585,10 +12624,10 @@
       <c r="B203" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C203" s="165" t="s">
+      <c r="C203" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D203" s="165"/>
+      <c r="D203" s="172"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -12660,31 +12699,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="167" t="s">
+      <c r="A210" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B210" s="172"/>
+      <c r="B210" s="164"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210" s="168"/>
+      <c r="D210" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="165"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="164"/>
+      <c r="A211" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="167"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211" s="166"/>
+      <c r="D211" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="168"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A212" s="169"/>
@@ -12712,10 +12751,10 @@
       <c r="B214" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C214" s="165" t="s">
+      <c r="C214" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D214" s="165"/>
+      <c r="D214" s="172"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -12787,86 +12826,103 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="167" t="s">
+      <c r="A221" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B221" s="172"/>
+      <c r="B221" s="164"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E221" s="168"/>
+      <c r="D221" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="165"/>
     </row>
     <row r="222" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="164"/>
+      <c r="A222" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="167"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E222" s="166"/>
+      <c r="D222" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" s="168"/>
     </row>
     <row r="223" spans="1:5" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="g3ZvYrwR03Dwo45rDtXXsAue3hZi3105AdEtMXHqQ4IoQiVEBud7K+JY0q7yvQH4wGLg6yPHKCt/bMn7k/VMfg==" saltValue="r7pz2F8ZFi0sdFhTPydVJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="C137:D137"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="D144:E144"/>
@@ -12891,73 +12947,56 @@
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -13028,10 +13067,10 @@
       <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="165" t="s">
+      <c r="C5" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="165"/>
+      <c r="D5" s="172"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -13111,10 +13150,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="168"/>
+      <c r="D12" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="165"/>
     </row>
     <row r="13" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="175" t="s">
@@ -13155,10 +13194,10 @@
       <c r="B16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="165"/>
+      <c r="D16" s="172"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -13230,31 +13269,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="167" t="s">
+      <c r="A23" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="172"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="168"/>
+      <c r="D23" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="165"/>
     </row>
     <row r="24" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="164"/>
+      <c r="A24" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="167"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="166"/>
+      <c r="D24" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="168"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A25" s="169"/>
@@ -13282,10 +13321,10 @@
       <c r="B27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="165" t="s">
+      <c r="C27" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="165"/>
+      <c r="D27" s="172"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -13357,31 +13396,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="167" t="s">
+      <c r="A34" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="172"/>
+      <c r="B34" s="164"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="168"/>
+      <c r="D34" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="165"/>
     </row>
     <row r="35" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="164"/>
+      <c r="A35" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="167"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="166"/>
+      <c r="D35" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="168"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A36" s="169"/>
@@ -13409,10 +13448,10 @@
       <c r="B38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="165" t="s">
+      <c r="C38" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="165"/>
+      <c r="D38" s="172"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -13484,31 +13523,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="167" t="s">
+      <c r="A45" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="172"/>
+      <c r="B45" s="164"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="168"/>
+      <c r="D45" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="165"/>
     </row>
     <row r="46" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="164"/>
+      <c r="A46" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="167"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="166"/>
+      <c r="D46" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="168"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A47" s="169"/>
@@ -13536,10 +13575,10 @@
       <c r="B49" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="165" t="s">
+      <c r="C49" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="165"/>
+      <c r="D49" s="172"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -13611,31 +13650,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="167" t="s">
+      <c r="A56" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="172"/>
+      <c r="B56" s="164"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="168"/>
+      <c r="D56" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="165"/>
     </row>
     <row r="57" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="164"/>
+      <c r="A57" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="167"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="166"/>
+      <c r="D57" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="168"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A58" s="169"/>
@@ -13663,10 +13702,10 @@
       <c r="B60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="165" t="s">
+      <c r="C60" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="165"/>
+      <c r="D60" s="172"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -13738,31 +13777,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="167" t="s">
+      <c r="A67" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="172"/>
+      <c r="B67" s="164"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="168"/>
+      <c r="D67" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="165"/>
     </row>
     <row r="68" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="164"/>
+      <c r="A68" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="167"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="166"/>
+      <c r="D68" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="168"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A69" s="169"/>
@@ -13790,10 +13829,10 @@
       <c r="B71" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="165" t="s">
+      <c r="C71" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="165"/>
+      <c r="D71" s="172"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -13865,31 +13904,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="167" t="s">
+      <c r="A78" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="172"/>
+      <c r="B78" s="164"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="168"/>
+      <c r="D78" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="165"/>
     </row>
     <row r="79" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="164"/>
+      <c r="A79" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="167"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="166"/>
+      <c r="D79" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="168"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A80" s="169"/>
@@ -13917,10 +13956,10 @@
       <c r="B82" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="165" t="s">
+      <c r="C82" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="165"/>
+      <c r="D82" s="172"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -13992,31 +14031,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="167" t="s">
+      <c r="A89" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="172"/>
+      <c r="B89" s="164"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="168"/>
+      <c r="D89" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="165"/>
     </row>
     <row r="90" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="164"/>
+      <c r="A90" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="167"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="166"/>
+      <c r="D90" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="168"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A91" s="169"/>
@@ -14044,10 +14083,10 @@
       <c r="B93" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="165" t="s">
+      <c r="C93" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="165"/>
+      <c r="D93" s="172"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -14119,31 +14158,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="167" t="s">
+      <c r="A100" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="172"/>
+      <c r="B100" s="164"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="168"/>
+      <c r="D100" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="165"/>
     </row>
     <row r="101" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="164"/>
+      <c r="A101" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="167"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="166"/>
+      <c r="D101" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="168"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A102" s="169"/>
@@ -14171,10 +14210,10 @@
       <c r="B104" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="165" t="s">
+      <c r="C104" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="165"/>
+      <c r="D104" s="172"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -14246,31 +14285,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="167" t="s">
+      <c r="A111" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="172"/>
+      <c r="B111" s="164"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="168"/>
+      <c r="D111" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="165"/>
     </row>
     <row r="112" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="164"/>
+      <c r="A112" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="167"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="166"/>
+      <c r="D112" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="168"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A113" s="169"/>
@@ -14298,10 +14337,10 @@
       <c r="B115" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C115" s="165" t="s">
+      <c r="C115" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D115" s="165"/>
+      <c r="D115" s="172"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -14373,31 +14412,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="167" t="s">
+      <c r="A122" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="172"/>
+      <c r="B122" s="164"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="168"/>
+      <c r="D122" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="165"/>
     </row>
     <row r="123" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="164"/>
+      <c r="A123" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="167"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="166"/>
+      <c r="D123" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="168"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A124" s="169"/>
@@ -14425,10 +14464,10 @@
       <c r="B126" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C126" s="165" t="s">
+      <c r="C126" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D126" s="165"/>
+      <c r="D126" s="172"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -14500,31 +14539,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="167" t="s">
+      <c r="A133" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="172"/>
+      <c r="B133" s="164"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="168"/>
+      <c r="D133" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="165"/>
     </row>
     <row r="134" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="164"/>
+      <c r="A134" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="167"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="166"/>
+      <c r="D134" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="168"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A135" s="169"/>
@@ -14552,10 +14591,10 @@
       <c r="B137" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="165" t="s">
+      <c r="C137" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="165"/>
+      <c r="D137" s="172"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -14627,31 +14666,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="167" t="s">
+      <c r="A144" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B144" s="172"/>
+      <c r="B144" s="164"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="168"/>
+      <c r="D144" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="165"/>
     </row>
     <row r="145" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="164"/>
+      <c r="A145" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="167"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="166"/>
+      <c r="D145" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="168"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A146" s="169"/>
@@ -14679,10 +14718,10 @@
       <c r="B148" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C148" s="165" t="s">
+      <c r="C148" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D148" s="165"/>
+      <c r="D148" s="172"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -14754,31 +14793,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="167" t="s">
+      <c r="A155" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="172"/>
+      <c r="B155" s="164"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="168"/>
+      <c r="D155" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="165"/>
     </row>
     <row r="156" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="164"/>
+      <c r="A156" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="167"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="166"/>
+      <c r="D156" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="168"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A157" s="169"/>
@@ -14806,10 +14845,10 @@
       <c r="B159" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="165" t="s">
+      <c r="C159" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D159" s="165"/>
+      <c r="D159" s="172"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -14881,31 +14920,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="167" t="s">
+      <c r="A166" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B166" s="172"/>
+      <c r="B166" s="164"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="168"/>
+      <c r="D166" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="165"/>
     </row>
     <row r="167" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="164"/>
+      <c r="A167" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="167"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" s="166"/>
+      <c r="D167" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" s="168"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A168" s="169"/>
@@ -14933,10 +14972,10 @@
       <c r="B170" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C170" s="165" t="s">
+      <c r="C170" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D170" s="165"/>
+      <c r="D170" s="172"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -15008,31 +15047,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="167" t="s">
+      <c r="A177" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B177" s="172"/>
+      <c r="B177" s="164"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="168"/>
+      <c r="D177" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" s="165"/>
     </row>
     <row r="178" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="164"/>
+      <c r="A178" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="167"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="166"/>
+      <c r="D178" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" s="168"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A179" s="169"/>
@@ -15060,10 +15099,10 @@
       <c r="B181" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C181" s="165" t="s">
+      <c r="C181" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D181" s="165"/>
+      <c r="D181" s="172"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -15135,31 +15174,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="167" t="s">
+      <c r="A188" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B188" s="172"/>
+      <c r="B188" s="164"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="168"/>
+      <c r="D188" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="165"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="164"/>
+      <c r="A189" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="167"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="166"/>
+      <c r="D189" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="168"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A190" s="169"/>
@@ -15187,10 +15226,10 @@
       <c r="B192" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C192" s="165" t="s">
+      <c r="C192" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D192" s="165"/>
+      <c r="D192" s="172"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -15262,31 +15301,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="167" t="s">
+      <c r="A199" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="172"/>
+      <c r="B199" s="164"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199" s="168"/>
+      <c r="D199" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="165"/>
     </row>
     <row r="200" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="164"/>
+      <c r="A200" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="167"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="166"/>
+      <c r="D200" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="168"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A201" s="169"/>
@@ -15314,10 +15353,10 @@
       <c r="B203" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C203" s="165" t="s">
+      <c r="C203" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D203" s="165"/>
+      <c r="D203" s="172"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -15389,31 +15428,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="167" t="s">
+      <c r="A210" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B210" s="172"/>
+      <c r="B210" s="164"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210" s="168"/>
+      <c r="D210" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="165"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="164"/>
+      <c r="A211" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="167"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211" s="166"/>
+      <c r="D211" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="168"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A212" s="169"/>
@@ -15441,10 +15480,10 @@
       <c r="B214" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C214" s="165" t="s">
+      <c r="C214" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D214" s="165"/>
+      <c r="D214" s="172"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -15516,110 +15555,87 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="167" t="s">
+      <c r="A221" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B221" s="172"/>
+      <c r="B221" s="164"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E221" s="168"/>
+      <c r="D221" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="165"/>
     </row>
     <row r="222" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="164"/>
+      <c r="A222" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="167"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E222" s="166"/>
+      <c r="D222" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" s="168"/>
     </row>
     <row r="223" spans="1:5" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ShHLx6295kERz/sxE7+/vkTV4PStK5pLtBbY3qMZ7fOBmXtpitxoAJt/ez1hwpRN8ZXwHfDaRYIfCiDZt/YWAA==" saltValue="N+ySqIUy80dAlB/CGO0woQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="D89:E89"/>
@@ -15636,57 +15652,80 @@
     <mergeCell ref="A102:E102"/>
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -15757,10 +15796,10 @@
       <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="165" t="s">
+      <c r="C5" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="165"/>
+      <c r="D5" s="172"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -15840,10 +15879,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="168"/>
+      <c r="D12" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="165"/>
     </row>
     <row r="13" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="175" t="s">
@@ -15884,10 +15923,10 @@
       <c r="B16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="165"/>
+      <c r="D16" s="172"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -15959,31 +15998,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="167" t="s">
+      <c r="A23" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="172"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="168"/>
+      <c r="D23" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="165"/>
     </row>
     <row r="24" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="164"/>
+      <c r="A24" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="167"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="166"/>
+      <c r="D24" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="168"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A25" s="169"/>
@@ -16011,10 +16050,10 @@
       <c r="B27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="165" t="s">
+      <c r="C27" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="165"/>
+      <c r="D27" s="172"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -16086,31 +16125,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="167" t="s">
+      <c r="A34" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="172"/>
+      <c r="B34" s="164"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="168"/>
+      <c r="D34" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="165"/>
     </row>
     <row r="35" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="164"/>
+      <c r="A35" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="167"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="166"/>
+      <c r="D35" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="168"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A36" s="169"/>
@@ -16138,10 +16177,10 @@
       <c r="B38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="165" t="s">
+      <c r="C38" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="165"/>
+      <c r="D38" s="172"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -16213,31 +16252,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="167" t="s">
+      <c r="A45" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="172"/>
+      <c r="B45" s="164"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="168"/>
+      <c r="D45" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="165"/>
     </row>
     <row r="46" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="164"/>
+      <c r="A46" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="167"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="166"/>
+      <c r="D46" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="168"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A47" s="169"/>
@@ -16265,10 +16304,10 @@
       <c r="B49" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="165" t="s">
+      <c r="C49" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="165"/>
+      <c r="D49" s="172"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -16340,31 +16379,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="167" t="s">
+      <c r="A56" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="172"/>
+      <c r="B56" s="164"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="168"/>
+      <c r="D56" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="165"/>
     </row>
     <row r="57" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="164"/>
+      <c r="A57" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="167"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="166"/>
+      <c r="D57" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="168"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A58" s="169"/>
@@ -16392,10 +16431,10 @@
       <c r="B60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="165" t="s">
+      <c r="C60" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="165"/>
+      <c r="D60" s="172"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -16467,31 +16506,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="167" t="s">
+      <c r="A67" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="172"/>
+      <c r="B67" s="164"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="168"/>
+      <c r="D67" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="165"/>
     </row>
     <row r="68" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="164"/>
+      <c r="A68" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="167"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="166"/>
+      <c r="D68" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="168"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A69" s="169"/>
@@ -16519,10 +16558,10 @@
       <c r="B71" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="165" t="s">
+      <c r="C71" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="165"/>
+      <c r="D71" s="172"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -16594,31 +16633,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="167" t="s">
+      <c r="A78" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="172"/>
+      <c r="B78" s="164"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="168"/>
+      <c r="D78" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="165"/>
     </row>
     <row r="79" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="164"/>
+      <c r="A79" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="167"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="166"/>
+      <c r="D79" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="168"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A80" s="169"/>
@@ -16646,10 +16685,10 @@
       <c r="B82" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="165" t="s">
+      <c r="C82" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="165"/>
+      <c r="D82" s="172"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -16721,31 +16760,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="167" t="s">
+      <c r="A89" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="172"/>
+      <c r="B89" s="164"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="168"/>
+      <c r="D89" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="165"/>
     </row>
     <row r="90" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="164"/>
+      <c r="A90" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="167"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="166"/>
+      <c r="D90" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="168"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A91" s="169"/>
@@ -16773,10 +16812,10 @@
       <c r="B93" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="165" t="s">
+      <c r="C93" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="165"/>
+      <c r="D93" s="172"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -16848,31 +16887,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="167" t="s">
+      <c r="A100" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="172"/>
+      <c r="B100" s="164"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="168"/>
+      <c r="D100" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="165"/>
     </row>
     <row r="101" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="164"/>
+      <c r="A101" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="167"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="166"/>
+      <c r="D101" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="168"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A102" s="169"/>
@@ -16900,10 +16939,10 @@
       <c r="B104" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="165" t="s">
+      <c r="C104" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="165"/>
+      <c r="D104" s="172"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -16975,31 +17014,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="167" t="s">
+      <c r="A111" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="172"/>
+      <c r="B111" s="164"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="168"/>
+      <c r="D111" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="165"/>
     </row>
     <row r="112" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="164"/>
+      <c r="A112" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="167"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="166"/>
+      <c r="D112" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="168"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A113" s="169"/>
@@ -17027,10 +17066,10 @@
       <c r="B115" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C115" s="165" t="s">
+      <c r="C115" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D115" s="165"/>
+      <c r="D115" s="172"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -17102,31 +17141,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="167" t="s">
+      <c r="A122" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="172"/>
+      <c r="B122" s="164"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="168"/>
+      <c r="D122" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="165"/>
     </row>
     <row r="123" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="164"/>
+      <c r="A123" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="167"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="166"/>
+      <c r="D123" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="168"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A124" s="169"/>
@@ -17154,10 +17193,10 @@
       <c r="B126" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C126" s="165" t="s">
+      <c r="C126" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D126" s="165"/>
+      <c r="D126" s="172"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -17229,31 +17268,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="167" t="s">
+      <c r="A133" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="172"/>
+      <c r="B133" s="164"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="168"/>
+      <c r="D133" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="165"/>
     </row>
     <row r="134" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="164"/>
+      <c r="A134" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="167"/>
       <c r="C134" s="59">
         <v>0</v>
       </c>
-      <c r="D134" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="166"/>
+      <c r="D134" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="168"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A135" s="169"/>
@@ -17281,10 +17320,10 @@
       <c r="B137" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="165" t="s">
+      <c r="C137" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="165"/>
+      <c r="D137" s="172"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -17356,31 +17395,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="167" t="s">
+      <c r="A144" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B144" s="172"/>
+      <c r="B144" s="164"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="168"/>
+      <c r="D144" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="165"/>
     </row>
     <row r="145" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="164"/>
+      <c r="A145" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="167"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="166"/>
+      <c r="D145" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="168"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A146" s="169"/>
@@ -17408,10 +17447,10 @@
       <c r="B148" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C148" s="165" t="s">
+      <c r="C148" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D148" s="165"/>
+      <c r="D148" s="172"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -17483,31 +17522,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="167" t="s">
+      <c r="A155" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="172"/>
+      <c r="B155" s="164"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="168"/>
+      <c r="D155" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="165"/>
     </row>
     <row r="156" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="164"/>
+      <c r="A156" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="167"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="166"/>
+      <c r="D156" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="168"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A157" s="169"/>
@@ -17535,10 +17574,10 @@
       <c r="B159" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="165" t="s">
+      <c r="C159" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D159" s="165"/>
+      <c r="D159" s="172"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -17610,31 +17649,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="167" t="s">
+      <c r="A166" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B166" s="172"/>
+      <c r="B166" s="164"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="168"/>
+      <c r="D166" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="165"/>
     </row>
     <row r="167" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="164"/>
+      <c r="A167" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="167"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" s="166"/>
+      <c r="D167" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" s="168"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A168" s="169"/>
@@ -17662,10 +17701,10 @@
       <c r="B170" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C170" s="165" t="s">
+      <c r="C170" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D170" s="165"/>
+      <c r="D170" s="172"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -17737,31 +17776,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="167" t="s">
+      <c r="A177" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B177" s="172"/>
+      <c r="B177" s="164"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="168"/>
+      <c r="D177" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" s="165"/>
     </row>
     <row r="178" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="164"/>
+      <c r="A178" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="167"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="166"/>
+      <c r="D178" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" s="168"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A179" s="169"/>
@@ -17789,10 +17828,10 @@
       <c r="B181" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C181" s="165" t="s">
+      <c r="C181" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D181" s="165"/>
+      <c r="D181" s="172"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -17864,31 +17903,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="167" t="s">
+      <c r="A188" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B188" s="172"/>
+      <c r="B188" s="164"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="168"/>
+      <c r="D188" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="165"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="164"/>
+      <c r="A189" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="167"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="166"/>
+      <c r="D189" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="168"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A190" s="169"/>
@@ -17916,10 +17955,10 @@
       <c r="B192" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C192" s="165" t="s">
+      <c r="C192" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D192" s="165"/>
+      <c r="D192" s="172"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -17991,31 +18030,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="167" t="s">
+      <c r="A199" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="172"/>
+      <c r="B199" s="164"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199" s="168"/>
+      <c r="D199" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="165"/>
     </row>
     <row r="200" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="164"/>
+      <c r="A200" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="167"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="166"/>
+      <c r="D200" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="168"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A201" s="169"/>
@@ -18043,10 +18082,10 @@
       <c r="B203" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C203" s="165" t="s">
+      <c r="C203" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D203" s="165"/>
+      <c r="D203" s="172"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -18118,31 +18157,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="167" t="s">
+      <c r="A210" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B210" s="172"/>
+      <c r="B210" s="164"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210" s="168"/>
+      <c r="D210" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="165"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="164"/>
+      <c r="A211" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="167"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211" s="166"/>
+      <c r="D211" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="168"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A212" s="169"/>
@@ -18170,10 +18209,10 @@
       <c r="B214" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C214" s="165" t="s">
+      <c r="C214" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D214" s="165"/>
+      <c r="D214" s="172"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -18245,86 +18284,103 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="167" t="s">
+      <c r="A221" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="B221" s="172"/>
+      <c r="B221" s="164"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E221" s="168"/>
+      <c r="D221" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="165"/>
     </row>
     <row r="222" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="164"/>
+      <c r="A222" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="167"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E222" s="166"/>
+      <c r="D222" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" s="168"/>
     </row>
     <row r="223" spans="1:5" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="qkHEiaAjF8gwOa3is30uCpyaYrrLA+M9G6ZVowWb4z7MZMFsoOteeI9rBjKK3opYj1tR9STPTqA8B88ITlzyHw==" saltValue="QgNv+41ImpTcqDKX4J8u4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="C137:D137"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="D144:E144"/>
@@ -18349,73 +18405,56 @@
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>

--- a/Documentation/Documentation/ProjectDocumentation/Time_recording.xlsx
+++ b/Documentation/Documentation/ProjectDocumentation/Time_recording.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renehorschinger/Hagenberg/5_Semester/BAC/Projekt/ALPR-CNN/Documentation/Documentation/ProjectDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD9A715-3DB1-F248-87CC-2D3762C24484}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B8D89B-3D99-A34A-9BF4-7C17D10F8460}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40740" yWindow="680" windowWidth="13260" windowHeight="19680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37080" yWindow="840" windowWidth="13260" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -2136,7 +2136,7 @@
   </sheetPr>
   <dimension ref="B2:AG55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
@@ -4763,7 +4763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Documentation/ProjectDocumentation/Time_recording.xlsx
+++ b/Documentation/Documentation/ProjectDocumentation/Time_recording.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renehorschinger/Hagenberg/5_Semester/BAC/Projekt/ALPR-CNN/Documentation/Documentation/ProjectDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B8D89B-3D99-A34A-9BF4-7C17D10F8460}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D578390-64AD-C148-AF07-CD8E976B7306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37080" yWindow="840" windowWidth="13260" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37080" yWindow="840" windowWidth="13260" windowHeight="19680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="118">
   <si>
     <t>Nr</t>
   </si>
@@ -395,9 +395,6 @@
   </si>
   <si>
     <t>Documentation schreiben</t>
-  </si>
-  <si>
-    <t>Präsentation vorbereiten</t>
   </si>
 </sst>
 </file>
@@ -1303,116 +1300,100 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1420,9 +1401,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1438,6 +1416,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1481,13 +1462,13 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1523,83 +1504,90 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1607,7 +1595,16 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1619,8 +1616,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2136,7 +2133,7 @@
   </sheetPr>
   <dimension ref="B2:AG55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
@@ -2155,18 +2152,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
       <c r="J2" s="17"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -2176,18 +2173,18 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="2:33" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="95">
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="142">
         <v>5</v>
       </c>
-      <c r="F3" s="95"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -2200,20 +2197,20 @@
       <c r="B4" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="144" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="100">
+      <c r="D4" s="145"/>
+      <c r="E4" s="146">
         <f>IF(EXACT($C$4,"PRO-1"),3,IF(EXACT($C$4,"PRO-2"),4,IF(EXACT($C$4,"PRO-3"),4,IF(EXACT($C$4,"PRO-4"),6,IF(EXACT($C$4,"PRO-2-M"),5,IF(EXACT($C$4,"PRO-3-M"),5))))))</f>
         <v>3</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="97" t="s">
+      <c r="F4" s="146"/>
+      <c r="G4" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -2223,20 +2220,20 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:33" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="96">
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="122">
         <v>12</v>
       </c>
-      <c r="F5" s="96"/>
-      <c r="G5" s="101" t="s">
+      <c r="F5" s="122"/>
+      <c r="G5" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -2246,21 +2243,21 @@
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:33" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="77">
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="155">
         <f>(25*60)*E4</f>
         <v>4500</v>
       </c>
-      <c r="F6" s="78"/>
-      <c r="G6" s="102" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="148" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -2270,19 +2267,19 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="2:33" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="79">
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="157">
         <f>E6/60</f>
         <v>75</v>
       </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="143" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -2292,9 +2289,9 @@
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="2:33" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
       <c r="E8" s="27" t="s">
         <v>2</v>
       </c>
@@ -2302,11 +2299,11 @@
         <f>(E6/60)/E5</f>
         <v>6.25</v>
       </c>
-      <c r="G8" s="97" t="s">
+      <c r="G8" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
       <c r="L8" s="21"/>
@@ -2334,62 +2331,62 @@
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="2:33" s="4" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="151"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="74" t="s">
+      <c r="I10" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="76"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="153"/>
+      <c r="N10" s="153"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="153"/>
+      <c r="R10" s="153"/>
+      <c r="S10" s="153"/>
+      <c r="T10" s="153"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="153"/>
+      <c r="W10" s="153"/>
+      <c r="X10" s="153"/>
+      <c r="Y10" s="153"/>
+      <c r="Z10" s="153"/>
+      <c r="AA10" s="153"/>
+      <c r="AB10" s="153"/>
+      <c r="AC10" s="153"/>
+      <c r="AD10" s="153"/>
+      <c r="AE10" s="153"/>
+      <c r="AF10" s="154"/>
     </row>
     <row r="11" spans="2:33" s="4" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="50"/>
-      <c r="D11" s="134">
+      <c r="D11" s="130">
         <f>E3</f>
         <v>5</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="91" t="s">
+      <c r="F11" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="G11" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="162"/>
-      <c r="I11" s="84" t="s">
+      <c r="H11" s="70"/>
+      <c r="I11" s="159" t="s">
         <v>26</v>
       </c>
       <c r="J11" s="49" t="str">
@@ -2472,26 +2469,26 @@
         <f>'dynamic Data'!$B21</f>
         <v>DD.MM - DD.MM.YYYY</v>
       </c>
-      <c r="AD11" s="87" t="s">
+      <c r="AD11" s="162" t="s">
         <v>47</v>
       </c>
-      <c r="AE11" s="86" t="s">
+      <c r="AE11" s="161" t="s">
         <v>48</v>
       </c>
-      <c r="AF11" s="86" t="s">
+      <c r="AF11" s="161" t="s">
         <v>49</v>
       </c>
       <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="2:33" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="113"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="51"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="85"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="160"/>
       <c r="J12" s="36" t="s">
         <v>27</v>
       </c>
@@ -2552,30 +2549,30 @@
       <c r="AC12" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="AD12" s="87"/>
-      <c r="AE12" s="86"/>
-      <c r="AF12" s="86"/>
+      <c r="AD12" s="162"/>
+      <c r="AE12" s="161"/>
+      <c r="AF12" s="161"/>
     </row>
     <row r="13" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="114" t="str">
+      <c r="B13" s="110" t="str">
         <f>'Std-A'!A3</f>
         <v>Hörschinger Rene</v>
       </c>
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="123">
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="119">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J13,IF($E$3&gt;=2,$K13,0),IF($E$3&gt;=3,$L13,0),IF($E$3&gt;=4,$M13,0),IF($E$3&gt;=5,$N13,0),IF($E$3&gt;=6,$O13,0),IF($E$3&gt;=7,$P13,0),IF($E$3&gt;=8,$Q13,0),IF($E$3&gt;=9,$R13,0),IF($E$3&gt;=10,$S13,0),IF($E$3&gt;=11,$T13,0),IF($E$3&gt;=12,$U13,0),IF($E$3&gt;=13,$V13,0),IF($E$3&gt;=14,$W13,0),IF($E$3&gt;=15,$X13,0),IF($E$3&gt;=16,$Y13,0),IF($E$3&gt;=17,$Z13,0),IF($E$3&gt;=18,$AA13,0),IF($E$3&gt;=19,$AB13,0),IF($E$3&gt;=12,$AC13,0)),0)</f>
         <v>75</v>
       </c>
-      <c r="F13" s="96">
+      <c r="F13" s="122">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J14,IF($E$3&gt;=2,$K14,0),IF($E$3&gt;=3,$L14,0),IF($E$3&gt;=4,$M14,0),IF($E$3&gt;=5,$N14,0),IF($E$3&gt;=6,$O14,0),IF($E$3&gt;=7,$P14,0),IF($E$3&gt;=8,$Q14,0),IF($E$3&gt;=9,$R14,0),IF($E$3&gt;=10,$S14,0),IF($E$3&gt;=11,$T14,0),IF($E$3&gt;=12,$U14,0),IF($E$3&gt;=13,$V14,0),IF($E$3&gt;=14,$W14,0),IF($E$3&gt;=15,$X14,0),IF($E$3&gt;=16,$Y14,0),IF($E$3&gt;=17,$Z14,0),IF($E$3&gt;=18,$AA14,0),IF($E$3&gt;=19,$AB14,0),IF($E$3&gt;=20,$AC14,0)),0)</f>
         <v>75</v>
       </c>
-      <c r="G13" s="136">
+      <c r="G13" s="132">
         <f>F13-E13</f>
         <v>0</v>
       </c>
-      <c r="H13" s="158"/>
+      <c r="H13" s="68"/>
       <c r="I13" s="37" t="s">
         <v>51</v>
       </c>
@@ -2663,23 +2660,23 @@
         <f t="shared" ref="AD13:AD22" si="0">SUM(J13:AC13)</f>
         <v>75</v>
       </c>
-      <c r="AE13" s="68">
+      <c r="AE13" s="75">
         <f>IF(NOT(EXACT(B13,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF13" s="81">
+      <c r="AF13" s="77">
         <f>AD14-AE13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="117"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="159"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="37" t="s">
         <v>50</v>
       </c>
@@ -2767,17 +2764,17 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="82"/>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="74"/>
     </row>
     <row r="15" spans="2:33" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="120"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="159"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="39" t="s">
         <v>25</v>
       </c>
@@ -2865,29 +2862,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="70"/>
-      <c r="AF15" s="83"/>
+      <c r="AE15" s="76"/>
+      <c r="AF15" s="79"/>
     </row>
     <row r="16" spans="2:33" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="106" t="str">
+      <c r="B16" s="80" t="str">
         <f>'Std-B'!A3</f>
         <v>Lumesberger Thomas</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="128">
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="86">
         <f t="shared" ref="E16" si="3">IF(NOT(EXACT($B16,"----")),SUM($J16,IF($E$3&gt;=2,$K16,0),IF($E$3&gt;=3,$L16,0),IF($E$3&gt;=4,$M16,0),IF($E$3&gt;=5,$N16,0),IF($E$3&gt;=6,$O16,0),IF($E$3&gt;=7,$P16,0),IF($E$3&gt;=8,$Q16,0),IF($E$3&gt;=9,$R16,0),IF($E$3&gt;=10,$S16,0),IF($E$3&gt;=11,$T16,0),IF($E$3&gt;=12,$U16,0),IF($E$3&gt;=13,$V16,0),IF($E$3&gt;=14,$W16,0),IF($E$3&gt;=15,$X16,0),IF($E$3&gt;=16,$Y16,0),IF($E$3&gt;=17,$Z16,0),IF($E$3&gt;=18,$AA16,0),IF($E$3&gt;=19,$AB16,0),IF($E$3&gt;=12,$AC16,0)),0)</f>
         <v>75</v>
       </c>
-      <c r="F16" s="131">
+      <c r="F16" s="127">
         <f t="shared" ref="F16" si="4">IF(NOT(EXACT($B16,"----")),SUM($J17,IF($E$3&gt;=2,$K17,0),IF($E$3&gt;=3,$L17,0),IF($E$3&gt;=4,$M17,0),IF($E$3&gt;=5,$N17,0),IF($E$3&gt;=6,$O17,0),IF($E$3&gt;=7,$P17,0),IF($E$3&gt;=8,$Q17,0),IF($E$3&gt;=9,$R17,0),IF($E$3&gt;=10,$S17,0),IF($E$3&gt;=11,$T17,0),IF($E$3&gt;=12,$U17,0),IF($E$3&gt;=13,$V17,0),IF($E$3&gt;=14,$W17,0),IF($E$3&gt;=15,$X17,0),IF($E$3&gt;=16,$Y17,0),IF($E$3&gt;=17,$Z17,0),IF($E$3&gt;=18,$AA17,0),IF($E$3&gt;=19,$AB17,0),IF($E$3&gt;=20,$AC17,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="103">
+      <c r="G16" s="92">
         <f t="shared" ref="G16" si="5">F16-E16</f>
         <v>-75</v>
       </c>
-      <c r="H16" s="158"/>
+      <c r="H16" s="68"/>
       <c r="I16" s="37" t="s">
         <v>51</v>
       </c>
@@ -2975,23 +2972,23 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="AE16" s="68">
+      <c r="AE16" s="75">
         <f>IF(NOT(EXACT(B16,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF16" s="81">
+      <c r="AF16" s="77">
         <f>AD17-AE16</f>
         <v>-75</v>
       </c>
     </row>
     <row r="17" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="159"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="38" t="s">
         <v>50</v>
       </c>
@@ -3079,17 +3076,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="82"/>
+      <c r="AE17" s="72"/>
+      <c r="AF17" s="74"/>
     </row>
     <row r="18" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="110"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="159"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="69"/>
       <c r="I18" s="40" t="s">
         <v>25</v>
       </c>
@@ -3177,29 +3174,29 @@
         <f t="shared" si="0"/>
         <v>-75</v>
       </c>
-      <c r="AE18" s="70"/>
-      <c r="AF18" s="156"/>
+      <c r="AE18" s="76"/>
+      <c r="AF18" s="78"/>
     </row>
     <row r="19" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="106" t="str">
+      <c r="B19" s="80" t="str">
         <f>'Std-C'!A3</f>
         <v>----</v>
       </c>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="128">
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="86">
         <f t="shared" ref="E19" si="8">IF(NOT(EXACT($B19,"----")),SUM($J19,IF($E$3&gt;=2,$K19,0),IF($E$3&gt;=3,$L19,0),IF($E$3&gt;=4,$M19,0),IF($E$3&gt;=5,$N19,0),IF($E$3&gt;=6,$O19,0),IF($E$3&gt;=7,$P19,0),IF($E$3&gt;=8,$Q19,0),IF($E$3&gt;=9,$R19,0),IF($E$3&gt;=10,$S19,0),IF($E$3&gt;=11,$T19,0),IF($E$3&gt;=12,$U19,0),IF($E$3&gt;=13,$V19,0),IF($E$3&gt;=14,$W19,0),IF($E$3&gt;=15,$X19,0),IF($E$3&gt;=16,$Y19,0),IF($E$3&gt;=17,$Z19,0),IF($E$3&gt;=18,$AA19,0),IF($E$3&gt;=19,$AB19,0),IF($E$3&gt;=12,$AC19,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="147">
+      <c r="F19" s="89">
         <f t="shared" ref="F19" si="9">IF(NOT(EXACT($B19,"----")),SUM($J20,IF($E$3&gt;=2,$K20,0),IF($E$3&gt;=3,$L20,0),IF($E$3&gt;=4,$M20,0),IF($E$3&gt;=5,$N20,0),IF($E$3&gt;=6,$O20,0),IF($E$3&gt;=7,$P20,0),IF($E$3&gt;=8,$Q20,0),IF($E$3&gt;=9,$R20,0),IF($E$3&gt;=10,$S20,0),IF($E$3&gt;=11,$T20,0),IF($E$3&gt;=12,$U20,0),IF($E$3&gt;=13,$V20,0),IF($E$3&gt;=14,$W20,0),IF($E$3&gt;=15,$X20,0),IF($E$3&gt;=16,$Y20,0),IF($E$3&gt;=17,$Z20,0),IF($E$3&gt;=18,$AA20,0),IF($E$3&gt;=19,$AB20,0),IF($E$3&gt;=20,$AC20,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="103">
+      <c r="G19" s="92">
         <f t="shared" ref="G19" si="10">F19-E19</f>
         <v>0</v>
       </c>
-      <c r="H19" s="158"/>
+      <c r="H19" s="68"/>
       <c r="I19" s="41" t="s">
         <v>51</v>
       </c>
@@ -3287,23 +3284,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="68">
+      <c r="AE19" s="75">
         <f>IF(NOT(EXACT(B19,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF19" s="161">
+      <c r="AF19" s="73">
         <f>AD20-AE19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="141"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="159"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="69"/>
       <c r="I20" s="38" t="s">
         <v>50</v>
       </c>
@@ -3391,17 +3388,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="69"/>
-      <c r="AF20" s="82"/>
+      <c r="AE20" s="72"/>
+      <c r="AF20" s="74"/>
     </row>
     <row r="21" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="152"/>
-      <c r="C21" s="153"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="159"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="39" t="s">
         <v>25</v>
       </c>
@@ -3489,29 +3486,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="70"/>
-      <c r="AF21" s="83"/>
+      <c r="AE21" s="76"/>
+      <c r="AF21" s="79"/>
     </row>
     <row r="22" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="106" t="str">
+      <c r="B22" s="80" t="str">
         <f>'Std-D'!A3</f>
         <v>----</v>
       </c>
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="128">
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="86">
         <f t="shared" ref="E22" si="13">IF(NOT(EXACT($B22,"----")),SUM($J22,IF($E$3&gt;=2,$K22,0),IF($E$3&gt;=3,$L22,0),IF($E$3&gt;=4,$M22,0),IF($E$3&gt;=5,$N22,0),IF($E$3&gt;=6,$O22,0),IF($E$3&gt;=7,$P22,0),IF($E$3&gt;=8,$Q22,0),IF($E$3&gt;=9,$R22,0),IF($E$3&gt;=10,$S22,0),IF($E$3&gt;=11,$T22,0),IF($E$3&gt;=12,$U22,0),IF($E$3&gt;=13,$V22,0),IF($E$3&gt;=14,$W22,0),IF($E$3&gt;=15,$X22,0),IF($E$3&gt;=16,$Y22,0),IF($E$3&gt;=17,$Z22,0),IF($E$3&gt;=18,$AA22,0),IF($E$3&gt;=19,$AB22,0),IF($E$3&gt;=12,$AC22,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="147">
+      <c r="F22" s="89">
         <f t="shared" ref="F22" si="14">IF(NOT(EXACT($B22,"----")),SUM($J23,IF($E$3&gt;=2,$K23,0),IF($E$3&gt;=3,$L23,0),IF($E$3&gt;=4,$M23,0),IF($E$3&gt;=5,$N23,0),IF($E$3&gt;=6,$O23,0),IF($E$3&gt;=7,$P23,0),IF($E$3&gt;=8,$Q23,0),IF($E$3&gt;=9,$R23,0),IF($E$3&gt;=10,$S23,0),IF($E$3&gt;=11,$T23,0),IF($E$3&gt;=12,$U23,0),IF($E$3&gt;=13,$V23,0),IF($E$3&gt;=14,$W23,0),IF($E$3&gt;=15,$X23,0),IF($E$3&gt;=16,$Y23,0),IF($E$3&gt;=17,$Z23,0),IF($E$3&gt;=18,$AA23,0),IF($E$3&gt;=19,$AB23,0),IF($E$3&gt;=20,$AC23,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="103">
+      <c r="G22" s="92">
         <f t="shared" ref="G22" si="15">F22-E22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="158"/>
+      <c r="H22" s="68"/>
       <c r="I22" s="37" t="s">
         <v>51</v>
       </c>
@@ -3599,23 +3596,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="68">
+      <c r="AE22" s="75">
         <f>IF(NOT(EXACT(B22,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="81">
+      <c r="AF22" s="77">
         <f>AD23-AE22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="141"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="159"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="38" t="s">
         <v>50</v>
       </c>
@@ -3703,17 +3700,17 @@
         <f>SUM(J23:AC23)</f>
         <v>0</v>
       </c>
-      <c r="AE23" s="69"/>
-      <c r="AF23" s="82"/>
+      <c r="AE23" s="72"/>
+      <c r="AF23" s="74"/>
     </row>
     <row r="24" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="152"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="159"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="69"/>
       <c r="I24" s="40" t="s">
         <v>25</v>
       </c>
@@ -3801,29 +3798,29 @@
         <f>SUM(J24:AC24)</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="70"/>
-      <c r="AF24" s="156"/>
+      <c r="AE24" s="76"/>
+      <c r="AF24" s="78"/>
     </row>
     <row r="25" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="106" t="str">
+      <c r="B25" s="80" t="str">
         <f>'Std-E'!A3</f>
         <v>----</v>
       </c>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="128">
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="86">
         <f t="shared" ref="E25" si="18">IF(NOT(EXACT($B25,"----")),SUM($J25,IF($E$3&gt;=2,$K25,0),IF($E$3&gt;=3,$L25,0),IF($E$3&gt;=4,$M25,0),IF($E$3&gt;=5,$N25,0),IF($E$3&gt;=6,$O25,0),IF($E$3&gt;=7,$P25,0),IF($E$3&gt;=8,$Q25,0),IF($E$3&gt;=9,$R25,0),IF($E$3&gt;=10,$S25,0),IF($E$3&gt;=11,$T25,0),IF($E$3&gt;=12,$U25,0),IF($E$3&gt;=13,$V25,0),IF($E$3&gt;=14,$W25,0),IF($E$3&gt;=15,$X25,0),IF($E$3&gt;=16,$Y25,0),IF($E$3&gt;=17,$Z25,0),IF($E$3&gt;=18,$AA25,0),IF($E$3&gt;=19,$AB25,0),IF($E$3&gt;=12,$AC25,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="147">
+      <c r="F25" s="89">
         <f t="shared" ref="F25" si="19">IF(NOT(EXACT($B25,"----")),SUM($J26,IF($E$3&gt;=2,$K26,0),IF($E$3&gt;=3,$L26,0),IF($E$3&gt;=4,$M26,0),IF($E$3&gt;=5,$N26,0),IF($E$3&gt;=6,$O26,0),IF($E$3&gt;=7,$P26,0),IF($E$3&gt;=8,$Q26,0),IF($E$3&gt;=9,$R26,0),IF($E$3&gt;=10,$S26,0),IF($E$3&gt;=11,$T26,0),IF($E$3&gt;=12,$U26,0),IF($E$3&gt;=13,$V26,0),IF($E$3&gt;=14,$W26,0),IF($E$3&gt;=15,$X26,0),IF($E$3&gt;=16,$Y26,0),IF($E$3&gt;=17,$Z26,0),IF($E$3&gt;=18,$AA26,0),IF($E$3&gt;=19,$AB26,0),IF($E$3&gt;=20,$AC26,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="103">
+      <c r="G25" s="92">
         <f t="shared" ref="G25" si="20">F25-E25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="158"/>
+      <c r="H25" s="68"/>
       <c r="I25" s="41" t="s">
         <v>51</v>
       </c>
@@ -3911,23 +3908,23 @@
         <f>SUM(J25:AC25)</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="160">
+      <c r="AE25" s="71">
         <f>IF(NOT(EXACT(B25,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="161">
+      <c r="AF25" s="73">
         <f>AD26-AE25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="141"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="159"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="69"/>
       <c r="I26" s="38" t="s">
         <v>50</v>
       </c>
@@ -4015,17 +4012,17 @@
         <f>SUM(J26:AC26)</f>
         <v>0</v>
       </c>
-      <c r="AE26" s="69"/>
-      <c r="AF26" s="82"/>
+      <c r="AE26" s="72"/>
+      <c r="AF26" s="74"/>
     </row>
     <row r="27" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="143"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="159"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="38" t="s">
         <v>25</v>
       </c>
@@ -4113,8 +4110,8 @@
         <f>SUM(J27:AC27)</f>
         <v>0</v>
       </c>
-      <c r="AE27" s="69"/>
-      <c r="AF27" s="82"/>
+      <c r="AE27" s="72"/>
+      <c r="AF27" s="74"/>
     </row>
     <row r="28" spans="2:32" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B28" s="18"/>
@@ -4584,44 +4581,16 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="yOBXUoUIAB/U7w0KPLJupsh9iVk347fisYP5nNpPCiF6b+qHxv5s0s2HYuXPEVrUd4C+wzuLGXdqPy8SQ1cbhA==" saltValue="WFQNdDVdQJ/i07IfTt7UUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="64">
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="AE25:AE27"/>
-    <mergeCell ref="AF25:AF27"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="AF16:AF18"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AF19:AF21"/>
-    <mergeCell ref="B19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="AE22:AE24"/>
-    <mergeCell ref="AF22:AF24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="B25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="B22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="B16:D18"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="I10:AF10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="AF13:AF15"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AD11:AD12"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D8"/>
     <mergeCell ref="E11:E12"/>
@@ -4638,16 +4607,44 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="I10:AF10"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="AF13:AF15"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="B16:D18"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="B22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="B19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="AF22:AF24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="AE25:AE27"/>
+    <mergeCell ref="AF25:AF27"/>
+    <mergeCell ref="AE16:AE18"/>
+    <mergeCell ref="AF16:AF18"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AF19:AF21"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I25:AF27">
@@ -4763,8 +4760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4821,10 +4818,10 @@
       <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="172"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -4911,10 +4908,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>15</v>
       </c>
-      <c r="D12" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="165"/>
+      <c r="D12" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="168"/>
     </row>
     <row r="13" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="175" t="s">
@@ -4955,10 +4952,10 @@
       <c r="B16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="172" t="s">
+      <c r="C16" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="172"/>
+      <c r="D16" s="165"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -5048,31 +5045,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="163" t="s">
+      <c r="A23" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="164"/>
+      <c r="B23" s="172"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>15</v>
       </c>
-      <c r="D23" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="165"/>
+      <c r="D23" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="168"/>
     </row>
     <row r="24" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="167"/>
+      <c r="A24" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="164"/>
       <c r="C24" s="62">
         <v>15</v>
       </c>
-      <c r="D24" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="168"/>
+      <c r="D24" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="166"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A25" s="169"/>
@@ -5100,10 +5097,10 @@
       <c r="B27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="172" t="s">
+      <c r="C27" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="172"/>
+      <c r="D27" s="165"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -5187,31 +5184,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="163" t="s">
+      <c r="A34" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="164"/>
+      <c r="B34" s="172"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>15</v>
       </c>
-      <c r="D34" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="165"/>
+      <c r="D34" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="168"/>
     </row>
     <row r="35" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="167"/>
+      <c r="A35" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="164"/>
       <c r="C35" s="62">
         <v>15</v>
       </c>
-      <c r="D35" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="168"/>
+      <c r="D35" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="166"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A36" s="169"/>
@@ -5239,10 +5236,10 @@
       <c r="B38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="172" t="s">
+      <c r="C38" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="172"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -5326,31 +5323,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="164"/>
+      <c r="B45" s="172"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>15</v>
       </c>
-      <c r="D45" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="165"/>
+      <c r="D45" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="168"/>
     </row>
     <row r="46" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="167"/>
+      <c r="A46" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="164"/>
       <c r="C46" s="62">
         <v>15</v>
       </c>
-      <c r="D46" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="168"/>
+      <c r="D46" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="166"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A47" s="169"/>
@@ -5378,10 +5375,10 @@
       <c r="B49" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="172" t="s">
+      <c r="C49" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="172"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -5408,7 +5405,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C51" s="43">
         <v>450</v>
@@ -5417,7 +5414,7 @@
         <v>17</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="47" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
@@ -5465,31 +5462,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="163" t="s">
+      <c r="A56" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="164"/>
+      <c r="B56" s="172"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>15</v>
       </c>
-      <c r="D56" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="165"/>
+      <c r="D56" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="168"/>
     </row>
     <row r="57" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="167"/>
+      <c r="A57" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="164"/>
       <c r="C57" s="62">
         <v>15</v>
       </c>
-      <c r="D57" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="168"/>
+      <c r="D57" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="166"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A58" s="169"/>
@@ -5517,10 +5514,10 @@
       <c r="B60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="172" t="s">
+      <c r="C60" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="172"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -5592,31 +5589,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="163" t="s">
+      <c r="A67" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="164"/>
+      <c r="B67" s="172"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="165"/>
+      <c r="D67" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="168"/>
     </row>
     <row r="68" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="167"/>
+      <c r="A68" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="164"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="168"/>
+      <c r="D68" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="166"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A69" s="169"/>
@@ -5644,10 +5641,10 @@
       <c r="B71" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="172" t="s">
+      <c r="C71" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="172"/>
+      <c r="D71" s="165"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -5719,31 +5716,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="163" t="s">
+      <c r="A78" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="164"/>
+      <c r="B78" s="172"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="165"/>
+      <c r="D78" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="168"/>
     </row>
     <row r="79" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="167"/>
+      <c r="A79" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="164"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="168"/>
+      <c r="D79" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="166"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A80" s="169"/>
@@ -5771,10 +5768,10 @@
       <c r="B82" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="172" t="s">
+      <c r="C82" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="172"/>
+      <c r="D82" s="165"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -5846,31 +5843,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="163" t="s">
+      <c r="A89" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="164"/>
+      <c r="B89" s="172"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="165"/>
+      <c r="D89" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="168"/>
     </row>
     <row r="90" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="167"/>
+      <c r="A90" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="164"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="168"/>
+      <c r="D90" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="166"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A91" s="169"/>
@@ -5898,10 +5895,10 @@
       <c r="B93" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="172" t="s">
+      <c r="C93" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="172"/>
+      <c r="D93" s="165"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -5973,31 +5970,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="163" t="s">
+      <c r="A100" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="164"/>
+      <c r="B100" s="172"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="165"/>
+      <c r="D100" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="168"/>
     </row>
     <row r="101" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="167"/>
+      <c r="A101" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="164"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="168"/>
+      <c r="D101" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="166"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A102" s="169"/>
@@ -6025,10 +6022,10 @@
       <c r="B104" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="172" t="s">
+      <c r="C104" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="172"/>
+      <c r="D104" s="165"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -6100,31 +6097,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="163" t="s">
+      <c r="A111" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="164"/>
+      <c r="B111" s="172"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="165"/>
+      <c r="D111" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="168"/>
     </row>
     <row r="112" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="167"/>
+      <c r="A112" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="164"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="168"/>
+      <c r="D112" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="166"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A113" s="169"/>
@@ -6152,10 +6149,10 @@
       <c r="B115" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C115" s="172" t="s">
+      <c r="C115" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D115" s="172"/>
+      <c r="D115" s="165"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -6227,31 +6224,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="163" t="s">
+      <c r="A122" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="164"/>
+      <c r="B122" s="172"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="165"/>
+      <c r="D122" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="168"/>
     </row>
     <row r="123" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="167"/>
+      <c r="A123" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="164"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="168"/>
+      <c r="D123" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="166"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A124" s="169"/>
@@ -6279,10 +6276,10 @@
       <c r="B126" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C126" s="172" t="s">
+      <c r="C126" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D126" s="172"/>
+      <c r="D126" s="165"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -6354,31 +6351,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="163" t="s">
+      <c r="A133" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="164"/>
+      <c r="B133" s="172"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="165"/>
+      <c r="D133" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="168"/>
     </row>
     <row r="134" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="167"/>
+      <c r="A134" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="164"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="168"/>
+      <c r="D134" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="166"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A135" s="169"/>
@@ -6406,10 +6403,10 @@
       <c r="B137" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="172" t="s">
+      <c r="C137" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="172"/>
+      <c r="D137" s="165"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -6481,31 +6478,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="163" t="s">
+      <c r="A144" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B144" s="164"/>
+      <c r="B144" s="172"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="165"/>
+      <c r="D144" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="168"/>
     </row>
     <row r="145" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="167"/>
+      <c r="A145" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="164"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="168"/>
+      <c r="D145" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="166"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A146" s="169"/>
@@ -6533,10 +6530,10 @@
       <c r="B148" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C148" s="172" t="s">
+      <c r="C148" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D148" s="172"/>
+      <c r="D148" s="165"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -6608,31 +6605,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="163" t="s">
+      <c r="A155" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="164"/>
+      <c r="B155" s="172"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="165"/>
+      <c r="D155" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="168"/>
     </row>
     <row r="156" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="167"/>
+      <c r="A156" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="164"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="168"/>
+      <c r="D156" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="166"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A157" s="169"/>
@@ -6660,10 +6657,10 @@
       <c r="B159" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="172" t="s">
+      <c r="C159" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D159" s="172"/>
+      <c r="D159" s="165"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -6735,31 +6732,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="163" t="s">
+      <c r="A166" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B166" s="164"/>
+      <c r="B166" s="172"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="165"/>
+      <c r="D166" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="168"/>
     </row>
     <row r="167" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="167"/>
+      <c r="A167" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="164"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" s="168"/>
+      <c r="D167" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" s="166"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A168" s="169"/>
@@ -6787,10 +6784,10 @@
       <c r="B170" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C170" s="172" t="s">
+      <c r="C170" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D170" s="172"/>
+      <c r="D170" s="165"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -6862,31 +6859,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="163" t="s">
+      <c r="A177" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B177" s="164"/>
+      <c r="B177" s="172"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="165"/>
+      <c r="D177" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" s="168"/>
     </row>
     <row r="178" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="167"/>
+      <c r="A178" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="164"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="168"/>
+      <c r="D178" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" s="166"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A179" s="169"/>
@@ -6914,10 +6911,10 @@
       <c r="B181" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C181" s="172" t="s">
+      <c r="C181" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D181" s="172"/>
+      <c r="D181" s="165"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -6989,31 +6986,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="163" t="s">
+      <c r="A188" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B188" s="164"/>
+      <c r="B188" s="172"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="165"/>
+      <c r="D188" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="168"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="167"/>
+      <c r="A189" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="164"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="168"/>
+      <c r="D189" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="166"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A190" s="169"/>
@@ -7041,10 +7038,10 @@
       <c r="B192" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C192" s="172" t="s">
+      <c r="C192" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D192" s="172"/>
+      <c r="D192" s="165"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -7116,31 +7113,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="163" t="s">
+      <c r="A199" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="164"/>
+      <c r="B199" s="172"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199" s="165"/>
+      <c r="D199" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="168"/>
     </row>
     <row r="200" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="167"/>
+      <c r="A200" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="164"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="168"/>
+      <c r="D200" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="166"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A201" s="169"/>
@@ -7168,10 +7165,10 @@
       <c r="B203" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C203" s="172" t="s">
+      <c r="C203" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D203" s="172"/>
+      <c r="D203" s="165"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -7243,31 +7240,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="163" t="s">
+      <c r="A210" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B210" s="164"/>
+      <c r="B210" s="172"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210" s="165"/>
+      <c r="D210" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="168"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="167"/>
+      <c r="A211" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="164"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211" s="168"/>
+      <c r="D211" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="166"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A212" s="169"/>
@@ -7295,10 +7292,10 @@
       <c r="B214" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C214" s="172" t="s">
+      <c r="C214" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D214" s="172"/>
+      <c r="D214" s="165"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -7370,102 +7367,87 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="163" t="s">
+      <c r="A221" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B221" s="164"/>
+      <c r="B221" s="172"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E221" s="165"/>
+      <c r="D221" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="168"/>
     </row>
     <row r="222" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="167"/>
+      <c r="A222" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="164"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E222" s="168"/>
+      <c r="D222" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" s="166"/>
     </row>
     <row r="223" spans="1:5" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3ycMrhIin7k7o5a3QKdDs107o2UR+lTtobmr9pCOYaL7SmGfKeey7eIuIRjOPF9h5ERZ6YTi2HtbTLXSGjzqGQ==" saltValue="gAnMRYEAvr3jQUOD70YZjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
@@ -7490,57 +7472,72 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A133:B133"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -7611,10 +7608,10 @@
       <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="172"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -7694,10 +7691,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="165"/>
+      <c r="D12" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="168"/>
     </row>
     <row r="13" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="175" t="s">
@@ -7738,10 +7735,10 @@
       <c r="B16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="172" t="s">
+      <c r="C16" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="172"/>
+      <c r="D16" s="165"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -7813,31 +7810,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="163" t="s">
+      <c r="A23" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="164"/>
+      <c r="B23" s="172"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="165"/>
+      <c r="D23" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="168"/>
     </row>
     <row r="24" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="167"/>
+      <c r="A24" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="164"/>
       <c r="C24" s="62">
         <v>15</v>
       </c>
-      <c r="D24" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="168"/>
+      <c r="D24" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="166"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A25" s="169"/>
@@ -7865,10 +7862,10 @@
       <c r="B27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="172" t="s">
+      <c r="C27" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="172"/>
+      <c r="D27" s="165"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -7940,31 +7937,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="163" t="s">
+      <c r="A34" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="164"/>
+      <c r="B34" s="172"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="165"/>
+      <c r="D34" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="168"/>
     </row>
     <row r="35" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="167"/>
+      <c r="A35" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="164"/>
       <c r="C35" s="62">
         <v>20</v>
       </c>
-      <c r="D35" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="168"/>
+      <c r="D35" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="166"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A36" s="169"/>
@@ -7992,10 +7989,10 @@
       <c r="B38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="172" t="s">
+      <c r="C38" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="172"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -8067,31 +8064,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="164"/>
+      <c r="B45" s="172"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="165"/>
+      <c r="D45" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="168"/>
     </row>
     <row r="46" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="167"/>
+      <c r="A46" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="164"/>
       <c r="C46" s="62">
         <v>15</v>
       </c>
-      <c r="D46" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="168"/>
+      <c r="D46" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="166"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A47" s="169"/>
@@ -8119,10 +8116,10 @@
       <c r="B49" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="172" t="s">
+      <c r="C49" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="172"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -8194,31 +8191,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="163" t="s">
+      <c r="A56" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="164"/>
+      <c r="B56" s="172"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="165"/>
+      <c r="D56" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="168"/>
     </row>
     <row r="57" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="167"/>
+      <c r="A57" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="164"/>
       <c r="C57" s="62">
         <v>15</v>
       </c>
-      <c r="D57" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="168"/>
+      <c r="D57" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="166"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A58" s="169"/>
@@ -8246,10 +8243,10 @@
       <c r="B60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="172" t="s">
+      <c r="C60" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="172"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -8321,29 +8318,29 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="163" t="s">
+      <c r="A67" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="164"/>
+      <c r="B67" s="172"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="165"/>
+      <c r="D67" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="168"/>
     </row>
     <row r="68" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="167"/>
+      <c r="A68" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="164"/>
       <c r="C68" s="62"/>
-      <c r="D68" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="168"/>
+      <c r="D68" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="166"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A69" s="169"/>
@@ -8371,10 +8368,10 @@
       <c r="B71" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="172" t="s">
+      <c r="C71" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="172"/>
+      <c r="D71" s="165"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -8446,31 +8443,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="163" t="s">
+      <c r="A78" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="164"/>
+      <c r="B78" s="172"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="165"/>
+      <c r="D78" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="168"/>
     </row>
     <row r="79" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="167"/>
+      <c r="A79" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="164"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="168"/>
+      <c r="D79" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="166"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A80" s="169"/>
@@ -8498,10 +8495,10 @@
       <c r="B82" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="172" t="s">
+      <c r="C82" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="172"/>
+      <c r="D82" s="165"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -8573,31 +8570,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="163" t="s">
+      <c r="A89" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="164"/>
+      <c r="B89" s="172"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="165"/>
+      <c r="D89" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="168"/>
     </row>
     <row r="90" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="167"/>
+      <c r="A90" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="164"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="168"/>
+      <c r="D90" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="166"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A91" s="169"/>
@@ -8625,10 +8622,10 @@
       <c r="B93" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="172" t="s">
+      <c r="C93" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="172"/>
+      <c r="D93" s="165"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -8700,31 +8697,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="163" t="s">
+      <c r="A100" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="164"/>
+      <c r="B100" s="172"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="165"/>
+      <c r="D100" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="168"/>
     </row>
     <row r="101" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="167"/>
+      <c r="A101" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="164"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="168"/>
+      <c r="D101" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="166"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A102" s="169"/>
@@ -8752,10 +8749,10 @@
       <c r="B104" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="172" t="s">
+      <c r="C104" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="172"/>
+      <c r="D104" s="165"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -8827,31 +8824,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="163" t="s">
+      <c r="A111" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="164"/>
+      <c r="B111" s="172"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="165"/>
+      <c r="D111" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="168"/>
     </row>
     <row r="112" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="167"/>
+      <c r="A112" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="164"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="168"/>
+      <c r="D112" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="166"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A113" s="169"/>
@@ -8879,10 +8876,10 @@
       <c r="B115" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C115" s="172" t="s">
+      <c r="C115" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D115" s="172"/>
+      <c r="D115" s="165"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -8954,31 +8951,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="163" t="s">
+      <c r="A122" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="164"/>
+      <c r="B122" s="172"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="165"/>
+      <c r="D122" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="168"/>
     </row>
     <row r="123" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="167"/>
+      <c r="A123" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="164"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="168"/>
+      <c r="D123" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="166"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A124" s="169"/>
@@ -9006,10 +9003,10 @@
       <c r="B126" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C126" s="172" t="s">
+      <c r="C126" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D126" s="172"/>
+      <c r="D126" s="165"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -9081,31 +9078,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="163" t="s">
+      <c r="A133" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="164"/>
+      <c r="B133" s="172"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="165"/>
+      <c r="D133" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="168"/>
     </row>
     <row r="134" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="167"/>
+      <c r="A134" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="164"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="168"/>
+      <c r="D134" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="166"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A135" s="169"/>
@@ -9133,10 +9130,10 @@
       <c r="B137" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="172" t="s">
+      <c r="C137" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="172"/>
+      <c r="D137" s="165"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -9208,31 +9205,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="163" t="s">
+      <c r="A144" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B144" s="164"/>
+      <c r="B144" s="172"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="165"/>
+      <c r="D144" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="168"/>
     </row>
     <row r="145" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="167"/>
+      <c r="A145" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="164"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="168"/>
+      <c r="D145" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="166"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A146" s="169"/>
@@ -9260,10 +9257,10 @@
       <c r="B148" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C148" s="172" t="s">
+      <c r="C148" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D148" s="172"/>
+      <c r="D148" s="165"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -9335,31 +9332,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="163" t="s">
+      <c r="A155" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="164"/>
+      <c r="B155" s="172"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="165"/>
+      <c r="D155" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="168"/>
     </row>
     <row r="156" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="167"/>
+      <c r="A156" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="164"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="168"/>
+      <c r="D156" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="166"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A157" s="169"/>
@@ -9387,10 +9384,10 @@
       <c r="B159" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="172" t="s">
+      <c r="C159" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D159" s="172"/>
+      <c r="D159" s="165"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -9462,31 +9459,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="163" t="s">
+      <c r="A166" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B166" s="164"/>
+      <c r="B166" s="172"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="165"/>
+      <c r="D166" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="168"/>
     </row>
     <row r="167" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="167"/>
+      <c r="A167" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="164"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" s="168"/>
+      <c r="D167" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" s="166"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A168" s="169"/>
@@ -9514,10 +9511,10 @@
       <c r="B170" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C170" s="172" t="s">
+      <c r="C170" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D170" s="172"/>
+      <c r="D170" s="165"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -9589,31 +9586,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="163" t="s">
+      <c r="A177" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B177" s="164"/>
+      <c r="B177" s="172"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="165"/>
+      <c r="D177" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" s="168"/>
     </row>
     <row r="178" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="167"/>
+      <c r="A178" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="164"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="168"/>
+      <c r="D178" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" s="166"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A179" s="169"/>
@@ -9641,10 +9638,10 @@
       <c r="B181" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C181" s="172" t="s">
+      <c r="C181" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D181" s="172"/>
+      <c r="D181" s="165"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -9716,31 +9713,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="163" t="s">
+      <c r="A188" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B188" s="164"/>
+      <c r="B188" s="172"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="165"/>
+      <c r="D188" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="168"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="167"/>
+      <c r="A189" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="164"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="168"/>
+      <c r="D189" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="166"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A190" s="169"/>
@@ -9768,10 +9765,10 @@
       <c r="B192" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C192" s="172" t="s">
+      <c r="C192" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D192" s="172"/>
+      <c r="D192" s="165"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -9843,31 +9840,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="163" t="s">
+      <c r="A199" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="164"/>
+      <c r="B199" s="172"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199" s="165"/>
+      <c r="D199" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="168"/>
     </row>
     <row r="200" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="167"/>
+      <c r="A200" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="164"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="168"/>
+      <c r="D200" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="166"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A201" s="169"/>
@@ -9895,10 +9892,10 @@
       <c r="B203" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C203" s="172" t="s">
+      <c r="C203" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D203" s="172"/>
+      <c r="D203" s="165"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -9970,31 +9967,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="163" t="s">
+      <c r="A210" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B210" s="164"/>
+      <c r="B210" s="172"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210" s="165"/>
+      <c r="D210" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="168"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="167"/>
+      <c r="A211" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="164"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211" s="168"/>
+      <c r="D211" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="166"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A212" s="169"/>
@@ -10022,10 +10019,10 @@
       <c r="B214" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C214" s="172" t="s">
+      <c r="C214" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D214" s="172"/>
+      <c r="D214" s="165"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -10097,74 +10094,115 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="163" t="s">
+      <c r="A221" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B221" s="164"/>
+      <c r="B221" s="172"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E221" s="165"/>
+      <c r="D221" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="168"/>
     </row>
     <row r="222" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="167"/>
+      <c r="A222" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="164"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E222" s="168"/>
+      <c r="D222" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" s="166"/>
     </row>
     <row r="223" spans="1:5" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VytkJiG/lJCTByI+enmwG/Z3zL7M5wqlA0x0n/m9uVDo5FgtqOBSxE5i7bMQIQihB9Nd42JRTVvsElLpe7QLiQ==" saltValue="HhvqGmFxsxtyix3thOKY0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="A89:B89"/>
@@ -10189,85 +10227,44 @@
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -10338,10 +10335,10 @@
       <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="172"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -10421,10 +10418,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="165"/>
+      <c r="D12" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="168"/>
     </row>
     <row r="13" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="175" t="s">
@@ -10465,10 +10462,10 @@
       <c r="B16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="172" t="s">
+      <c r="C16" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="172"/>
+      <c r="D16" s="165"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -10540,31 +10537,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="163" t="s">
+      <c r="A23" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="164"/>
+      <c r="B23" s="172"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="165"/>
+      <c r="D23" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="168"/>
     </row>
     <row r="24" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="167"/>
+      <c r="A24" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="164"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="168"/>
+      <c r="D24" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="166"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A25" s="169"/>
@@ -10592,10 +10589,10 @@
       <c r="B27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="172" t="s">
+      <c r="C27" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="172"/>
+      <c r="D27" s="165"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -10667,31 +10664,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="163" t="s">
+      <c r="A34" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="164"/>
+      <c r="B34" s="172"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="165"/>
+      <c r="D34" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="168"/>
     </row>
     <row r="35" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="167"/>
+      <c r="A35" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="164"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="168"/>
+      <c r="D35" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="166"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A36" s="169"/>
@@ -10719,10 +10716,10 @@
       <c r="B38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="172" t="s">
+      <c r="C38" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="172"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -10794,31 +10791,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="164"/>
+      <c r="B45" s="172"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="165"/>
+      <c r="D45" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="168"/>
     </row>
     <row r="46" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="167"/>
+      <c r="A46" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="164"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="168"/>
+      <c r="D46" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="166"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A47" s="169"/>
@@ -10846,10 +10843,10 @@
       <c r="B49" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="172" t="s">
+      <c r="C49" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="172"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -10921,31 +10918,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="163" t="s">
+      <c r="A56" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="164"/>
+      <c r="B56" s="172"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="165"/>
+      <c r="D56" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="168"/>
     </row>
     <row r="57" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="167"/>
+      <c r="A57" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="164"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="168"/>
+      <c r="D57" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="166"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A58" s="169"/>
@@ -10973,10 +10970,10 @@
       <c r="B60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="172" t="s">
+      <c r="C60" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="172"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -11048,31 +11045,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="163" t="s">
+      <c r="A67" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="164"/>
+      <c r="B67" s="172"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="165"/>
+      <c r="D67" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="168"/>
     </row>
     <row r="68" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="167"/>
+      <c r="A68" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="164"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="168"/>
+      <c r="D68" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="166"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A69" s="169"/>
@@ -11100,10 +11097,10 @@
       <c r="B71" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="172" t="s">
+      <c r="C71" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="172"/>
+      <c r="D71" s="165"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -11175,31 +11172,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="163" t="s">
+      <c r="A78" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="164"/>
+      <c r="B78" s="172"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="165"/>
+      <c r="D78" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="168"/>
     </row>
     <row r="79" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="167"/>
+      <c r="A79" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="164"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="168"/>
+      <c r="D79" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="166"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A80" s="169"/>
@@ -11227,10 +11224,10 @@
       <c r="B82" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="172" t="s">
+      <c r="C82" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="172"/>
+      <c r="D82" s="165"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -11302,31 +11299,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="163" t="s">
+      <c r="A89" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="164"/>
+      <c r="B89" s="172"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="165"/>
+      <c r="D89" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="168"/>
     </row>
     <row r="90" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="167"/>
+      <c r="A90" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="164"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="168"/>
+      <c r="D90" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="166"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A91" s="169"/>
@@ -11354,10 +11351,10 @@
       <c r="B93" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="172" t="s">
+      <c r="C93" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="172"/>
+      <c r="D93" s="165"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -11429,31 +11426,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="163" t="s">
+      <c r="A100" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="164"/>
+      <c r="B100" s="172"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="165"/>
+      <c r="D100" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="168"/>
     </row>
     <row r="101" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="167"/>
+      <c r="A101" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="164"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="168"/>
+      <c r="D101" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="166"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A102" s="169"/>
@@ -11481,10 +11478,10 @@
       <c r="B104" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="172" t="s">
+      <c r="C104" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="172"/>
+      <c r="D104" s="165"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -11556,31 +11553,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="163" t="s">
+      <c r="A111" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="164"/>
+      <c r="B111" s="172"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="165"/>
+      <c r="D111" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="168"/>
     </row>
     <row r="112" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="167"/>
+      <c r="A112" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="164"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="168"/>
+      <c r="D112" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="166"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A113" s="169"/>
@@ -11608,10 +11605,10 @@
       <c r="B115" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C115" s="172" t="s">
+      <c r="C115" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D115" s="172"/>
+      <c r="D115" s="165"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -11683,31 +11680,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="163" t="s">
+      <c r="A122" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="164"/>
+      <c r="B122" s="172"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="165"/>
+      <c r="D122" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="168"/>
     </row>
     <row r="123" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="167"/>
+      <c r="A123" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="164"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="168"/>
+      <c r="D123" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="166"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A124" s="169"/>
@@ -11735,10 +11732,10 @@
       <c r="B126" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C126" s="172" t="s">
+      <c r="C126" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D126" s="172"/>
+      <c r="D126" s="165"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -11810,31 +11807,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="163" t="s">
+      <c r="A133" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="164"/>
+      <c r="B133" s="172"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="165"/>
+      <c r="D133" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="168"/>
     </row>
     <row r="134" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="167"/>
+      <c r="A134" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="164"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="168"/>
+      <c r="D134" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="166"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A135" s="169"/>
@@ -11862,10 +11859,10 @@
       <c r="B137" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="172" t="s">
+      <c r="C137" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="172"/>
+      <c r="D137" s="165"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -11937,31 +11934,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="163" t="s">
+      <c r="A144" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B144" s="164"/>
+      <c r="B144" s="172"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="165"/>
+      <c r="D144" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="168"/>
     </row>
     <row r="145" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="167"/>
+      <c r="A145" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="164"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="168"/>
+      <c r="D145" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="166"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A146" s="169"/>
@@ -11989,10 +11986,10 @@
       <c r="B148" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C148" s="172" t="s">
+      <c r="C148" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D148" s="172"/>
+      <c r="D148" s="165"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -12064,31 +12061,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="163" t="s">
+      <c r="A155" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="164"/>
+      <c r="B155" s="172"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="165"/>
+      <c r="D155" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="168"/>
     </row>
     <row r="156" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="167"/>
+      <c r="A156" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="164"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="168"/>
+      <c r="D156" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="166"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A157" s="169"/>
@@ -12116,10 +12113,10 @@
       <c r="B159" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="172" t="s">
+      <c r="C159" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D159" s="172"/>
+      <c r="D159" s="165"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -12191,31 +12188,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="163" t="s">
+      <c r="A166" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B166" s="164"/>
+      <c r="B166" s="172"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="165"/>
+      <c r="D166" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="168"/>
     </row>
     <row r="167" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="167"/>
+      <c r="A167" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="164"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" s="168"/>
+      <c r="D167" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" s="166"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A168" s="169"/>
@@ -12243,10 +12240,10 @@
       <c r="B170" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C170" s="172" t="s">
+      <c r="C170" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D170" s="172"/>
+      <c r="D170" s="165"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -12318,31 +12315,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="163" t="s">
+      <c r="A177" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B177" s="164"/>
+      <c r="B177" s="172"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="165"/>
+      <c r="D177" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" s="168"/>
     </row>
     <row r="178" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="167"/>
+      <c r="A178" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="164"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="168"/>
+      <c r="D178" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" s="166"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A179" s="169"/>
@@ -12370,10 +12367,10 @@
       <c r="B181" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C181" s="172" t="s">
+      <c r="C181" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D181" s="172"/>
+      <c r="D181" s="165"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -12445,31 +12442,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="163" t="s">
+      <c r="A188" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B188" s="164"/>
+      <c r="B188" s="172"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="165"/>
+      <c r="D188" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="168"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="167"/>
+      <c r="A189" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="164"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="168"/>
+      <c r="D189" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="166"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A190" s="169"/>
@@ -12497,10 +12494,10 @@
       <c r="B192" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C192" s="172" t="s">
+      <c r="C192" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D192" s="172"/>
+      <c r="D192" s="165"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -12572,31 +12569,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="163" t="s">
+      <c r="A199" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="164"/>
+      <c r="B199" s="172"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199" s="165"/>
+      <c r="D199" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="168"/>
     </row>
     <row r="200" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="167"/>
+      <c r="A200" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="164"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="168"/>
+      <c r="D200" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="166"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A201" s="169"/>
@@ -12624,10 +12621,10 @@
       <c r="B203" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C203" s="172" t="s">
+      <c r="C203" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D203" s="172"/>
+      <c r="D203" s="165"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -12699,31 +12696,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="163" t="s">
+      <c r="A210" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B210" s="164"/>
+      <c r="B210" s="172"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210" s="165"/>
+      <c r="D210" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="168"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="167"/>
+      <c r="A211" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="164"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211" s="168"/>
+      <c r="D211" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="166"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A212" s="169"/>
@@ -12751,10 +12748,10 @@
       <c r="B214" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C214" s="172" t="s">
+      <c r="C214" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D214" s="172"/>
+      <c r="D214" s="165"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -12826,79 +12823,110 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="163" t="s">
+      <c r="A221" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B221" s="164"/>
+      <c r="B221" s="172"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E221" s="165"/>
+      <c r="D221" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="168"/>
     </row>
     <row r="222" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="167"/>
+      <c r="A222" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="164"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E222" s="168"/>
+      <c r="D222" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" s="166"/>
     </row>
     <row r="223" spans="1:5" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="g3ZvYrwR03Dwo45rDtXXsAue3hZi3105AdEtMXHqQ4IoQiVEBud7K+JY0q7yvQH4wGLg6yPHKCt/bMn7k/VMfg==" saltValue="r7pz2F8ZFi0sdFhTPydVJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="D12:E12"/>
@@ -12923,80 +12951,49 @@
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -13067,10 +13064,10 @@
       <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="172"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -13150,10 +13147,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="165"/>
+      <c r="D12" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="168"/>
     </row>
     <row r="13" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="175" t="s">
@@ -13194,10 +13191,10 @@
       <c r="B16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="172" t="s">
+      <c r="C16" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="172"/>
+      <c r="D16" s="165"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -13269,31 +13266,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="163" t="s">
+      <c r="A23" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="164"/>
+      <c r="B23" s="172"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="165"/>
+      <c r="D23" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="168"/>
     </row>
     <row r="24" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="167"/>
+      <c r="A24" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="164"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="168"/>
+      <c r="D24" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="166"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A25" s="169"/>
@@ -13321,10 +13318,10 @@
       <c r="B27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="172" t="s">
+      <c r="C27" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="172"/>
+      <c r="D27" s="165"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -13396,31 +13393,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="163" t="s">
+      <c r="A34" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="164"/>
+      <c r="B34" s="172"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="165"/>
+      <c r="D34" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="168"/>
     </row>
     <row r="35" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="167"/>
+      <c r="A35" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="164"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="168"/>
+      <c r="D35" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="166"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A36" s="169"/>
@@ -13448,10 +13445,10 @@
       <c r="B38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="172" t="s">
+      <c r="C38" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="172"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -13523,31 +13520,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="164"/>
+      <c r="B45" s="172"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="165"/>
+      <c r="D45" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="168"/>
     </row>
     <row r="46" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="167"/>
+      <c r="A46" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="164"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="168"/>
+      <c r="D46" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="166"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A47" s="169"/>
@@ -13575,10 +13572,10 @@
       <c r="B49" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="172" t="s">
+      <c r="C49" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="172"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -13650,31 +13647,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="163" t="s">
+      <c r="A56" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="164"/>
+      <c r="B56" s="172"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="165"/>
+      <c r="D56" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="168"/>
     </row>
     <row r="57" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="167"/>
+      <c r="A57" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="164"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="168"/>
+      <c r="D57" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="166"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A58" s="169"/>
@@ -13702,10 +13699,10 @@
       <c r="B60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="172" t="s">
+      <c r="C60" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="172"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -13777,31 +13774,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="163" t="s">
+      <c r="A67" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="164"/>
+      <c r="B67" s="172"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="165"/>
+      <c r="D67" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="168"/>
     </row>
     <row r="68" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="167"/>
+      <c r="A68" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="164"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="168"/>
+      <c r="D68" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="166"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A69" s="169"/>
@@ -13829,10 +13826,10 @@
       <c r="B71" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="172" t="s">
+      <c r="C71" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="172"/>
+      <c r="D71" s="165"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -13904,31 +13901,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="163" t="s">
+      <c r="A78" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="164"/>
+      <c r="B78" s="172"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="165"/>
+      <c r="D78" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="168"/>
     </row>
     <row r="79" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="167"/>
+      <c r="A79" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="164"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="168"/>
+      <c r="D79" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="166"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A80" s="169"/>
@@ -13956,10 +13953,10 @@
       <c r="B82" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="172" t="s">
+      <c r="C82" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="172"/>
+      <c r="D82" s="165"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -14031,31 +14028,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="163" t="s">
+      <c r="A89" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="164"/>
+      <c r="B89" s="172"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="165"/>
+      <c r="D89" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="168"/>
     </row>
     <row r="90" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="167"/>
+      <c r="A90" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="164"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="168"/>
+      <c r="D90" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="166"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A91" s="169"/>
@@ -14083,10 +14080,10 @@
       <c r="B93" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="172" t="s">
+      <c r="C93" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="172"/>
+      <c r="D93" s="165"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -14158,31 +14155,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="163" t="s">
+      <c r="A100" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="164"/>
+      <c r="B100" s="172"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="165"/>
+      <c r="D100" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="168"/>
     </row>
     <row r="101" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="167"/>
+      <c r="A101" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="164"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="168"/>
+      <c r="D101" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="166"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A102" s="169"/>
@@ -14210,10 +14207,10 @@
       <c r="B104" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="172" t="s">
+      <c r="C104" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="172"/>
+      <c r="D104" s="165"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -14285,31 +14282,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="163" t="s">
+      <c r="A111" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="164"/>
+      <c r="B111" s="172"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="165"/>
+      <c r="D111" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="168"/>
     </row>
     <row r="112" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="167"/>
+      <c r="A112" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="164"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="168"/>
+      <c r="D112" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="166"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A113" s="169"/>
@@ -14337,10 +14334,10 @@
       <c r="B115" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C115" s="172" t="s">
+      <c r="C115" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D115" s="172"/>
+      <c r="D115" s="165"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -14412,31 +14409,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="163" t="s">
+      <c r="A122" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="164"/>
+      <c r="B122" s="172"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="165"/>
+      <c r="D122" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="168"/>
     </row>
     <row r="123" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="167"/>
+      <c r="A123" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="164"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="168"/>
+      <c r="D123" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="166"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A124" s="169"/>
@@ -14464,10 +14461,10 @@
       <c r="B126" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C126" s="172" t="s">
+      <c r="C126" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D126" s="172"/>
+      <c r="D126" s="165"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -14539,31 +14536,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="163" t="s">
+      <c r="A133" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="164"/>
+      <c r="B133" s="172"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="165"/>
+      <c r="D133" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="168"/>
     </row>
     <row r="134" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="167"/>
+      <c r="A134" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="164"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="168"/>
+      <c r="D134" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="166"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A135" s="169"/>
@@ -14591,10 +14588,10 @@
       <c r="B137" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="172" t="s">
+      <c r="C137" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="172"/>
+      <c r="D137" s="165"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -14666,31 +14663,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="163" t="s">
+      <c r="A144" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B144" s="164"/>
+      <c r="B144" s="172"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="165"/>
+      <c r="D144" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="168"/>
     </row>
     <row r="145" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="167"/>
+      <c r="A145" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="164"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="168"/>
+      <c r="D145" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="166"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A146" s="169"/>
@@ -14718,10 +14715,10 @@
       <c r="B148" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C148" s="172" t="s">
+      <c r="C148" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D148" s="172"/>
+      <c r="D148" s="165"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -14793,31 +14790,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="163" t="s">
+      <c r="A155" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="164"/>
+      <c r="B155" s="172"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="165"/>
+      <c r="D155" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="168"/>
     </row>
     <row r="156" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="167"/>
+      <c r="A156" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="164"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="168"/>
+      <c r="D156" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="166"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A157" s="169"/>
@@ -14845,10 +14842,10 @@
       <c r="B159" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="172" t="s">
+      <c r="C159" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D159" s="172"/>
+      <c r="D159" s="165"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -14920,31 +14917,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="163" t="s">
+      <c r="A166" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B166" s="164"/>
+      <c r="B166" s="172"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="165"/>
+      <c r="D166" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="168"/>
     </row>
     <row r="167" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="167"/>
+      <c r="A167" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="164"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" s="168"/>
+      <c r="D167" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" s="166"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A168" s="169"/>
@@ -14972,10 +14969,10 @@
       <c r="B170" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C170" s="172" t="s">
+      <c r="C170" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D170" s="172"/>
+      <c r="D170" s="165"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -15047,31 +15044,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="163" t="s">
+      <c r="A177" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B177" s="164"/>
+      <c r="B177" s="172"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="165"/>
+      <c r="D177" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" s="168"/>
     </row>
     <row r="178" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="167"/>
+      <c r="A178" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="164"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="168"/>
+      <c r="D178" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" s="166"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A179" s="169"/>
@@ -15099,10 +15096,10 @@
       <c r="B181" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C181" s="172" t="s">
+      <c r="C181" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D181" s="172"/>
+      <c r="D181" s="165"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -15174,31 +15171,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="163" t="s">
+      <c r="A188" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B188" s="164"/>
+      <c r="B188" s="172"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="165"/>
+      <c r="D188" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="168"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="167"/>
+      <c r="A189" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="164"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="168"/>
+      <c r="D189" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="166"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A190" s="169"/>
@@ -15226,10 +15223,10 @@
       <c r="B192" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C192" s="172" t="s">
+      <c r="C192" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D192" s="172"/>
+      <c r="D192" s="165"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -15301,31 +15298,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="163" t="s">
+      <c r="A199" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="164"/>
+      <c r="B199" s="172"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199" s="165"/>
+      <c r="D199" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="168"/>
     </row>
     <row r="200" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="167"/>
+      <c r="A200" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="164"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="168"/>
+      <c r="D200" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="166"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A201" s="169"/>
@@ -15353,10 +15350,10 @@
       <c r="B203" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C203" s="172" t="s">
+      <c r="C203" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D203" s="172"/>
+      <c r="D203" s="165"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -15428,31 +15425,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="163" t="s">
+      <c r="A210" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B210" s="164"/>
+      <c r="B210" s="172"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210" s="165"/>
+      <c r="D210" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="168"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="167"/>
+      <c r="A211" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="164"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211" s="168"/>
+      <c r="D211" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="166"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A212" s="169"/>
@@ -15480,10 +15477,10 @@
       <c r="B214" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C214" s="172" t="s">
+      <c r="C214" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D214" s="172"/>
+      <c r="D214" s="165"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -15555,87 +15552,110 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="163" t="s">
+      <c r="A221" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B221" s="164"/>
+      <c r="B221" s="172"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E221" s="165"/>
+      <c r="D221" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="168"/>
     </row>
     <row r="222" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="167"/>
+      <c r="A222" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="164"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E222" s="168"/>
+      <c r="D222" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" s="166"/>
     </row>
     <row r="223" spans="1:5" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ShHLx6295kERz/sxE7+/vkTV4PStK5pLtBbY3qMZ7fOBmXtpitxoAJt/ez1hwpRN8ZXwHfDaRYIfCiDZt/YWAA==" saltValue="N+ySqIUy80dAlB/CGO0woQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="D89:E89"/>
@@ -15652,80 +15672,57 @@
     <mergeCell ref="A102:E102"/>
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -15796,10 +15793,10 @@
       <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="172"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="26" t="s">
         <v>87</v>
       </c>
@@ -15879,10 +15876,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="165"/>
+      <c r="D12" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="168"/>
     </row>
     <row r="13" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="175" t="s">
@@ -15923,10 +15920,10 @@
       <c r="B16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="172" t="s">
+      <c r="C16" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="172"/>
+      <c r="D16" s="165"/>
       <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
@@ -15998,31 +15995,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="163" t="s">
+      <c r="A23" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="164"/>
+      <c r="B23" s="172"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="165"/>
+      <c r="D23" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="168"/>
     </row>
     <row r="24" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="167"/>
+      <c r="A24" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="164"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="168"/>
+      <c r="D24" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="166"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A25" s="169"/>
@@ -16050,10 +16047,10 @@
       <c r="B27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="172" t="s">
+      <c r="C27" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="172"/>
+      <c r="D27" s="165"/>
       <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
@@ -16125,31 +16122,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="163" t="s">
+      <c r="A34" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="164"/>
+      <c r="B34" s="172"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="165"/>
+      <c r="D34" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="168"/>
     </row>
     <row r="35" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="167"/>
+      <c r="A35" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="164"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="168"/>
+      <c r="D35" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="166"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A36" s="169"/>
@@ -16177,10 +16174,10 @@
       <c r="B38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="172" t="s">
+      <c r="C38" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="172"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="26" t="s">
         <v>87</v>
       </c>
@@ -16252,31 +16249,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="164"/>
+      <c r="B45" s="172"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="165"/>
+      <c r="D45" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="168"/>
     </row>
     <row r="46" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="167"/>
+      <c r="A46" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="164"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="168"/>
+      <c r="D46" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="166"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A47" s="169"/>
@@ -16304,10 +16301,10 @@
       <c r="B49" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="172" t="s">
+      <c r="C49" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="172"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="26" t="s">
         <v>87</v>
       </c>
@@ -16379,31 +16376,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="163" t="s">
+      <c r="A56" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="164"/>
+      <c r="B56" s="172"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="165"/>
+      <c r="D56" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="168"/>
     </row>
     <row r="57" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="167"/>
+      <c r="A57" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="164"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="168"/>
+      <c r="D57" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="166"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A58" s="169"/>
@@ -16431,10 +16428,10 @@
       <c r="B60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="172" t="s">
+      <c r="C60" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="172"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="26" t="s">
         <v>87</v>
       </c>
@@ -16506,31 +16503,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="163" t="s">
+      <c r="A67" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="164"/>
+      <c r="B67" s="172"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="165"/>
+      <c r="D67" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="168"/>
     </row>
     <row r="68" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="167"/>
+      <c r="A68" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="164"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="168"/>
+      <c r="D68" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="166"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A69" s="169"/>
@@ -16558,10 +16555,10 @@
       <c r="B71" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="172" t="s">
+      <c r="C71" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="172"/>
+      <c r="D71" s="165"/>
       <c r="E71" s="26" t="s">
         <v>87</v>
       </c>
@@ -16633,31 +16630,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="163" t="s">
+      <c r="A78" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="164"/>
+      <c r="B78" s="172"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="165"/>
+      <c r="D78" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="168"/>
     </row>
     <row r="79" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="167"/>
+      <c r="A79" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="164"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="168"/>
+      <c r="D79" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="166"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A80" s="169"/>
@@ -16685,10 +16682,10 @@
       <c r="B82" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="172" t="s">
+      <c r="C82" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="172"/>
+      <c r="D82" s="165"/>
       <c r="E82" s="26" t="s">
         <v>87</v>
       </c>
@@ -16760,31 +16757,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="163" t="s">
+      <c r="A89" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="164"/>
+      <c r="B89" s="172"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="165"/>
+      <c r="D89" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="168"/>
     </row>
     <row r="90" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="167"/>
+      <c r="A90" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="164"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="168"/>
+      <c r="D90" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="166"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A91" s="169"/>
@@ -16812,10 +16809,10 @@
       <c r="B93" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="172" t="s">
+      <c r="C93" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="172"/>
+      <c r="D93" s="165"/>
       <c r="E93" s="26" t="s">
         <v>87</v>
       </c>
@@ -16887,31 +16884,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="163" t="s">
+      <c r="A100" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="164"/>
+      <c r="B100" s="172"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="165"/>
+      <c r="D100" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="168"/>
     </row>
     <row r="101" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="167"/>
+      <c r="A101" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="164"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="168"/>
+      <c r="D101" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="166"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A102" s="169"/>
@@ -16939,10 +16936,10 @@
       <c r="B104" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="172" t="s">
+      <c r="C104" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="172"/>
+      <c r="D104" s="165"/>
       <c r="E104" s="26" t="s">
         <v>87</v>
       </c>
@@ -17014,31 +17011,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="163" t="s">
+      <c r="A111" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="164"/>
+      <c r="B111" s="172"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="165"/>
+      <c r="D111" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="168"/>
     </row>
     <row r="112" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="167"/>
+      <c r="A112" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="164"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="168"/>
+      <c r="D112" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="166"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A113" s="169"/>
@@ -17066,10 +17063,10 @@
       <c r="B115" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C115" s="172" t="s">
+      <c r="C115" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D115" s="172"/>
+      <c r="D115" s="165"/>
       <c r="E115" s="26" t="s">
         <v>87</v>
       </c>
@@ -17141,31 +17138,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="163" t="s">
+      <c r="A122" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="164"/>
+      <c r="B122" s="172"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="165"/>
+      <c r="D122" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="168"/>
     </row>
     <row r="123" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="167"/>
+      <c r="A123" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="164"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="168"/>
+      <c r="D123" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="166"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A124" s="169"/>
@@ -17193,10 +17190,10 @@
       <c r="B126" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C126" s="172" t="s">
+      <c r="C126" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D126" s="172"/>
+      <c r="D126" s="165"/>
       <c r="E126" s="26" t="s">
         <v>87</v>
       </c>
@@ -17268,31 +17265,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="163" t="s">
+      <c r="A133" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="164"/>
+      <c r="B133" s="172"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="165"/>
+      <c r="D133" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="168"/>
     </row>
     <row r="134" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="167"/>
+      <c r="A134" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="164"/>
       <c r="C134" s="59">
         <v>0</v>
       </c>
-      <c r="D134" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="168"/>
+      <c r="D134" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="166"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A135" s="169"/>
@@ -17320,10 +17317,10 @@
       <c r="B137" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="172" t="s">
+      <c r="C137" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="172"/>
+      <c r="D137" s="165"/>
       <c r="E137" s="26" t="s">
         <v>87</v>
       </c>
@@ -17395,31 +17392,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="163" t="s">
+      <c r="A144" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B144" s="164"/>
+      <c r="B144" s="172"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="165"/>
+      <c r="D144" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="168"/>
     </row>
     <row r="145" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="167"/>
+      <c r="A145" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="164"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="168"/>
+      <c r="D145" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="166"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A146" s="169"/>
@@ -17447,10 +17444,10 @@
       <c r="B148" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C148" s="172" t="s">
+      <c r="C148" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D148" s="172"/>
+      <c r="D148" s="165"/>
       <c r="E148" s="26" t="s">
         <v>87</v>
       </c>
@@ -17522,31 +17519,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="163" t="s">
+      <c r="A155" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="164"/>
+      <c r="B155" s="172"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="165"/>
+      <c r="D155" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="168"/>
     </row>
     <row r="156" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="167"/>
+      <c r="A156" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="164"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="168"/>
+      <c r="D156" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="166"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A157" s="169"/>
@@ -17574,10 +17571,10 @@
       <c r="B159" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="172" t="s">
+      <c r="C159" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D159" s="172"/>
+      <c r="D159" s="165"/>
       <c r="E159" s="26" t="s">
         <v>87</v>
       </c>
@@ -17649,31 +17646,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="163" t="s">
+      <c r="A166" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B166" s="164"/>
+      <c r="B166" s="172"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="165"/>
+      <c r="D166" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="168"/>
     </row>
     <row r="167" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="167"/>
+      <c r="A167" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="164"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" s="168"/>
+      <c r="D167" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" s="166"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A168" s="169"/>
@@ -17701,10 +17698,10 @@
       <c r="B170" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C170" s="172" t="s">
+      <c r="C170" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D170" s="172"/>
+      <c r="D170" s="165"/>
       <c r="E170" s="26" t="s">
         <v>87</v>
       </c>
@@ -17776,31 +17773,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="163" t="s">
+      <c r="A177" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B177" s="164"/>
+      <c r="B177" s="172"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="165"/>
+      <c r="D177" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" s="168"/>
     </row>
     <row r="178" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="167"/>
+      <c r="A178" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="164"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="168"/>
+      <c r="D178" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" s="166"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A179" s="169"/>
@@ -17828,10 +17825,10 @@
       <c r="B181" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C181" s="172" t="s">
+      <c r="C181" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D181" s="172"/>
+      <c r="D181" s="165"/>
       <c r="E181" s="26" t="s">
         <v>87</v>
       </c>
@@ -17903,31 +17900,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="163" t="s">
+      <c r="A188" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B188" s="164"/>
+      <c r="B188" s="172"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="165"/>
+      <c r="D188" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="168"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="167"/>
+      <c r="A189" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="164"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="168"/>
+      <c r="D189" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="166"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A190" s="169"/>
@@ -17955,10 +17952,10 @@
       <c r="B192" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C192" s="172" t="s">
+      <c r="C192" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D192" s="172"/>
+      <c r="D192" s="165"/>
       <c r="E192" s="26" t="s">
         <v>87</v>
       </c>
@@ -18030,31 +18027,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="163" t="s">
+      <c r="A199" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="164"/>
+      <c r="B199" s="172"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199" s="165"/>
+      <c r="D199" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="168"/>
     </row>
     <row r="200" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="167"/>
+      <c r="A200" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="164"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="168"/>
+      <c r="D200" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="166"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A201" s="169"/>
@@ -18082,10 +18079,10 @@
       <c r="B203" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C203" s="172" t="s">
+      <c r="C203" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D203" s="172"/>
+      <c r="D203" s="165"/>
       <c r="E203" s="26" t="s">
         <v>87</v>
       </c>
@@ -18157,31 +18154,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="163" t="s">
+      <c r="A210" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B210" s="164"/>
+      <c r="B210" s="172"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210" s="165"/>
+      <c r="D210" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="168"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="167"/>
+      <c r="A211" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="164"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211" s="168"/>
+      <c r="D211" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="166"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A212" s="169"/>
@@ -18209,10 +18206,10 @@
       <c r="B214" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C214" s="172" t="s">
+      <c r="C214" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="D214" s="172"/>
+      <c r="D214" s="165"/>
       <c r="E214" s="26" t="s">
         <v>87</v>
       </c>
@@ -18284,79 +18281,110 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="163" t="s">
+      <c r="A221" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B221" s="164"/>
+      <c r="B221" s="172"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E221" s="165"/>
+      <c r="D221" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="168"/>
     </row>
     <row r="222" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="167"/>
+      <c r="A222" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="164"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E222" s="168"/>
+      <c r="D222" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" s="166"/>
     </row>
     <row r="223" spans="1:5" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="qkHEiaAjF8gwOa3is30uCpyaYrrLA+M9G6ZVowWb4z7MZMFsoOteeI9rBjKK3opYj1tR9STPTqA8B88ITlzyHw==" saltValue="QgNv+41ImpTcqDKX4J8u4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="D12:E12"/>
@@ -18381,80 +18409,49 @@
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
